--- a/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
@@ -20,22 +20,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
-  <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
   <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="4"/>
@@ -314,6 +304,9 @@
   <si>
     <t>第1.0版</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アプリケーション方式設計書サンプル©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
   </si>
 </sst>
 </file>
@@ -3693,6 +3686,189 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3773,189 +3949,6 @@
     </xf>
     <xf numFmtId="177" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5230,7 +5223,9 @@
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75"/>
   <cols>
@@ -6070,7 +6065,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -6146,7 +6141,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -6406,9 +6401,7 @@
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
-      <c r="R32" s="12" t="s">
-        <v>0</v>
-      </c>
+      <c r="R32" s="12"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
@@ -6578,12 +6571,12 @@
     <row r="37" spans="1:35" ht="13.5" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -6598,7 +6591,7 @@
       <c r="P37" s="15"/>
       <c r="R37" s="15"/>
       <c r="S37" s="19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
@@ -6619,7 +6612,9 @@
     </row>
     <row r="38" spans="1:35" ht="13.5" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -7152,50 +7147,50 @@
   <sheetData>
     <row r="1" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="64" t="s">
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127"/>
+      <c r="Y1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="20" t="s">
-        <v>8</v>
-      </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="72"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
+      <c r="AI1" s="133"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -7204,48 +7199,48 @@
     </row>
     <row r="2" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="134" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="73" t="s">
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="20" t="s">
-        <v>12</v>
-      </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -7254,42 +7249,42 @@
     </row>
     <row r="3" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="139"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -7298,7 +7293,7 @@
     </row>
     <row r="5" spans="1:40" s="36" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA5" s="38"/>
       <c r="AB5" s="38"/>
@@ -7323,1073 +7318,1261 @@
       <c r="AI6" s="38"/>
     </row>
     <row r="7" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="90" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="90" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="96" t="s">
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="90" t="s">
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90" t="s">
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="111"/>
+    </row>
+    <row r="8" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="91"/>
-    </row>
-    <row r="8" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="99" t="s">
+      <c r="K8" s="120"/>
+      <c r="L8" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="93"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="115"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="115"/>
+      <c r="AI8" s="113"/>
     </row>
     <row r="9" spans="1:40" s="41" customFormat="1" ht="12" thickTop="1">
       <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="125" t="s">
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="131" t="s">
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="133"/>
-      <c r="AE9" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="104"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
     <row r="10" spans="1:40" s="41" customFormat="1">
       <c r="A10" s="43"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="114"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="63"/>
     </row>
     <row r="11" spans="1:40" s="41" customFormat="1">
       <c r="A11" s="43"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="118"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="114"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="63"/>
     </row>
     <row r="12" spans="1:40" s="41" customFormat="1">
       <c r="A12" s="44"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="143"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="82"/>
     </row>
     <row r="13" spans="1:40" s="41" customFormat="1">
       <c r="A13" s="43"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="114"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="63"/>
     </row>
     <row r="14" spans="1:40" s="41" customFormat="1">
       <c r="A14" s="43"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="114"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63"/>
     </row>
     <row r="15" spans="1:40" s="41" customFormat="1">
       <c r="A15" s="43"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="114"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="63"/>
     </row>
     <row r="16" spans="1:40" s="41" customFormat="1">
       <c r="A16" s="43"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="114"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="63"/>
     </row>
     <row r="17" spans="1:35" s="41" customFormat="1">
       <c r="A17" s="43"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="114"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="63"/>
     </row>
     <row r="18" spans="1:35" s="41" customFormat="1">
       <c r="A18" s="43"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="114"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="63"/>
     </row>
     <row r="19" spans="1:35" s="41" customFormat="1">
       <c r="A19" s="43"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="114"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="63"/>
     </row>
     <row r="20" spans="1:35" s="41" customFormat="1">
       <c r="A20" s="43"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="114"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="63"/>
     </row>
     <row r="21" spans="1:35" s="41" customFormat="1">
       <c r="A21" s="43"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-      <c r="AI21" s="114"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="63"/>
     </row>
     <row r="22" spans="1:35" s="41" customFormat="1">
       <c r="A22" s="43"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="116"/>
-      <c r="AI22" s="114"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="63"/>
     </row>
     <row r="23" spans="1:35" s="41" customFormat="1">
       <c r="A23" s="43"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="114"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="63"/>
     </row>
     <row r="24" spans="1:35" s="41" customFormat="1">
       <c r="A24" s="43"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="114"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="63"/>
     </row>
     <row r="25" spans="1:35" s="41" customFormat="1">
       <c r="A25" s="43"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="116"/>
-      <c r="AI25" s="114"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="63"/>
     </row>
     <row r="26" spans="1:35" s="41" customFormat="1">
       <c r="A26" s="43"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="113"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="114"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="63"/>
     </row>
     <row r="27" spans="1:35" s="41" customFormat="1">
       <c r="A27" s="43"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="113"/>
-      <c r="AF27" s="116"/>
-      <c r="AG27" s="116"/>
-      <c r="AH27" s="116"/>
-      <c r="AI27" s="114"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="63"/>
     </row>
     <row r="28" spans="1:35" s="41" customFormat="1">
       <c r="A28" s="43"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="118"/>
-      <c r="AD28" s="119"/>
-      <c r="AE28" s="113"/>
-      <c r="AF28" s="116"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="116"/>
-      <c r="AI28" s="114"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="63"/>
     </row>
     <row r="29" spans="1:35" s="41" customFormat="1">
       <c r="A29" s="43"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="118"/>
-      <c r="AB29" s="118"/>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="119"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="114"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="63"/>
     </row>
     <row r="30" spans="1:35" s="41" customFormat="1">
       <c r="A30" s="43"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="118"/>
-      <c r="X30" s="118"/>
-      <c r="Y30" s="118"/>
-      <c r="Z30" s="118"/>
-      <c r="AA30" s="118"/>
-      <c r="AB30" s="118"/>
-      <c r="AC30" s="118"/>
-      <c r="AD30" s="119"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="116"/>
-      <c r="AI30" s="114"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="63"/>
     </row>
     <row r="31" spans="1:35" s="41" customFormat="1">
       <c r="A31" s="43"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="118"/>
-      <c r="AB31" s="118"/>
-      <c r="AC31" s="118"/>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="116"/>
-      <c r="AG31" s="116"/>
-      <c r="AH31" s="116"/>
-      <c r="AI31" s="114"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="63"/>
     </row>
     <row r="32" spans="1:35" s="41" customFormat="1">
       <c r="A32" s="43"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="118"/>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="114"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="63"/>
     </row>
     <row r="33" spans="1:35" s="41" customFormat="1">
       <c r="A33" s="43"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="118"/>
-      <c r="AB33" s="118"/>
-      <c r="AC33" s="118"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="116"/>
-      <c r="AI33" s="114"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="63"/>
     </row>
     <row r="34" spans="1:35" s="41" customFormat="1">
       <c r="A34" s="43"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="118"/>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="119"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="116"/>
-      <c r="AI34" s="114"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="62"/>
+      <c r="AI34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="Q2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:AD8"/>
+    <mergeCell ref="AE7:AI8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:AD13"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:AD15"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:AD17"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:AD19"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:AD21"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:AD23"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:AD25"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:AD27"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:AD29"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:AD31"/>
     <mergeCell ref="AE33:AI33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
@@ -8404,194 +8587,6 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="P33:AD33"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:AD32"/>
-    <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:AD31"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:AD29"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:AD27"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:AD25"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:AD23"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:AD21"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:AD19"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:AD17"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:AD15"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:AD13"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:AD8"/>
-    <mergeCell ref="AE7:AI8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="Q2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -8619,84 +8614,84 @@
   <sheetData>
     <row r="1" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="61" t="str">
+      <c r="E1" s="122" t="str">
         <f>IF(変更履歴!E1&lt;&gt;"",変更履歴!E1,"")</f>
         <v>XXXプロジェクト</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P1" s="21"/>
-      <c r="Q1" s="64" t="str">
+      <c r="Q1" s="125" t="str">
         <f>IF(変更履歴!Q1&lt;&gt;"",変更履歴!Q1,"")</f>
         <v>要件定義</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127"/>
       <c r="Y1" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="67" t="str">
+      <c r="AA1" s="128" t="str">
         <f>IF(変更履歴!AA1&lt;&gt;"",変更履歴!AA1,"")</f>
         <v/>
       </c>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="79" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="140" t="str">
         <f>IF(変更履歴!AF1&lt;&gt;"",変更履歴!AF1,"")</f>
         <v/>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="142"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="24"/>
     </row>
     <row r="2" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A2" s="26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="61" t="str">
+      <c r="E2" s="122" t="str">
         <f>IF(変更履歴!E2&lt;&gt;"",変更履歴!E2,"")</f>
         <v/>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="149" t="str">
@@ -8711,48 +8706,48 @@
       <c r="W2" s="150"/>
       <c r="X2" s="151"/>
       <c r="Y2" s="20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="67" t="str">
+      <c r="AA2" s="128" t="str">
         <f>IF(変更履歴!AA2&lt;&gt;"",変更履歴!AA2,"")</f>
         <v/>
       </c>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="79" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="140" t="str">
         <f>IF(変更履歴!AF2&lt;&gt;"",変更履歴!AF2,"")</f>
         <v/>
       </c>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
     </row>
     <row r="3" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="61" t="str">
+      <c r="E3" s="122" t="str">
         <f>IF(変更履歴!E3&lt;&gt;"",変更履歴!E3,"")</f>
         <v/>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="152"/>
@@ -8765,15 +8760,15 @@
       <c r="X3" s="154"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -8781,7 +8776,7 @@
     <row r="4" spans="1:38" ht="12" customHeight="1"/>
     <row r="5" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1">
       <c r="Q5" s="47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1"/>
@@ -8794,7 +8789,7 @@
     <row r="8" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="48"/>
       <c r="C8" s="46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
@@ -8805,7 +8800,7 @@
       <c r="A10" s="48"/>
       <c r="B10" s="51"/>
       <c r="C10" s="46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
@@ -8817,14 +8812,14 @@
       <c r="A12" s="48"/>
       <c r="B12" s="52"/>
       <c r="C12" s="46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="48"/>
       <c r="B13" s="52"/>
       <c r="D13" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
@@ -8832,7 +8827,7 @@
     <row r="14" spans="1:38" s="46" customFormat="1">
       <c r="A14" s="48"/>
       <c r="D14" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O14" s="49"/>
     </row>
@@ -8845,7 +8840,7 @@
       <c r="A16" s="53"/>
       <c r="B16" s="54"/>
       <c r="C16" s="45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="45"/>
       <c r="O16" s="49"/>
@@ -8863,7 +8858,7 @@
       <c r="B17" s="52"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
@@ -8890,7 +8885,7 @@
       <c r="B18" s="56"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
@@ -8942,7 +8937,7 @@
       <c r="C20" s="46"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
@@ -8968,7 +8963,7 @@
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="49"/>
       <c r="G21" s="46"/>
@@ -9012,7 +9007,7 @@
     <row r="23" spans="1:24">
       <c r="A23" s="58"/>
       <c r="C23" s="59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N23" s="49"/>
       <c r="O23" s="49"/>
@@ -9021,7 +9016,7 @@
       <c r="A24" s="58"/>
       <c r="C24" s="59"/>
       <c r="D24" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
@@ -9030,7 +9025,7 @@
       <c r="A25" s="58"/>
       <c r="C25" s="59"/>
       <c r="D25" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25" s="49"/>
       <c r="O25" s="49"/>
@@ -9038,7 +9033,7 @@
     <row r="26" spans="1:24">
       <c r="A26" s="60"/>
       <c r="D26" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F26" s="46"/>
       <c r="N26" s="49"/>
@@ -9055,14 +9050,14 @@
     <row r="28" spans="1:24">
       <c r="A28" s="60"/>
       <c r="C28" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O28" s="49"/>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" s="60"/>
       <c r="D29" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N29" s="49"/>
       <c r="O29" s="49"/>
@@ -9070,7 +9065,7 @@
     <row r="30" spans="1:24">
       <c r="A30" s="60"/>
       <c r="D30" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N30" s="49"/>
       <c r="O30" s="49"/>
@@ -9078,7 +9073,7 @@
     <row r="31" spans="1:24">
       <c r="A31" s="60"/>
       <c r="D31" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
@@ -9086,7 +9081,7 @@
     <row r="32" spans="1:24">
       <c r="A32" s="60"/>
       <c r="D32" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N32" s="49"/>
       <c r="O32" s="49"/>
@@ -9094,7 +9089,7 @@
     <row r="33" spans="1:16">
       <c r="A33" s="58"/>
       <c r="D33" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N33" s="49"/>
       <c r="O33" s="49"/>
@@ -9102,7 +9097,7 @@
     <row r="34" spans="1:16">
       <c r="A34" s="60"/>
       <c r="D34" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N34" s="49"/>
       <c r="O34" s="49"/>
@@ -9110,7 +9105,7 @@
     <row r="35" spans="1:16">
       <c r="A35" s="60"/>
       <c r="D35" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
@@ -9118,36 +9113,36 @@
     <row r="36" spans="1:16">
       <c r="A36" s="60"/>
       <c r="D36" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="60"/>
       <c r="D37" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="60"/>
       <c r="D38" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="60"/>
       <c r="D39" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="D40" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="58"/>
       <c r="D41" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O41" s="49"/>
       <c r="P41" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B58A3-7DB1-41FC-9148-DB89AD8C22DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="-15" windowWidth="27675" windowHeight="11100" tabRatio="683"/>
+    <workbookView xWindow="1305" yWindow="345" windowWidth="21555" windowHeight="11775" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -25,18 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
   <si>
     <t>PJ名</t>
   </si>
@@ -305,14 +295,11 @@
     <t>第1.0版</t>
     <phoneticPr fontId="4"/>
   </si>
-  <si>
-    <t>アプリケーション方式設計書サンプル©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="14">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -329,7 +316,7 @@
     <numFmt numFmtId="188" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="189" formatCode="&quot;$&quot;#,##0;\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="74">
+  <fonts count="74" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -3686,33 +3673,174 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="1" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="2" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="3" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3722,6 +3850,48 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3767,189 +3937,6 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="1" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="2" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="3" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3970,764 +3957,764 @@
     </xf>
   </cellXfs>
   <cellStyles count="758">
-    <cellStyle name="20% - アクセント 1 2" xfId="8"/>
-    <cellStyle name="20% - アクセント 1 3" xfId="560"/>
-    <cellStyle name="20% - アクセント 1 4" xfId="561"/>
-    <cellStyle name="20% - アクセント 1 5" xfId="562"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="9"/>
-    <cellStyle name="20% - アクセント 2 3" xfId="563"/>
-    <cellStyle name="20% - アクセント 2 4" xfId="564"/>
-    <cellStyle name="20% - アクセント 2 5" xfId="565"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="10"/>
-    <cellStyle name="20% - アクセント 3 3" xfId="566"/>
-    <cellStyle name="20% - アクセント 3 4" xfId="567"/>
-    <cellStyle name="20% - アクセント 3 5" xfId="568"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="11"/>
-    <cellStyle name="20% - アクセント 4 3" xfId="569"/>
-    <cellStyle name="20% - アクセント 4 4" xfId="570"/>
-    <cellStyle name="20% - アクセント 4 5" xfId="571"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="12"/>
-    <cellStyle name="20% - アクセント 5 3" xfId="572"/>
-    <cellStyle name="20% - アクセント 5 4" xfId="573"/>
-    <cellStyle name="20% - アクセント 5 5" xfId="574"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="13"/>
-    <cellStyle name="20% - アクセント 6 3" xfId="575"/>
-    <cellStyle name="20% - アクセント 6 4" xfId="576"/>
-    <cellStyle name="20% - アクセント 6 5" xfId="577"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="14"/>
-    <cellStyle name="40% - アクセント 1 3" xfId="578"/>
-    <cellStyle name="40% - アクセント 1 4" xfId="579"/>
-    <cellStyle name="40% - アクセント 1 5" xfId="580"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="15"/>
-    <cellStyle name="40% - アクセント 2 3" xfId="581"/>
-    <cellStyle name="40% - アクセント 2 4" xfId="582"/>
-    <cellStyle name="40% - アクセント 2 5" xfId="583"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="16"/>
-    <cellStyle name="40% - アクセント 3 3" xfId="584"/>
-    <cellStyle name="40% - アクセント 3 4" xfId="585"/>
-    <cellStyle name="40% - アクセント 3 5" xfId="586"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="17"/>
-    <cellStyle name="40% - アクセント 4 3" xfId="587"/>
-    <cellStyle name="40% - アクセント 4 4" xfId="588"/>
-    <cellStyle name="40% - アクセント 4 5" xfId="589"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="18"/>
-    <cellStyle name="40% - アクセント 5 3" xfId="590"/>
-    <cellStyle name="40% - アクセント 5 4" xfId="591"/>
-    <cellStyle name="40% - アクセント 5 5" xfId="592"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="19"/>
-    <cellStyle name="40% - アクセント 6 3" xfId="593"/>
-    <cellStyle name="40% - アクセント 6 4" xfId="594"/>
-    <cellStyle name="40% - アクセント 6 5" xfId="595"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="20"/>
-    <cellStyle name="60% - アクセント 1 3" xfId="596"/>
-    <cellStyle name="60% - アクセント 1 4" xfId="597"/>
-    <cellStyle name="60% - アクセント 1 5" xfId="598"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="21"/>
-    <cellStyle name="60% - アクセント 2 3" xfId="599"/>
-    <cellStyle name="60% - アクセント 2 4" xfId="600"/>
-    <cellStyle name="60% - アクセント 2 5" xfId="601"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="22"/>
-    <cellStyle name="60% - アクセント 3 3" xfId="602"/>
-    <cellStyle name="60% - アクセント 3 4" xfId="603"/>
-    <cellStyle name="60% - アクセント 3 5" xfId="604"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="23"/>
-    <cellStyle name="60% - アクセント 4 3" xfId="605"/>
-    <cellStyle name="60% - アクセント 4 4" xfId="606"/>
-    <cellStyle name="60% - アクセント 4 5" xfId="607"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="24"/>
-    <cellStyle name="60% - アクセント 5 3" xfId="608"/>
-    <cellStyle name="60% - アクセント 5 4" xfId="609"/>
-    <cellStyle name="60% - アクセント 5 5" xfId="610"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="25"/>
-    <cellStyle name="60% - アクセント 6 3" xfId="611"/>
-    <cellStyle name="60% - アクセント 6 4" xfId="612"/>
-    <cellStyle name="60% - アクセント 6 5" xfId="613"/>
-    <cellStyle name="args.style" xfId="614"/>
-    <cellStyle name="Calc Currency (0)" xfId="26"/>
-    <cellStyle name="Calc Currency (2)" xfId="615"/>
-    <cellStyle name="Calc Percent (0)" xfId="616"/>
-    <cellStyle name="Calc Percent (1)" xfId="617"/>
-    <cellStyle name="Calc Percent (2)" xfId="618"/>
-    <cellStyle name="Calc Units (0)" xfId="619"/>
-    <cellStyle name="Calc Units (1)" xfId="620"/>
-    <cellStyle name="Calc Units (2)" xfId="621"/>
-    <cellStyle name="Comma [0]_!!!GO" xfId="622"/>
-    <cellStyle name="Comma [00]" xfId="623"/>
-    <cellStyle name="Comma_!!!GO" xfId="624"/>
-    <cellStyle name="Copied" xfId="625"/>
-    <cellStyle name="Currency [0]_!!!GO" xfId="626"/>
-    <cellStyle name="Currency [00]" xfId="627"/>
-    <cellStyle name="Currency_!!!GO" xfId="628"/>
-    <cellStyle name="Date Short" xfId="629"/>
-    <cellStyle name="Enter Currency (0)" xfId="630"/>
-    <cellStyle name="Enter Currency (2)" xfId="631"/>
-    <cellStyle name="Enter Units (0)" xfId="632"/>
-    <cellStyle name="Enter Units (1)" xfId="633"/>
-    <cellStyle name="Enter Units (2)" xfId="634"/>
-    <cellStyle name="Entered" xfId="635"/>
-    <cellStyle name="Followed Hyperlink" xfId="636"/>
-    <cellStyle name="Grey" xfId="637"/>
-    <cellStyle name="Header1" xfId="27"/>
-    <cellStyle name="Header2" xfId="28"/>
-    <cellStyle name="Header2 2" xfId="29"/>
-    <cellStyle name="Header2 2 10" xfId="30"/>
-    <cellStyle name="Header2 2 10 2" xfId="31"/>
-    <cellStyle name="Header2 2 11" xfId="32"/>
-    <cellStyle name="Header2 2 11 2" xfId="33"/>
-    <cellStyle name="Header2 2 12" xfId="34"/>
-    <cellStyle name="Header2 2 12 2" xfId="35"/>
-    <cellStyle name="Header2 2 13" xfId="36"/>
-    <cellStyle name="Header2 2 2" xfId="37"/>
-    <cellStyle name="Header2 2 2 2" xfId="38"/>
-    <cellStyle name="Header2 2 2 2 2" xfId="39"/>
-    <cellStyle name="Header2 2 2 3" xfId="40"/>
-    <cellStyle name="Header2 2 2 3 2" xfId="41"/>
-    <cellStyle name="Header2 2 2 4" xfId="42"/>
-    <cellStyle name="Header2 2 2 4 2" xfId="43"/>
-    <cellStyle name="Header2 2 2 5" xfId="44"/>
-    <cellStyle name="Header2 2 2 5 2" xfId="45"/>
-    <cellStyle name="Header2 2 2 6" xfId="46"/>
-    <cellStyle name="Header2 2 2 6 2" xfId="47"/>
-    <cellStyle name="Header2 2 2 7" xfId="48"/>
-    <cellStyle name="Header2 2 3" xfId="49"/>
-    <cellStyle name="Header2 2 4" xfId="50"/>
-    <cellStyle name="Header2 2 4 2" xfId="51"/>
-    <cellStyle name="Header2 2 4 2 2" xfId="52"/>
-    <cellStyle name="Header2 2 4 3" xfId="53"/>
-    <cellStyle name="Header2 2 4 3 2" xfId="54"/>
-    <cellStyle name="Header2 2 4 4" xfId="55"/>
-    <cellStyle name="Header2 2 4 4 2" xfId="56"/>
-    <cellStyle name="Header2 2 4 5" xfId="57"/>
-    <cellStyle name="Header2 2 4 5 2" xfId="58"/>
-    <cellStyle name="Header2 2 4 6" xfId="59"/>
-    <cellStyle name="Header2 2 4 6 2" xfId="60"/>
-    <cellStyle name="Header2 2 4 7" xfId="61"/>
-    <cellStyle name="Header2 2 5" xfId="62"/>
-    <cellStyle name="Header2 2 5 2" xfId="63"/>
-    <cellStyle name="Header2 2 5 2 2" xfId="64"/>
-    <cellStyle name="Header2 2 5 3" xfId="65"/>
-    <cellStyle name="Header2 2 5 3 2" xfId="66"/>
-    <cellStyle name="Header2 2 5 4" xfId="67"/>
-    <cellStyle name="Header2 2 5 4 2" xfId="68"/>
-    <cellStyle name="Header2 2 5 5" xfId="69"/>
-    <cellStyle name="Header2 2 5 5 2" xfId="70"/>
-    <cellStyle name="Header2 2 5 6" xfId="71"/>
-    <cellStyle name="Header2 2 5 6 2" xfId="72"/>
-    <cellStyle name="Header2 2 5 7" xfId="73"/>
-    <cellStyle name="Header2 2 6" xfId="74"/>
-    <cellStyle name="Header2 2 6 2" xfId="75"/>
-    <cellStyle name="Header2 2 6 2 2" xfId="76"/>
-    <cellStyle name="Header2 2 6 3" xfId="77"/>
-    <cellStyle name="Header2 2 6 3 2" xfId="78"/>
-    <cellStyle name="Header2 2 6 4" xfId="79"/>
-    <cellStyle name="Header2 2 6 4 2" xfId="80"/>
-    <cellStyle name="Header2 2 6 5" xfId="81"/>
-    <cellStyle name="Header2 2 6 5 2" xfId="82"/>
-    <cellStyle name="Header2 2 6 6" xfId="83"/>
-    <cellStyle name="Header2 2 6 6 2" xfId="84"/>
-    <cellStyle name="Header2 2 6 7" xfId="85"/>
-    <cellStyle name="Header2 2 7" xfId="86"/>
-    <cellStyle name="Header2 2 7 2" xfId="87"/>
-    <cellStyle name="Header2 2 7 2 2" xfId="88"/>
-    <cellStyle name="Header2 2 7 3" xfId="89"/>
-    <cellStyle name="Header2 2 7 3 2" xfId="90"/>
-    <cellStyle name="Header2 2 7 4" xfId="91"/>
-    <cellStyle name="Header2 2 7 4 2" xfId="92"/>
-    <cellStyle name="Header2 2 7 5" xfId="93"/>
-    <cellStyle name="Header2 2 7 5 2" xfId="94"/>
-    <cellStyle name="Header2 2 7 6" xfId="95"/>
-    <cellStyle name="Header2 2 7 6 2" xfId="96"/>
-    <cellStyle name="Header2 2 7 7" xfId="97"/>
-    <cellStyle name="Header2 2 8" xfId="98"/>
-    <cellStyle name="Header2 2 8 2" xfId="99"/>
-    <cellStyle name="Header2 2 9" xfId="100"/>
-    <cellStyle name="Header2 2 9 2" xfId="101"/>
-    <cellStyle name="Header2 3" xfId="102"/>
-    <cellStyle name="Header2 3 10" xfId="103"/>
-    <cellStyle name="Header2 3 10 2" xfId="104"/>
-    <cellStyle name="Header2 3 11" xfId="105"/>
-    <cellStyle name="Header2 3 11 2" xfId="106"/>
-    <cellStyle name="Header2 3 12" xfId="107"/>
-    <cellStyle name="Header2 3 2" xfId="108"/>
-    <cellStyle name="Header2 3 2 2" xfId="109"/>
-    <cellStyle name="Header2 3 2 2 2" xfId="110"/>
-    <cellStyle name="Header2 3 2 3" xfId="111"/>
-    <cellStyle name="Header2 3 2 3 2" xfId="112"/>
-    <cellStyle name="Header2 3 2 4" xfId="113"/>
-    <cellStyle name="Header2 3 2 4 2" xfId="114"/>
-    <cellStyle name="Header2 3 2 5" xfId="115"/>
-    <cellStyle name="Header2 3 2 5 2" xfId="116"/>
-    <cellStyle name="Header2 3 2 6" xfId="117"/>
-    <cellStyle name="Header2 3 2 6 2" xfId="118"/>
-    <cellStyle name="Header2 3 2 7" xfId="119"/>
-    <cellStyle name="Header2 3 3" xfId="120"/>
-    <cellStyle name="Header2 3 3 2" xfId="121"/>
-    <cellStyle name="Header2 3 3 2 2" xfId="122"/>
-    <cellStyle name="Header2 3 3 3" xfId="123"/>
-    <cellStyle name="Header2 3 3 3 2" xfId="124"/>
-    <cellStyle name="Header2 3 3 4" xfId="125"/>
-    <cellStyle name="Header2 3 3 4 2" xfId="126"/>
-    <cellStyle name="Header2 3 3 5" xfId="127"/>
-    <cellStyle name="Header2 3 3 5 2" xfId="128"/>
-    <cellStyle name="Header2 3 3 6" xfId="129"/>
-    <cellStyle name="Header2 3 3 6 2" xfId="130"/>
-    <cellStyle name="Header2 3 3 7" xfId="131"/>
-    <cellStyle name="Header2 3 4" xfId="132"/>
-    <cellStyle name="Header2 3 4 2" xfId="133"/>
-    <cellStyle name="Header2 3 4 2 2" xfId="134"/>
-    <cellStyle name="Header2 3 4 3" xfId="135"/>
-    <cellStyle name="Header2 3 4 3 2" xfId="136"/>
-    <cellStyle name="Header2 3 4 4" xfId="137"/>
-    <cellStyle name="Header2 3 4 4 2" xfId="138"/>
-    <cellStyle name="Header2 3 4 5" xfId="139"/>
-    <cellStyle name="Header2 3 4 5 2" xfId="140"/>
-    <cellStyle name="Header2 3 4 6" xfId="141"/>
-    <cellStyle name="Header2 3 4 6 2" xfId="142"/>
-    <cellStyle name="Header2 3 4 7" xfId="143"/>
-    <cellStyle name="Header2 3 5" xfId="144"/>
-    <cellStyle name="Header2 3 5 2" xfId="145"/>
-    <cellStyle name="Header2 3 5 2 2" xfId="146"/>
-    <cellStyle name="Header2 3 5 3" xfId="147"/>
-    <cellStyle name="Header2 3 5 3 2" xfId="148"/>
-    <cellStyle name="Header2 3 5 4" xfId="149"/>
-    <cellStyle name="Header2 3 5 4 2" xfId="150"/>
-    <cellStyle name="Header2 3 5 5" xfId="151"/>
-    <cellStyle name="Header2 3 5 5 2" xfId="152"/>
-    <cellStyle name="Header2 3 5 6" xfId="153"/>
-    <cellStyle name="Header2 3 5 6 2" xfId="154"/>
-    <cellStyle name="Header2 3 5 7" xfId="155"/>
-    <cellStyle name="Header2 3 6" xfId="156"/>
-    <cellStyle name="Header2 3 6 2" xfId="157"/>
-    <cellStyle name="Header2 3 6 2 2" xfId="158"/>
-    <cellStyle name="Header2 3 6 3" xfId="159"/>
-    <cellStyle name="Header2 3 6 3 2" xfId="160"/>
-    <cellStyle name="Header2 3 6 4" xfId="161"/>
-    <cellStyle name="Header2 3 6 4 2" xfId="162"/>
-    <cellStyle name="Header2 3 6 5" xfId="163"/>
-    <cellStyle name="Header2 3 6 5 2" xfId="164"/>
-    <cellStyle name="Header2 3 6 6" xfId="165"/>
-    <cellStyle name="Header2 3 6 6 2" xfId="166"/>
-    <cellStyle name="Header2 3 6 7" xfId="167"/>
-    <cellStyle name="Header2 3 7" xfId="168"/>
-    <cellStyle name="Header2 3 7 2" xfId="169"/>
-    <cellStyle name="Header2 3 8" xfId="170"/>
-    <cellStyle name="Header2 3 8 2" xfId="171"/>
-    <cellStyle name="Header2 3 9" xfId="172"/>
-    <cellStyle name="Header2 3 9 2" xfId="173"/>
-    <cellStyle name="HEADINGS" xfId="638"/>
-    <cellStyle name="HEADINGSTOP" xfId="639"/>
-    <cellStyle name="Hyperlink" xfId="640"/>
-    <cellStyle name="Input [yellow]" xfId="641"/>
-    <cellStyle name="Link Currency (0)" xfId="642"/>
-    <cellStyle name="Link Currency (2)" xfId="643"/>
-    <cellStyle name="Link Units (0)" xfId="644"/>
-    <cellStyle name="Link Units (1)" xfId="645"/>
-    <cellStyle name="Link Units (2)" xfId="646"/>
-    <cellStyle name="Millares [0]_BRASIL (2)" xfId="647"/>
-    <cellStyle name="Millares_5670-t123" xfId="648"/>
-    <cellStyle name="Milliers [0]_!!!GO" xfId="649"/>
-    <cellStyle name="Milliers_!!!GO" xfId="650"/>
-    <cellStyle name="Moneda [0]_BRASIL (2)" xfId="651"/>
-    <cellStyle name="Moneda_5670-t123" xfId="652"/>
-    <cellStyle name="Mon騁aire [0]_!!!GO" xfId="653"/>
-    <cellStyle name="Mon騁aire_!!!GO" xfId="654"/>
-    <cellStyle name="Normal - Style1" xfId="655"/>
-    <cellStyle name="Normal_!!!GO" xfId="656"/>
-    <cellStyle name="Normale_LSCO0697" xfId="657"/>
-    <cellStyle name="per.style" xfId="658"/>
-    <cellStyle name="Percent [0]" xfId="659"/>
-    <cellStyle name="Percent [00]" xfId="660"/>
-    <cellStyle name="Percent [2]" xfId="661"/>
-    <cellStyle name="Percent_#6 Temps &amp; Contractors" xfId="662"/>
-    <cellStyle name="PrePop Currency (0)" xfId="663"/>
-    <cellStyle name="PrePop Currency (2)" xfId="664"/>
-    <cellStyle name="PrePop Units (0)" xfId="665"/>
-    <cellStyle name="PrePop Units (1)" xfId="666"/>
-    <cellStyle name="PrePop Units (2)" xfId="667"/>
-    <cellStyle name="pricing" xfId="668"/>
-    <cellStyle name="PSHeading" xfId="669"/>
-    <cellStyle name="regstoresfromspecstores" xfId="670"/>
-    <cellStyle name="RevList" xfId="671"/>
-    <cellStyle name="SHADEDSTORES" xfId="672"/>
-    <cellStyle name="specstores" xfId="673"/>
-    <cellStyle name="subhead" xfId="674"/>
-    <cellStyle name="Subtotal" xfId="675"/>
-    <cellStyle name="Text Indent A" xfId="676"/>
-    <cellStyle name="Text Indent B" xfId="677"/>
-    <cellStyle name="Text Indent C" xfId="678"/>
-    <cellStyle name="アクセント 1 2" xfId="174"/>
-    <cellStyle name="アクセント 1 3" xfId="679"/>
-    <cellStyle name="アクセント 1 4" xfId="680"/>
-    <cellStyle name="アクセント 1 5" xfId="681"/>
-    <cellStyle name="アクセント 2 2" xfId="175"/>
-    <cellStyle name="アクセント 2 3" xfId="682"/>
-    <cellStyle name="アクセント 2 4" xfId="683"/>
-    <cellStyle name="アクセント 2 5" xfId="684"/>
-    <cellStyle name="アクセント 3 2" xfId="176"/>
-    <cellStyle name="アクセント 3 3" xfId="685"/>
-    <cellStyle name="アクセント 3 4" xfId="686"/>
-    <cellStyle name="アクセント 3 5" xfId="687"/>
-    <cellStyle name="アクセント 4 2" xfId="177"/>
-    <cellStyle name="アクセント 4 3" xfId="688"/>
-    <cellStyle name="アクセント 4 4" xfId="689"/>
-    <cellStyle name="アクセント 4 5" xfId="690"/>
-    <cellStyle name="アクセント 5 2" xfId="178"/>
-    <cellStyle name="アクセント 5 3" xfId="691"/>
-    <cellStyle name="アクセント 5 4" xfId="692"/>
-    <cellStyle name="アクセント 5 5" xfId="693"/>
-    <cellStyle name="アクセント 6 2" xfId="179"/>
-    <cellStyle name="アクセント 6 3" xfId="694"/>
-    <cellStyle name="アクセント 6 4" xfId="695"/>
-    <cellStyle name="アクセント 6 5" xfId="696"/>
-    <cellStyle name="タイトル 2" xfId="180"/>
-    <cellStyle name="タイトル 3" xfId="697"/>
-    <cellStyle name="タイトル 4" xfId="698"/>
-    <cellStyle name="タイトル 5" xfId="699"/>
-    <cellStyle name="チェック セル 2" xfId="181"/>
-    <cellStyle name="チェック セル 3" xfId="700"/>
-    <cellStyle name="チェック セル 4" xfId="701"/>
-    <cellStyle name="チェック セル 5" xfId="702"/>
-    <cellStyle name="どちらでもない 2" xfId="182"/>
-    <cellStyle name="どちらでもない 3" xfId="703"/>
-    <cellStyle name="どちらでもない 4" xfId="704"/>
-    <cellStyle name="どちらでもない 5" xfId="705"/>
-    <cellStyle name="パーセント 2" xfId="183"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - アクセント 1 3" xfId="560" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - アクセント 1 4" xfId="561" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - アクセント 1 5" xfId="562" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - アクセント 2 3" xfId="563" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - アクセント 2 4" xfId="564" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - アクセント 2 5" xfId="565" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - アクセント 3 3" xfId="566" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - アクセント 3 4" xfId="567" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - アクセント 3 5" xfId="568" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - アクセント 4 3" xfId="569" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - アクセント 4 4" xfId="570" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - アクセント 4 5" xfId="571" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - アクセント 5 3" xfId="572" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - アクセント 5 4" xfId="573" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - アクセント 5 5" xfId="574" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - アクセント 6 3" xfId="575" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - アクセント 6 4" xfId="576" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - アクセント 6 5" xfId="577" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="40% - アクセント 1 3" xfId="578" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40% - アクセント 1 4" xfId="579" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40% - アクセント 1 5" xfId="580" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40% - アクセント 2 3" xfId="581" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40% - アクセント 2 4" xfId="582" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - アクセント 2 5" xfId="583" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - アクセント 3 3" xfId="584" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - アクセント 3 4" xfId="585" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40% - アクセント 3 5" xfId="586" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="40% - アクセント 4 3" xfId="587" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="40% - アクセント 4 4" xfId="588" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="40% - アクセント 4 5" xfId="589" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - アクセント 5 3" xfId="590" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - アクセント 5 4" xfId="591" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - アクセント 5 5" xfId="592" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="40% - アクセント 6 3" xfId="593" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - アクセント 6 4" xfId="594" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="40% - アクセント 6 5" xfId="595" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="60% - アクセント 1 3" xfId="596" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - アクセント 1 4" xfId="597" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60% - アクセント 1 5" xfId="598" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="60% - アクセント 2 3" xfId="599" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="60% - アクセント 2 4" xfId="600" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="60% - アクセント 2 5" xfId="601" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="60% - アクセント 3 3" xfId="602" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="60% - アクセント 3 4" xfId="603" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="60% - アクセント 3 5" xfId="604" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="60% - アクセント 4 3" xfId="605" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="60% - アクセント 4 4" xfId="606" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="60% - アクセント 4 5" xfId="607" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="60% - アクセント 5 3" xfId="608" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="60% - アクセント 5 4" xfId="609" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="60% - アクセント 5 5" xfId="610" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="60% - アクセント 6 3" xfId="611" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="60% - アクセント 6 4" xfId="612" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="60% - アクセント 6 5" xfId="613" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="args.style" xfId="614" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="26" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Calc Currency (2)" xfId="615" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Calc Percent (0)" xfId="616" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Calc Percent (1)" xfId="617" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Calc Percent (2)" xfId="618" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Calc Units (0)" xfId="619" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Calc Units (1)" xfId="620" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Calc Units (2)" xfId="621" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Comma [0]_!!!GO" xfId="622" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Comma [00]" xfId="623" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Comma_!!!GO" xfId="624" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Copied" xfId="625" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Currency [0]_!!!GO" xfId="626" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Currency [00]" xfId="627" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Currency_!!!GO" xfId="628" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Date Short" xfId="629" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Enter Currency (0)" xfId="630" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Enter Currency (2)" xfId="631" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Enter Units (0)" xfId="632" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Enter Units (1)" xfId="633" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Enter Units (2)" xfId="634" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Entered" xfId="635" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Grey" xfId="637" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Header1" xfId="27" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Header2" xfId="28" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Header2 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Header2 2 10" xfId="30" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Header2 2 10 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Header2 2 11" xfId="32" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Header2 2 11 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Header2 2 12" xfId="34" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Header2 2 12 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Header2 2 13" xfId="36" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Header2 2 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Header2 2 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Header2 2 2 2 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Header2 2 2 3" xfId="40" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Header2 2 2 3 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Header2 2 2 4" xfId="42" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Header2 2 2 4 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Header2 2 2 5" xfId="44" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Header2 2 2 5 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Header2 2 2 6" xfId="46" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Header2 2 2 6 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Header2 2 2 7" xfId="48" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Header2 2 3" xfId="49" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Header2 2 4" xfId="50" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Header2 2 4 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Header2 2 4 2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Header2 2 4 3" xfId="53" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Header2 2 4 3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Header2 2 4 4" xfId="55" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Header2 2 4 4 2" xfId="56" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Header2 2 4 5" xfId="57" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Header2 2 4 5 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Header2 2 4 6" xfId="59" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Header2 2 4 6 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Header2 2 4 7" xfId="61" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Header2 2 5" xfId="62" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Header2 2 5 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Header2 2 5 2 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Header2 2 5 3" xfId="65" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Header2 2 5 3 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Header2 2 5 4" xfId="67" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Header2 2 5 4 2" xfId="68" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Header2 2 5 5" xfId="69" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Header2 2 5 5 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Header2 2 5 6" xfId="71" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Header2 2 5 6 2" xfId="72" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Header2 2 5 7" xfId="73" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Header2 2 6" xfId="74" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Header2 2 6 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Header2 2 6 2 2" xfId="76" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Header2 2 6 3" xfId="77" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Header2 2 6 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Header2 2 6 4" xfId="79" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Header2 2 6 4 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Header2 2 6 5" xfId="81" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Header2 2 6 5 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Header2 2 6 6" xfId="83" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Header2 2 6 6 2" xfId="84" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Header2 2 6 7" xfId="85" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Header2 2 7" xfId="86" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Header2 2 7 2" xfId="87" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Header2 2 7 2 2" xfId="88" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Header2 2 7 3" xfId="89" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Header2 2 7 3 2" xfId="90" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Header2 2 7 4" xfId="91" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Header2 2 7 4 2" xfId="92" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Header2 2 7 5" xfId="93" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Header2 2 7 5 2" xfId="94" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Header2 2 7 6" xfId="95" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Header2 2 7 6 2" xfId="96" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Header2 2 7 7" xfId="97" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Header2 2 8" xfId="98" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Header2 2 8 2" xfId="99" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Header2 2 9" xfId="100" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Header2 2 9 2" xfId="101" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Header2 3" xfId="102" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Header2 3 10" xfId="103" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Header2 3 10 2" xfId="104" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Header2 3 11" xfId="105" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Header2 3 11 2" xfId="106" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Header2 3 12" xfId="107" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Header2 3 2" xfId="108" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Header2 3 2 2" xfId="109" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Header2 3 2 2 2" xfId="110" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Header2 3 2 3" xfId="111" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Header2 3 2 3 2" xfId="112" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Header2 3 2 4" xfId="113" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Header2 3 2 4 2" xfId="114" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Header2 3 2 5" xfId="115" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Header2 3 2 5 2" xfId="116" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Header2 3 2 6" xfId="117" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Header2 3 2 6 2" xfId="118" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Header2 3 2 7" xfId="119" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Header2 3 3" xfId="120" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Header2 3 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Header2 3 3 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Header2 3 3 3" xfId="123" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Header2 3 3 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Header2 3 3 4" xfId="125" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Header2 3 3 4 2" xfId="126" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Header2 3 3 5" xfId="127" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Header2 3 3 5 2" xfId="128" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Header2 3 3 6" xfId="129" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
+    <cellStyle name="Header2 3 3 6 2" xfId="130" xr:uid="{00000000-0005-0000-0000-0000C8000000}"/>
+    <cellStyle name="Header2 3 3 7" xfId="131" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Header2 3 4" xfId="132" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Header2 3 4 2" xfId="133" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Header2 3 4 2 2" xfId="134" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Header2 3 4 3" xfId="135" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Header2 3 4 3 2" xfId="136" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Header2 3 4 4" xfId="137" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Header2 3 4 4 2" xfId="138" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Header2 3 4 5" xfId="139" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Header2 3 4 5 2" xfId="140" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Header2 3 4 6" xfId="141" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Header2 3 4 6 2" xfId="142" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Header2 3 4 7" xfId="143" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Header2 3 5" xfId="144" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Header2 3 5 2" xfId="145" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Header2 3 5 2 2" xfId="146" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Header2 3 5 3" xfId="147" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Header2 3 5 3 2" xfId="148" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Header2 3 5 4" xfId="149" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Header2 3 5 4 2" xfId="150" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Header2 3 5 5" xfId="151" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Header2 3 5 5 2" xfId="152" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Header2 3 5 6" xfId="153" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Header2 3 5 6 2" xfId="154" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Header2 3 5 7" xfId="155" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Header2 3 6" xfId="156" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Header2 3 6 2" xfId="157" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Header2 3 6 2 2" xfId="158" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Header2 3 6 3" xfId="159" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Header2 3 6 3 2" xfId="160" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Header2 3 6 4" xfId="161" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Header2 3 6 4 2" xfId="162" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Header2 3 6 5" xfId="163" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Header2 3 6 5 2" xfId="164" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Header2 3 6 6" xfId="165" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Header2 3 6 6 2" xfId="166" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Header2 3 6 7" xfId="167" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Header2 3 7" xfId="168" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Header2 3 7 2" xfId="169" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Header2 3 8" xfId="170" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Header2 3 8 2" xfId="171" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Header2 3 9" xfId="172" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Header2 3 9 2" xfId="173" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="HEADINGS" xfId="638" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="HEADINGSTOP" xfId="639" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Hyperlink" xfId="640" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Input [yellow]" xfId="641" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Link Currency (0)" xfId="642" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Link Currency (2)" xfId="643" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Link Units (0)" xfId="644" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Link Units (1)" xfId="645" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Link Units (2)" xfId="646" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Millares [0]_BRASIL (2)" xfId="647" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Millares_5670-t123" xfId="648" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Milliers [0]_!!!GO" xfId="649" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Milliers_!!!GO" xfId="650" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Moneda [0]_BRASIL (2)" xfId="651" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Moneda_5670-t123" xfId="652" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Mon騁aire [0]_!!!GO" xfId="653" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Mon騁aire_!!!GO" xfId="654" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Normal - Style1" xfId="655" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="Normal_!!!GO" xfId="656" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Normale_LSCO0697" xfId="657" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="per.style" xfId="658" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Percent [0]" xfId="659" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Percent [00]" xfId="660" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Percent [2]" xfId="661" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Percent_#6 Temps &amp; Contractors" xfId="662" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="663" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="PrePop Currency (2)" xfId="664" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="PrePop Units (0)" xfId="665" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="PrePop Units (1)" xfId="666" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="PrePop Units (2)" xfId="667" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="pricing" xfId="668" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="PSHeading" xfId="669" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="regstoresfromspecstores" xfId="670" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="RevList" xfId="671" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="SHADEDSTORES" xfId="672" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="specstores" xfId="673" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="subhead" xfId="674" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Subtotal" xfId="675" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Text Indent A" xfId="676" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Text Indent B" xfId="677" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Text Indent C" xfId="678" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="アクセント 1 2" xfId="174" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="アクセント 1 3" xfId="679" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="アクセント 1 4" xfId="680" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="アクセント 1 5" xfId="681" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="アクセント 2 2" xfId="175" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="アクセント 2 3" xfId="682" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="アクセント 2 4" xfId="683" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="アクセント 2 5" xfId="684" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="アクセント 3 2" xfId="176" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="アクセント 3 3" xfId="685" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="アクセント 3 4" xfId="686" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="アクセント 3 5" xfId="687" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="アクセント 4 2" xfId="177" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="アクセント 4 3" xfId="688" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="アクセント 4 4" xfId="689" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="アクセント 4 5" xfId="690" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="アクセント 5 2" xfId="178" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="アクセント 5 3" xfId="691" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="アクセント 5 4" xfId="692" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="アクセント 5 5" xfId="693" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="アクセント 6 2" xfId="179" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="アクセント 6 3" xfId="694" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="アクセント 6 4" xfId="695" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="アクセント 6 5" xfId="696" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="タイトル 2" xfId="180" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="タイトル 3" xfId="697" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="タイトル 4" xfId="698" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="タイトル 5" xfId="699" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="チェック セル 2" xfId="181" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="チェック セル 3" xfId="700" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="チェック セル 4" xfId="701" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="チェック セル 5" xfId="702" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="どちらでもない 2" xfId="182" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="どちらでもない 3" xfId="703" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="どちらでもない 4" xfId="704" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="どちらでもない 5" xfId="705" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="パーセント 2" xfId="183" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
     <cellStyle name="ハイパーリンク" xfId="7" builtinId="8"/>
-    <cellStyle name="メモ 2" xfId="184"/>
-    <cellStyle name="メモ 2 2" xfId="185"/>
-    <cellStyle name="メモ 2 2 2" xfId="186"/>
-    <cellStyle name="メモ 2 2 2 2" xfId="187"/>
-    <cellStyle name="メモ 2 2 2 2 2" xfId="188"/>
-    <cellStyle name="メモ 2 2 2 3" xfId="189"/>
-    <cellStyle name="メモ 2 2 2 3 2" xfId="190"/>
-    <cellStyle name="メモ 2 2 2 4" xfId="191"/>
-    <cellStyle name="メモ 2 2 2 4 2" xfId="192"/>
-    <cellStyle name="メモ 2 2 2 5" xfId="193"/>
-    <cellStyle name="メモ 2 2 2 5 2" xfId="194"/>
-    <cellStyle name="メモ 2 2 2 6" xfId="195"/>
-    <cellStyle name="メモ 2 2 2 6 2" xfId="196"/>
-    <cellStyle name="メモ 2 2 2 7" xfId="197"/>
-    <cellStyle name="メモ 2 2 3" xfId="198"/>
-    <cellStyle name="メモ 2 2 3 2" xfId="199"/>
-    <cellStyle name="メモ 2 2 3 2 2" xfId="200"/>
-    <cellStyle name="メモ 2 2 3 3" xfId="201"/>
-    <cellStyle name="メモ 2 2 3 3 2" xfId="202"/>
-    <cellStyle name="メモ 2 2 3 4" xfId="203"/>
-    <cellStyle name="メモ 2 2 3 4 2" xfId="204"/>
-    <cellStyle name="メモ 2 2 3 5" xfId="205"/>
-    <cellStyle name="メモ 2 2 3 5 2" xfId="206"/>
-    <cellStyle name="メモ 2 2 3 6" xfId="207"/>
-    <cellStyle name="メモ 2 2 3 6 2" xfId="208"/>
-    <cellStyle name="メモ 2 2 3 7" xfId="209"/>
-    <cellStyle name="メモ 2 2 4" xfId="210"/>
-    <cellStyle name="メモ 2 2 4 2" xfId="211"/>
-    <cellStyle name="メモ 2 2 4 2 2" xfId="212"/>
-    <cellStyle name="メモ 2 2 4 3" xfId="213"/>
-    <cellStyle name="メモ 2 2 4 3 2" xfId="214"/>
-    <cellStyle name="メモ 2 2 4 4" xfId="215"/>
-    <cellStyle name="メモ 2 2 4 4 2" xfId="216"/>
-    <cellStyle name="メモ 2 2 4 5" xfId="217"/>
-    <cellStyle name="メモ 2 2 4 5 2" xfId="218"/>
-    <cellStyle name="メモ 2 2 4 6" xfId="219"/>
-    <cellStyle name="メモ 2 2 4 6 2" xfId="220"/>
-    <cellStyle name="メモ 2 2 4 7" xfId="221"/>
-    <cellStyle name="メモ 2 2 5" xfId="222"/>
-    <cellStyle name="メモ 2 2 5 2" xfId="223"/>
-    <cellStyle name="メモ 2 2 5 2 2" xfId="224"/>
-    <cellStyle name="メモ 2 2 5 3" xfId="225"/>
-    <cellStyle name="メモ 2 2 5 3 2" xfId="226"/>
-    <cellStyle name="メモ 2 2 5 4" xfId="227"/>
-    <cellStyle name="メモ 2 2 5 4 2" xfId="228"/>
-    <cellStyle name="メモ 2 2 5 5" xfId="229"/>
-    <cellStyle name="メモ 2 2 5 5 2" xfId="230"/>
-    <cellStyle name="メモ 2 2 5 6" xfId="231"/>
-    <cellStyle name="メモ 2 2 5 6 2" xfId="232"/>
-    <cellStyle name="メモ 2 2 5 7" xfId="233"/>
-    <cellStyle name="メモ 2 2 6" xfId="234"/>
-    <cellStyle name="メモ 2 2 6 2" xfId="235"/>
-    <cellStyle name="メモ 2 2 6 2 2" xfId="236"/>
-    <cellStyle name="メモ 2 2 6 3" xfId="237"/>
-    <cellStyle name="メモ 2 2 6 3 2" xfId="238"/>
-    <cellStyle name="メモ 2 2 6 4" xfId="239"/>
-    <cellStyle name="メモ 2 2 6 4 2" xfId="240"/>
-    <cellStyle name="メモ 2 2 6 5" xfId="241"/>
-    <cellStyle name="メモ 2 2 6 5 2" xfId="242"/>
-    <cellStyle name="メモ 2 2 6 6" xfId="243"/>
-    <cellStyle name="メモ 2 2 7" xfId="244"/>
-    <cellStyle name="メモ 2 2 7 2" xfId="245"/>
-    <cellStyle name="メモ 2 2 8" xfId="246"/>
-    <cellStyle name="メモ 2 3" xfId="247"/>
-    <cellStyle name="メモ 3" xfId="706"/>
-    <cellStyle name="メモ 4" xfId="707"/>
-    <cellStyle name="メモ 5" xfId="708"/>
-    <cellStyle name="リンク セル 2" xfId="248"/>
-    <cellStyle name="リンク セル 3" xfId="709"/>
-    <cellStyle name="リンク セル 4" xfId="710"/>
-    <cellStyle name="リンク セル 5" xfId="711"/>
-    <cellStyle name="悪い 2" xfId="249"/>
-    <cellStyle name="悪い 3" xfId="712"/>
-    <cellStyle name="悪い 4" xfId="713"/>
-    <cellStyle name="悪い 5" xfId="714"/>
-    <cellStyle name="開発計画書スタイル" xfId="715"/>
-    <cellStyle name="計算 2" xfId="250"/>
-    <cellStyle name="計算 2 2" xfId="251"/>
-    <cellStyle name="計算 2 2 2" xfId="252"/>
-    <cellStyle name="計算 2 2 2 2" xfId="253"/>
-    <cellStyle name="計算 2 2 2 2 2" xfId="254"/>
-    <cellStyle name="計算 2 2 2 3" xfId="255"/>
-    <cellStyle name="計算 2 2 2 3 2" xfId="256"/>
-    <cellStyle name="計算 2 2 2 4" xfId="257"/>
-    <cellStyle name="計算 2 2 2 4 2" xfId="258"/>
-    <cellStyle name="計算 2 2 2 5" xfId="259"/>
-    <cellStyle name="計算 2 2 2 5 2" xfId="260"/>
-    <cellStyle name="計算 2 2 2 6" xfId="261"/>
-    <cellStyle name="計算 2 2 2 6 2" xfId="262"/>
-    <cellStyle name="計算 2 2 2 7" xfId="263"/>
-    <cellStyle name="計算 2 2 3" xfId="264"/>
-    <cellStyle name="計算 2 2 3 2" xfId="265"/>
-    <cellStyle name="計算 2 2 3 2 2" xfId="266"/>
-    <cellStyle name="計算 2 2 3 3" xfId="267"/>
-    <cellStyle name="計算 2 2 3 3 2" xfId="268"/>
-    <cellStyle name="計算 2 2 3 4" xfId="269"/>
-    <cellStyle name="計算 2 2 3 4 2" xfId="270"/>
-    <cellStyle name="計算 2 2 3 5" xfId="271"/>
-    <cellStyle name="計算 2 2 3 5 2" xfId="272"/>
-    <cellStyle name="計算 2 2 3 6" xfId="273"/>
-    <cellStyle name="計算 2 2 3 6 2" xfId="274"/>
-    <cellStyle name="計算 2 2 3 7" xfId="275"/>
-    <cellStyle name="計算 2 2 4" xfId="276"/>
-    <cellStyle name="計算 2 2 4 2" xfId="277"/>
-    <cellStyle name="計算 2 2 4 2 2" xfId="278"/>
-    <cellStyle name="計算 2 2 4 3" xfId="279"/>
-    <cellStyle name="計算 2 2 4 3 2" xfId="280"/>
-    <cellStyle name="計算 2 2 4 4" xfId="281"/>
-    <cellStyle name="計算 2 2 4 4 2" xfId="282"/>
-    <cellStyle name="計算 2 2 4 5" xfId="283"/>
-    <cellStyle name="計算 2 2 4 5 2" xfId="284"/>
-    <cellStyle name="計算 2 2 4 6" xfId="285"/>
-    <cellStyle name="計算 2 2 4 6 2" xfId="286"/>
-    <cellStyle name="計算 2 2 4 7" xfId="287"/>
-    <cellStyle name="計算 2 2 5" xfId="288"/>
-    <cellStyle name="計算 2 2 5 2" xfId="289"/>
-    <cellStyle name="計算 2 2 5 2 2" xfId="290"/>
-    <cellStyle name="計算 2 2 5 3" xfId="291"/>
-    <cellStyle name="計算 2 2 5 3 2" xfId="292"/>
-    <cellStyle name="計算 2 2 5 4" xfId="293"/>
-    <cellStyle name="計算 2 2 5 4 2" xfId="294"/>
-    <cellStyle name="計算 2 2 5 5" xfId="295"/>
-    <cellStyle name="計算 2 2 5 5 2" xfId="296"/>
-    <cellStyle name="計算 2 2 5 6" xfId="297"/>
-    <cellStyle name="計算 2 2 5 6 2" xfId="298"/>
-    <cellStyle name="計算 2 2 5 7" xfId="299"/>
-    <cellStyle name="計算 2 2 6" xfId="300"/>
-    <cellStyle name="計算 2 2 6 2" xfId="301"/>
-    <cellStyle name="計算 2 2 6 2 2" xfId="302"/>
-    <cellStyle name="計算 2 2 6 3" xfId="303"/>
-    <cellStyle name="計算 2 2 6 3 2" xfId="304"/>
-    <cellStyle name="計算 2 2 6 4" xfId="305"/>
-    <cellStyle name="計算 2 2 6 4 2" xfId="306"/>
-    <cellStyle name="計算 2 2 6 5" xfId="307"/>
-    <cellStyle name="計算 2 2 6 5 2" xfId="308"/>
-    <cellStyle name="計算 2 2 6 6" xfId="309"/>
-    <cellStyle name="計算 2 2 7" xfId="310"/>
-    <cellStyle name="計算 2 2 7 2" xfId="311"/>
-    <cellStyle name="計算 2 2 8" xfId="312"/>
-    <cellStyle name="計算 2 3" xfId="313"/>
-    <cellStyle name="計算 3" xfId="716"/>
-    <cellStyle name="計算 4" xfId="717"/>
-    <cellStyle name="計算 5" xfId="718"/>
-    <cellStyle name="警告文 2" xfId="314"/>
-    <cellStyle name="警告文 3" xfId="719"/>
-    <cellStyle name="警告文 4" xfId="720"/>
-    <cellStyle name="警告文 5" xfId="721"/>
-    <cellStyle name="桁区切? [0.00]" xfId="722"/>
-    <cellStyle name="見出し 1 2" xfId="315"/>
-    <cellStyle name="見出し 1 3" xfId="723"/>
-    <cellStyle name="見出し 1 4" xfId="724"/>
-    <cellStyle name="見出し 1 5" xfId="725"/>
-    <cellStyle name="見出し 2 2" xfId="316"/>
-    <cellStyle name="見出し 2 3" xfId="726"/>
-    <cellStyle name="見出し 2 4" xfId="727"/>
-    <cellStyle name="見出し 2 5" xfId="728"/>
-    <cellStyle name="見出し 3 2" xfId="317"/>
-    <cellStyle name="見出し 3 3" xfId="729"/>
-    <cellStyle name="見出し 3 4" xfId="730"/>
-    <cellStyle name="見出し 3 5" xfId="731"/>
-    <cellStyle name="見出し 4 2" xfId="318"/>
-    <cellStyle name="見出し 4 3" xfId="732"/>
-    <cellStyle name="見出し 4 4" xfId="733"/>
-    <cellStyle name="見出し 4 5" xfId="734"/>
-    <cellStyle name="集計 2" xfId="319"/>
-    <cellStyle name="集計 2 2" xfId="320"/>
-    <cellStyle name="集計 2 2 2" xfId="321"/>
-    <cellStyle name="集計 2 2 2 2" xfId="322"/>
-    <cellStyle name="集計 2 2 2 2 2" xfId="323"/>
-    <cellStyle name="集計 2 2 2 3" xfId="324"/>
-    <cellStyle name="集計 2 2 2 3 2" xfId="325"/>
-    <cellStyle name="集計 2 2 2 4" xfId="326"/>
-    <cellStyle name="集計 2 2 2 4 2" xfId="327"/>
-    <cellStyle name="集計 2 2 2 5" xfId="328"/>
-    <cellStyle name="集計 2 2 2 5 2" xfId="329"/>
-    <cellStyle name="集計 2 2 2 6" xfId="330"/>
-    <cellStyle name="集計 2 2 2 6 2" xfId="331"/>
-    <cellStyle name="集計 2 2 2 7" xfId="332"/>
-    <cellStyle name="集計 2 2 3" xfId="333"/>
-    <cellStyle name="集計 2 2 3 2" xfId="334"/>
-    <cellStyle name="集計 2 2 3 2 2" xfId="335"/>
-    <cellStyle name="集計 2 2 3 3" xfId="336"/>
-    <cellStyle name="集計 2 2 3 3 2" xfId="337"/>
-    <cellStyle name="集計 2 2 3 4" xfId="338"/>
-    <cellStyle name="集計 2 2 3 4 2" xfId="339"/>
-    <cellStyle name="集計 2 2 3 5" xfId="340"/>
-    <cellStyle name="集計 2 2 3 5 2" xfId="341"/>
-    <cellStyle name="集計 2 2 3 6" xfId="342"/>
-    <cellStyle name="集計 2 2 3 6 2" xfId="343"/>
-    <cellStyle name="集計 2 2 3 7" xfId="344"/>
-    <cellStyle name="集計 2 2 4" xfId="345"/>
-    <cellStyle name="集計 2 2 4 2" xfId="346"/>
-    <cellStyle name="集計 2 2 4 2 2" xfId="347"/>
-    <cellStyle name="集計 2 2 4 3" xfId="348"/>
-    <cellStyle name="集計 2 2 4 3 2" xfId="349"/>
-    <cellStyle name="集計 2 2 4 4" xfId="350"/>
-    <cellStyle name="集計 2 2 4 4 2" xfId="351"/>
-    <cellStyle name="集計 2 2 4 5" xfId="352"/>
-    <cellStyle name="集計 2 2 4 5 2" xfId="353"/>
-    <cellStyle name="集計 2 2 4 6" xfId="354"/>
-    <cellStyle name="集計 2 2 4 6 2" xfId="355"/>
-    <cellStyle name="集計 2 2 4 7" xfId="356"/>
-    <cellStyle name="集計 2 2 5" xfId="357"/>
-    <cellStyle name="集計 2 2 5 2" xfId="358"/>
-    <cellStyle name="集計 2 2 5 2 2" xfId="359"/>
-    <cellStyle name="集計 2 2 5 3" xfId="360"/>
-    <cellStyle name="集計 2 2 5 3 2" xfId="361"/>
-    <cellStyle name="集計 2 2 5 4" xfId="362"/>
-    <cellStyle name="集計 2 2 5 4 2" xfId="363"/>
-    <cellStyle name="集計 2 2 5 5" xfId="364"/>
-    <cellStyle name="集計 2 2 5 5 2" xfId="365"/>
-    <cellStyle name="集計 2 2 5 6" xfId="366"/>
-    <cellStyle name="集計 2 2 6" xfId="367"/>
-    <cellStyle name="集計 2 2 6 2" xfId="368"/>
-    <cellStyle name="集計 2 2 6 2 2" xfId="369"/>
-    <cellStyle name="集計 2 2 6 3" xfId="370"/>
-    <cellStyle name="集計 2 2 6 3 2" xfId="371"/>
-    <cellStyle name="集計 2 2 6 4" xfId="372"/>
-    <cellStyle name="集計 2 2 6 4 2" xfId="373"/>
-    <cellStyle name="集計 2 2 6 5" xfId="374"/>
-    <cellStyle name="集計 2 2 6 5 2" xfId="375"/>
-    <cellStyle name="集計 2 2 6 6" xfId="376"/>
-    <cellStyle name="集計 2 2 6 6 2" xfId="377"/>
-    <cellStyle name="集計 2 2 6 7" xfId="378"/>
-    <cellStyle name="集計 2 2 7" xfId="379"/>
-    <cellStyle name="集計 2 2 7 2" xfId="380"/>
-    <cellStyle name="集計 2 2 8" xfId="381"/>
-    <cellStyle name="集計 2 3" xfId="382"/>
-    <cellStyle name="集計 3" xfId="735"/>
-    <cellStyle name="集計 4" xfId="736"/>
-    <cellStyle name="集計 5" xfId="737"/>
-    <cellStyle name="出力 2" xfId="383"/>
-    <cellStyle name="出力 2 2" xfId="384"/>
-    <cellStyle name="出力 2 2 2" xfId="385"/>
-    <cellStyle name="出力 2 2 2 2" xfId="386"/>
-    <cellStyle name="出力 2 2 2 2 2" xfId="387"/>
-    <cellStyle name="出力 2 2 2 3" xfId="388"/>
-    <cellStyle name="出力 2 2 2 3 2" xfId="389"/>
-    <cellStyle name="出力 2 2 2 4" xfId="390"/>
-    <cellStyle name="出力 2 2 2 4 2" xfId="391"/>
-    <cellStyle name="出力 2 2 2 5" xfId="392"/>
-    <cellStyle name="出力 2 2 2 5 2" xfId="393"/>
-    <cellStyle name="出力 2 2 2 6" xfId="394"/>
-    <cellStyle name="出力 2 2 2 6 2" xfId="395"/>
-    <cellStyle name="出力 2 2 2 7" xfId="396"/>
-    <cellStyle name="出力 2 2 3" xfId="397"/>
-    <cellStyle name="出力 2 2 3 2" xfId="398"/>
-    <cellStyle name="出力 2 2 3 2 2" xfId="399"/>
-    <cellStyle name="出力 2 2 3 3" xfId="400"/>
-    <cellStyle name="出力 2 2 3 3 2" xfId="401"/>
-    <cellStyle name="出力 2 2 3 4" xfId="402"/>
-    <cellStyle name="出力 2 2 3 4 2" xfId="403"/>
-    <cellStyle name="出力 2 2 3 5" xfId="404"/>
-    <cellStyle name="出力 2 2 3 5 2" xfId="405"/>
-    <cellStyle name="出力 2 2 3 6" xfId="406"/>
-    <cellStyle name="出力 2 2 3 6 2" xfId="407"/>
-    <cellStyle name="出力 2 2 3 7" xfId="408"/>
-    <cellStyle name="出力 2 2 4" xfId="409"/>
-    <cellStyle name="出力 2 2 4 2" xfId="410"/>
-    <cellStyle name="出力 2 2 4 2 2" xfId="411"/>
-    <cellStyle name="出力 2 2 4 3" xfId="412"/>
-    <cellStyle name="出力 2 2 4 3 2" xfId="413"/>
-    <cellStyle name="出力 2 2 4 4" xfId="414"/>
-    <cellStyle name="出力 2 2 4 4 2" xfId="415"/>
-    <cellStyle name="出力 2 2 4 5" xfId="416"/>
-    <cellStyle name="出力 2 2 4 5 2" xfId="417"/>
-    <cellStyle name="出力 2 2 4 6" xfId="418"/>
-    <cellStyle name="出力 2 2 4 6 2" xfId="419"/>
-    <cellStyle name="出力 2 2 4 7" xfId="420"/>
-    <cellStyle name="出力 2 2 5" xfId="421"/>
-    <cellStyle name="出力 2 2 5 2" xfId="422"/>
-    <cellStyle name="出力 2 2 5 2 2" xfId="423"/>
-    <cellStyle name="出力 2 2 5 3" xfId="424"/>
-    <cellStyle name="出力 2 2 5 3 2" xfId="425"/>
-    <cellStyle name="出力 2 2 5 4" xfId="426"/>
-    <cellStyle name="出力 2 2 5 4 2" xfId="427"/>
-    <cellStyle name="出力 2 2 5 5" xfId="428"/>
-    <cellStyle name="出力 2 2 5 5 2" xfId="429"/>
-    <cellStyle name="出力 2 2 5 6" xfId="430"/>
-    <cellStyle name="出力 2 2 6" xfId="431"/>
-    <cellStyle name="出力 2 2 6 2" xfId="432"/>
-    <cellStyle name="出力 2 2 6 2 2" xfId="433"/>
-    <cellStyle name="出力 2 2 6 3" xfId="434"/>
-    <cellStyle name="出力 2 2 6 3 2" xfId="435"/>
-    <cellStyle name="出力 2 2 6 4" xfId="436"/>
-    <cellStyle name="出力 2 2 6 4 2" xfId="437"/>
-    <cellStyle name="出力 2 2 6 5" xfId="438"/>
-    <cellStyle name="出力 2 2 6 5 2" xfId="439"/>
-    <cellStyle name="出力 2 2 6 6" xfId="440"/>
-    <cellStyle name="出力 2 2 6 6 2" xfId="441"/>
-    <cellStyle name="出力 2 2 6 7" xfId="442"/>
-    <cellStyle name="出力 2 2 7" xfId="443"/>
-    <cellStyle name="出力 2 2 7 2" xfId="444"/>
-    <cellStyle name="出力 2 2 8" xfId="445"/>
-    <cellStyle name="出力 2 3" xfId="446"/>
-    <cellStyle name="出力 3" xfId="738"/>
-    <cellStyle name="出力 4" xfId="739"/>
-    <cellStyle name="出力 5" xfId="740"/>
-    <cellStyle name="説明文 2" xfId="447"/>
-    <cellStyle name="説明文 3" xfId="741"/>
-    <cellStyle name="説明文 4" xfId="742"/>
-    <cellStyle name="説明文 5" xfId="743"/>
-    <cellStyle name="入力 2" xfId="448"/>
-    <cellStyle name="入力 2 2" xfId="449"/>
-    <cellStyle name="入力 2 2 2" xfId="450"/>
-    <cellStyle name="入力 2 2 2 2" xfId="451"/>
-    <cellStyle name="入力 2 2 2 2 2" xfId="452"/>
-    <cellStyle name="入力 2 2 2 3" xfId="453"/>
-    <cellStyle name="入力 2 2 2 3 2" xfId="454"/>
-    <cellStyle name="入力 2 2 2 4" xfId="455"/>
-    <cellStyle name="入力 2 2 2 4 2" xfId="456"/>
-    <cellStyle name="入力 2 2 2 5" xfId="457"/>
-    <cellStyle name="入力 2 2 2 5 2" xfId="458"/>
-    <cellStyle name="入力 2 2 2 6" xfId="459"/>
-    <cellStyle name="入力 2 2 2 6 2" xfId="460"/>
-    <cellStyle name="入力 2 2 2 7" xfId="461"/>
-    <cellStyle name="入力 2 2 3" xfId="462"/>
-    <cellStyle name="入力 2 2 3 2" xfId="463"/>
-    <cellStyle name="入力 2 2 3 2 2" xfId="464"/>
-    <cellStyle name="入力 2 2 3 3" xfId="465"/>
-    <cellStyle name="入力 2 2 3 3 2" xfId="466"/>
-    <cellStyle name="入力 2 2 3 4" xfId="467"/>
-    <cellStyle name="入力 2 2 3 4 2" xfId="468"/>
-    <cellStyle name="入力 2 2 3 5" xfId="469"/>
-    <cellStyle name="入力 2 2 3 5 2" xfId="470"/>
-    <cellStyle name="入力 2 2 3 6" xfId="471"/>
-    <cellStyle name="入力 2 2 3 6 2" xfId="472"/>
-    <cellStyle name="入力 2 2 3 7" xfId="473"/>
-    <cellStyle name="入力 2 2 4" xfId="474"/>
-    <cellStyle name="入力 2 2 4 2" xfId="475"/>
-    <cellStyle name="入力 2 2 4 2 2" xfId="476"/>
-    <cellStyle name="入力 2 2 4 3" xfId="477"/>
-    <cellStyle name="入力 2 2 4 3 2" xfId="478"/>
-    <cellStyle name="入力 2 2 4 4" xfId="479"/>
-    <cellStyle name="入力 2 2 4 4 2" xfId="480"/>
-    <cellStyle name="入力 2 2 4 5" xfId="481"/>
-    <cellStyle name="入力 2 2 4 5 2" xfId="482"/>
-    <cellStyle name="入力 2 2 4 6" xfId="483"/>
-    <cellStyle name="入力 2 2 4 6 2" xfId="484"/>
-    <cellStyle name="入力 2 2 4 7" xfId="485"/>
-    <cellStyle name="入力 2 2 5" xfId="486"/>
-    <cellStyle name="入力 2 2 5 2" xfId="487"/>
-    <cellStyle name="入力 2 2 5 2 2" xfId="488"/>
-    <cellStyle name="入力 2 2 5 3" xfId="489"/>
-    <cellStyle name="入力 2 2 5 3 2" xfId="490"/>
-    <cellStyle name="入力 2 2 5 4" xfId="491"/>
-    <cellStyle name="入力 2 2 5 4 2" xfId="492"/>
-    <cellStyle name="入力 2 2 5 5" xfId="493"/>
-    <cellStyle name="入力 2 2 5 5 2" xfId="494"/>
-    <cellStyle name="入力 2 2 5 6" xfId="495"/>
-    <cellStyle name="入力 2 2 5 6 2" xfId="496"/>
-    <cellStyle name="入力 2 2 5 7" xfId="497"/>
-    <cellStyle name="入力 2 2 6" xfId="498"/>
-    <cellStyle name="入力 2 2 6 2" xfId="499"/>
-    <cellStyle name="入力 2 2 6 2 2" xfId="500"/>
-    <cellStyle name="入力 2 2 6 3" xfId="501"/>
-    <cellStyle name="入力 2 2 6 3 2" xfId="502"/>
-    <cellStyle name="入力 2 2 6 4" xfId="503"/>
-    <cellStyle name="入力 2 2 6 4 2" xfId="504"/>
-    <cellStyle name="入力 2 2 6 5" xfId="505"/>
-    <cellStyle name="入力 2 2 6 5 2" xfId="506"/>
-    <cellStyle name="入力 2 2 6 6" xfId="507"/>
-    <cellStyle name="入力 2 2 7" xfId="508"/>
-    <cellStyle name="入力 2 2 7 2" xfId="509"/>
-    <cellStyle name="入力 2 2 8" xfId="510"/>
-    <cellStyle name="入力 2 3" xfId="511"/>
-    <cellStyle name="入力 3" xfId="744"/>
-    <cellStyle name="入力 4" xfId="745"/>
-    <cellStyle name="入力 5" xfId="746"/>
-    <cellStyle name="標?_Pacific Region P&amp;L" xfId="747"/>
+    <cellStyle name="メモ 2" xfId="184" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="メモ 2 2" xfId="185" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="メモ 2 2 2" xfId="186" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="メモ 2 2 2 2" xfId="187" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="メモ 2 2 2 2 2" xfId="188" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="メモ 2 2 2 3" xfId="189" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="メモ 2 2 2 3 2" xfId="190" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="メモ 2 2 2 4" xfId="191" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="メモ 2 2 2 4 2" xfId="192" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="メモ 2 2 2 5" xfId="193" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="メモ 2 2 2 5 2" xfId="194" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="メモ 2 2 2 6" xfId="195" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="メモ 2 2 2 6 2" xfId="196" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="メモ 2 2 2 7" xfId="197" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="メモ 2 2 3" xfId="198" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="メモ 2 2 3 2" xfId="199" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="メモ 2 2 3 2 2" xfId="200" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="メモ 2 2 3 3" xfId="201" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="メモ 2 2 3 3 2" xfId="202" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="メモ 2 2 3 4" xfId="203" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="メモ 2 2 3 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="メモ 2 2 3 5" xfId="205" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="メモ 2 2 3 5 2" xfId="206" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="メモ 2 2 3 6" xfId="207" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="メモ 2 2 3 6 2" xfId="208" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="メモ 2 2 3 7" xfId="209" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="メモ 2 2 4" xfId="210" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="メモ 2 2 4 2" xfId="211" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="メモ 2 2 4 2 2" xfId="212" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="メモ 2 2 4 3" xfId="213" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="メモ 2 2 4 3 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="メモ 2 2 4 4" xfId="215" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="メモ 2 2 4 4 2" xfId="216" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="メモ 2 2 4 5" xfId="217" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="メモ 2 2 4 5 2" xfId="218" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="メモ 2 2 4 6" xfId="219" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="メモ 2 2 4 6 2" xfId="220" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="メモ 2 2 4 7" xfId="221" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="メモ 2 2 5" xfId="222" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="メモ 2 2 5 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="メモ 2 2 5 2 2" xfId="224" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="メモ 2 2 5 3" xfId="225" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="メモ 2 2 5 3 2" xfId="226" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="メモ 2 2 5 4" xfId="227" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="メモ 2 2 5 4 2" xfId="228" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="メモ 2 2 5 5" xfId="229" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="メモ 2 2 5 5 2" xfId="230" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="メモ 2 2 5 6" xfId="231" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="メモ 2 2 5 6 2" xfId="232" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="メモ 2 2 5 7" xfId="233" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="メモ 2 2 6" xfId="234" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="メモ 2 2 6 2" xfId="235" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="メモ 2 2 6 2 2" xfId="236" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="メモ 2 2 6 3" xfId="237" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="メモ 2 2 6 3 2" xfId="238" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="メモ 2 2 6 4" xfId="239" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="メモ 2 2 6 4 2" xfId="240" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="メモ 2 2 6 5" xfId="241" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="メモ 2 2 6 5 2" xfId="242" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="メモ 2 2 6 6" xfId="243" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="メモ 2 2 7" xfId="244" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="メモ 2 2 7 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="メモ 2 2 8" xfId="246" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="メモ 2 3" xfId="247" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="メモ 3" xfId="706" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="メモ 4" xfId="707" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="メモ 5" xfId="708" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="リンク セル 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="リンク セル 3" xfId="709" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="リンク セル 4" xfId="710" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="リンク セル 5" xfId="711" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="悪い 2" xfId="249" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="悪い 3" xfId="712" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="悪い 4" xfId="713" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="悪い 5" xfId="714" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="開発計画書スタイル" xfId="715" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="計算 2" xfId="250" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="計算 2 2" xfId="251" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="計算 2 2 2" xfId="252" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="計算 2 2 2 2" xfId="253" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="計算 2 2 2 2 2" xfId="254" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="計算 2 2 2 3" xfId="255" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="計算 2 2 2 3 2" xfId="256" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="計算 2 2 2 4" xfId="257" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="計算 2 2 2 4 2" xfId="258" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="計算 2 2 2 5" xfId="259" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="計算 2 2 2 5 2" xfId="260" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="計算 2 2 2 6" xfId="261" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="計算 2 2 2 6 2" xfId="262" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="計算 2 2 2 7" xfId="263" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="計算 2 2 3" xfId="264" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="計算 2 2 3 2" xfId="265" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="計算 2 2 3 2 2" xfId="266" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="計算 2 2 3 3" xfId="267" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="計算 2 2 3 3 2" xfId="268" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="計算 2 2 3 4" xfId="269" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="計算 2 2 3 4 2" xfId="270" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="計算 2 2 3 5" xfId="271" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="計算 2 2 3 5 2" xfId="272" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="計算 2 2 3 6" xfId="273" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="計算 2 2 3 6 2" xfId="274" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="計算 2 2 3 7" xfId="275" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="計算 2 2 4" xfId="276" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="計算 2 2 4 2" xfId="277" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="計算 2 2 4 2 2" xfId="278" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="計算 2 2 4 3" xfId="279" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="計算 2 2 4 3 2" xfId="280" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="計算 2 2 4 4" xfId="281" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="計算 2 2 4 4 2" xfId="282" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="計算 2 2 4 5" xfId="283" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="計算 2 2 4 5 2" xfId="284" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="計算 2 2 4 6" xfId="285" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="計算 2 2 4 6 2" xfId="286" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="計算 2 2 4 7" xfId="287" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="計算 2 2 5" xfId="288" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="計算 2 2 5 2" xfId="289" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="計算 2 2 5 2 2" xfId="290" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="計算 2 2 5 3" xfId="291" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="計算 2 2 5 3 2" xfId="292" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="計算 2 2 5 4" xfId="293" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="計算 2 2 5 4 2" xfId="294" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="計算 2 2 5 5" xfId="295" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="計算 2 2 5 5 2" xfId="296" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="計算 2 2 5 6" xfId="297" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="計算 2 2 5 6 2" xfId="298" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="計算 2 2 5 7" xfId="299" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="計算 2 2 6" xfId="300" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="計算 2 2 6 2" xfId="301" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="計算 2 2 6 2 2" xfId="302" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="計算 2 2 6 3" xfId="303" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="計算 2 2 6 3 2" xfId="304" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="計算 2 2 6 4" xfId="305" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="計算 2 2 6 4 2" xfId="306" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="計算 2 2 6 5" xfId="307" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="計算 2 2 6 5 2" xfId="308" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="計算 2 2 6 6" xfId="309" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="計算 2 2 7" xfId="310" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="計算 2 2 7 2" xfId="311" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="計算 2 2 8" xfId="312" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="計算 2 3" xfId="313" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="計算 3" xfId="716" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="計算 4" xfId="717" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="計算 5" xfId="718" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="警告文 2" xfId="314" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="警告文 3" xfId="719" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="警告文 4" xfId="720" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="警告文 5" xfId="721" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="桁区切? [0.00]" xfId="722" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="見出し 1 2" xfId="315" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="見出し 1 3" xfId="723" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="見出し 1 4" xfId="724" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="見出し 1 5" xfId="725" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="見出し 2 2" xfId="316" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="見出し 2 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="見出し 2 4" xfId="727" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="見出し 2 5" xfId="728" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="見出し 3 2" xfId="317" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="見出し 3 3" xfId="729" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="見出し 3 4" xfId="730" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="見出し 3 5" xfId="731" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="見出し 4 2" xfId="318" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="見出し 4 3" xfId="732" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="見出し 4 4" xfId="733" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="見出し 4 5" xfId="734" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="集計 2" xfId="319" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="集計 2 2" xfId="320" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="集計 2 2 2" xfId="321" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="集計 2 2 2 2" xfId="322" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="集計 2 2 2 2 2" xfId="323" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="集計 2 2 2 3" xfId="324" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="集計 2 2 2 3 2" xfId="325" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="集計 2 2 2 4" xfId="326" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="集計 2 2 2 4 2" xfId="327" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="集計 2 2 2 5" xfId="328" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="集計 2 2 2 5 2" xfId="329" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="集計 2 2 2 6" xfId="330" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="集計 2 2 2 6 2" xfId="331" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="集計 2 2 2 7" xfId="332" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="集計 2 2 3" xfId="333" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="集計 2 2 3 2" xfId="334" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="集計 2 2 3 2 2" xfId="335" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="集計 2 2 3 3" xfId="336" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="集計 2 2 3 3 2" xfId="337" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="集計 2 2 3 4" xfId="338" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="集計 2 2 3 4 2" xfId="339" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="集計 2 2 3 5" xfId="340" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="集計 2 2 3 5 2" xfId="341" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="集計 2 2 3 6" xfId="342" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="集計 2 2 3 6 2" xfId="343" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="集計 2 2 3 7" xfId="344" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="集計 2 2 4" xfId="345" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="集計 2 2 4 2" xfId="346" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="集計 2 2 4 2 2" xfId="347" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="集計 2 2 4 3" xfId="348" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="集計 2 2 4 3 2" xfId="349" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="集計 2 2 4 4" xfId="350" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="集計 2 2 4 4 2" xfId="351" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="集計 2 2 4 5" xfId="352" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="集計 2 2 4 5 2" xfId="353" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="集計 2 2 4 6" xfId="354" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="集計 2 2 4 6 2" xfId="355" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="集計 2 2 4 7" xfId="356" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="集計 2 2 5" xfId="357" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="集計 2 2 5 2" xfId="358" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="集計 2 2 5 2 2" xfId="359" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="集計 2 2 5 3" xfId="360" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="集計 2 2 5 3 2" xfId="361" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="集計 2 2 5 4" xfId="362" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="集計 2 2 5 4 2" xfId="363" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="集計 2 2 5 5" xfId="364" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="集計 2 2 5 5 2" xfId="365" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="集計 2 2 5 6" xfId="366" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="集計 2 2 6" xfId="367" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="集計 2 2 6 2" xfId="368" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="集計 2 2 6 2 2" xfId="369" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="集計 2 2 6 3" xfId="370" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="集計 2 2 6 3 2" xfId="371" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="集計 2 2 6 4" xfId="372" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="集計 2 2 6 4 2" xfId="373" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="集計 2 2 6 5" xfId="374" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="集計 2 2 6 5 2" xfId="375" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="集計 2 2 6 6" xfId="376" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="集計 2 2 6 6 2" xfId="377" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="集計 2 2 6 7" xfId="378" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="集計 2 2 7" xfId="379" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="集計 2 2 7 2" xfId="380" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="集計 2 2 8" xfId="381" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="集計 2 3" xfId="382" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="集計 3" xfId="735" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="集計 4" xfId="736" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="集計 5" xfId="737" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="出力 2" xfId="383" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="出力 2 2" xfId="384" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="出力 2 2 2" xfId="385" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="出力 2 2 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="出力 2 2 2 2 2" xfId="387" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="出力 2 2 2 3" xfId="388" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="出力 2 2 2 3 2" xfId="389" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="出力 2 2 2 4" xfId="390" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="出力 2 2 2 4 2" xfId="391" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="出力 2 2 2 5" xfId="392" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="出力 2 2 2 5 2" xfId="393" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="出力 2 2 2 6" xfId="394" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="出力 2 2 2 6 2" xfId="395" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="出力 2 2 2 7" xfId="396" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="出力 2 2 3" xfId="397" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="出力 2 2 3 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="出力 2 2 3 2 2" xfId="399" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="出力 2 2 3 3" xfId="400" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="出力 2 2 3 3 2" xfId="401" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="出力 2 2 3 4" xfId="402" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="出力 2 2 3 4 2" xfId="403" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="出力 2 2 3 5" xfId="404" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="出力 2 2 3 5 2" xfId="405" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="出力 2 2 3 6" xfId="406" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="出力 2 2 3 6 2" xfId="407" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="出力 2 2 3 7" xfId="408" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="出力 2 2 4" xfId="409" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="出力 2 2 4 2" xfId="410" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="出力 2 2 4 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="出力 2 2 4 3" xfId="412" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="出力 2 2 4 3 2" xfId="413" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="出力 2 2 4 4" xfId="414" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="出力 2 2 4 4 2" xfId="415" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="出力 2 2 4 5" xfId="416" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="出力 2 2 4 5 2" xfId="417" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="出力 2 2 4 6" xfId="418" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="出力 2 2 4 6 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="出力 2 2 4 7" xfId="420" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="出力 2 2 5" xfId="421" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="出力 2 2 5 2" xfId="422" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="出力 2 2 5 2 2" xfId="423" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="出力 2 2 5 3" xfId="424" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="出力 2 2 5 3 2" xfId="425" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="出力 2 2 5 4" xfId="426" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="出力 2 2 5 4 2" xfId="427" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="出力 2 2 5 5" xfId="428" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="出力 2 2 5 5 2" xfId="429" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="出力 2 2 5 6" xfId="430" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="出力 2 2 6" xfId="431" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="出力 2 2 6 2" xfId="432" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="出力 2 2 6 2 2" xfId="433" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="出力 2 2 6 3" xfId="434" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="出力 2 2 6 3 2" xfId="435" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="出力 2 2 6 4" xfId="436" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="出力 2 2 6 4 2" xfId="437" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="出力 2 2 6 5" xfId="438" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="出力 2 2 6 5 2" xfId="439" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="出力 2 2 6 6" xfId="440" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="出力 2 2 6 6 2" xfId="441" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="出力 2 2 6 7" xfId="442" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="出力 2 2 7" xfId="443" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="出力 2 2 7 2" xfId="444" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="出力 2 2 8" xfId="445" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="出力 2 3" xfId="446" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="出力 3" xfId="738" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="出力 4" xfId="739" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="出力 5" xfId="740" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="説明文 2" xfId="447" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="説明文 3" xfId="741" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="説明文 4" xfId="742" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="説明文 5" xfId="743" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="入力 2" xfId="448" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="入力 2 2" xfId="449" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="入力 2 2 2" xfId="450" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="入力 2 2 2 2" xfId="451" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="入力 2 2 2 2 2" xfId="452" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="入力 2 2 2 3" xfId="453" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="入力 2 2 2 3 2" xfId="454" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="入力 2 2 2 4" xfId="455" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="入力 2 2 2 4 2" xfId="456" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="入力 2 2 2 5" xfId="457" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="入力 2 2 2 5 2" xfId="458" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="入力 2 2 2 6" xfId="459" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="入力 2 2 2 6 2" xfId="460" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="入力 2 2 2 7" xfId="461" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="入力 2 2 3" xfId="462" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="入力 2 2 3 2" xfId="463" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="入力 2 2 3 2 2" xfId="464" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="入力 2 2 3 3" xfId="465" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="入力 2 2 3 3 2" xfId="466" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="入力 2 2 3 4" xfId="467" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="入力 2 2 3 4 2" xfId="468" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="入力 2 2 3 5" xfId="469" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="入力 2 2 3 5 2" xfId="470" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="入力 2 2 3 6" xfId="471" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="入力 2 2 3 6 2" xfId="472" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="入力 2 2 3 7" xfId="473" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="入力 2 2 4" xfId="474" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="入力 2 2 4 2" xfId="475" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="入力 2 2 4 2 2" xfId="476" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="入力 2 2 4 3" xfId="477" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="入力 2 2 4 3 2" xfId="478" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="入力 2 2 4 4" xfId="479" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="入力 2 2 4 4 2" xfId="480" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="入力 2 2 4 5" xfId="481" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="入力 2 2 4 5 2" xfId="482" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="入力 2 2 4 6" xfId="483" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="入力 2 2 4 6 2" xfId="484" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="入力 2 2 4 7" xfId="485" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="入力 2 2 5" xfId="486" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="入力 2 2 5 2" xfId="487" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="入力 2 2 5 2 2" xfId="488" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="入力 2 2 5 3" xfId="489" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="入力 2 2 5 3 2" xfId="490" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="入力 2 2 5 4" xfId="491" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="入力 2 2 5 4 2" xfId="492" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="入力 2 2 5 5" xfId="493" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="入力 2 2 5 5 2" xfId="494" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="入力 2 2 5 6" xfId="495" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="入力 2 2 5 6 2" xfId="496" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="入力 2 2 5 7" xfId="497" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="入力 2 2 6" xfId="498" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="入力 2 2 6 2" xfId="499" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="入力 2 2 6 2 2" xfId="500" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="入力 2 2 6 3" xfId="501" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="入力 2 2 6 3 2" xfId="502" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="入力 2 2 6 4" xfId="503" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="入力 2 2 6 4 2" xfId="504" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="入力 2 2 6 5" xfId="505" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="入力 2 2 6 5 2" xfId="506" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="入力 2 2 6 6" xfId="507" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="入力 2 2 7" xfId="508" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="入力 2 2 7 2" xfId="509" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="入力 2 2 8" xfId="510" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="入力 2 3" xfId="511" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="入力 3" xfId="744" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="入力 4" xfId="745" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="入力 5" xfId="746" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="標?_Pacific Region P&amp;L" xfId="747" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="512"/>
-    <cellStyle name="標準 11" xfId="513"/>
-    <cellStyle name="標準 11 2" xfId="514"/>
-    <cellStyle name="標準 11 2 2" xfId="515"/>
-    <cellStyle name="標準 11 2 2 2" xfId="516"/>
-    <cellStyle name="標準 11 2 3" xfId="517"/>
-    <cellStyle name="標準 11 2 3 2" xfId="518"/>
-    <cellStyle name="標準 11 2 4" xfId="519"/>
-    <cellStyle name="標準 11 2 4 2" xfId="520"/>
-    <cellStyle name="標準 11 2 5" xfId="521"/>
-    <cellStyle name="標準 11 3" xfId="522"/>
-    <cellStyle name="標準 11 3 2" xfId="523"/>
-    <cellStyle name="標準 11 3 2 2" xfId="524"/>
-    <cellStyle name="標準 11 3 3" xfId="525"/>
-    <cellStyle name="標準 11 3 3 2" xfId="526"/>
-    <cellStyle name="標準 11 3 4" xfId="527"/>
-    <cellStyle name="標準 11 4" xfId="528"/>
-    <cellStyle name="標準 11 4 2" xfId="529"/>
-    <cellStyle name="標準 11 5" xfId="530"/>
-    <cellStyle name="標準 11 5 2" xfId="531"/>
-    <cellStyle name="標準 11 6" xfId="532"/>
-    <cellStyle name="標準 11 6 2" xfId="533"/>
-    <cellStyle name="標準 11 7" xfId="534"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 2" xfId="535"/>
-    <cellStyle name="標準 2 2 2" xfId="536"/>
-    <cellStyle name="標準 2 2 3" xfId="748"/>
-    <cellStyle name="標準 2 2 4" xfId="749"/>
-    <cellStyle name="標準 2 3" xfId="537"/>
-    <cellStyle name="標準 2 4" xfId="538"/>
-    <cellStyle name="標準 2 4 2" xfId="539"/>
-    <cellStyle name="標準 2 4 2 2" xfId="540"/>
-    <cellStyle name="標準 2 4 3" xfId="541"/>
-    <cellStyle name="標準 2 4 4" xfId="542"/>
-    <cellStyle name="標準 2_フォーマット" xfId="543"/>
-    <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="標準 3 2" xfId="544"/>
-    <cellStyle name="標準 3 2 2" xfId="545"/>
-    <cellStyle name="標準 3 2 3" xfId="750"/>
-    <cellStyle name="標準 3 2 4" xfId="751"/>
-    <cellStyle name="標準 3 3" xfId="752"/>
-    <cellStyle name="標準 4" xfId="1"/>
-    <cellStyle name="標準 4 2" xfId="753"/>
-    <cellStyle name="標準 5" xfId="546"/>
-    <cellStyle name="標準 5 2" xfId="547"/>
-    <cellStyle name="標準 5 3" xfId="548"/>
-    <cellStyle name="標準 5 4" xfId="549"/>
-    <cellStyle name="標準 6" xfId="550"/>
-    <cellStyle name="標準 6 2" xfId="551"/>
-    <cellStyle name="標準 6 3" xfId="552"/>
-    <cellStyle name="標準 7" xfId="553"/>
-    <cellStyle name="標準 8" xfId="554"/>
-    <cellStyle name="標準 8 2" xfId="754"/>
-    <cellStyle name="標準 9" xfId="555"/>
-    <cellStyle name="標準_~6362950" xfId="2"/>
-    <cellStyle name="標準_~6362950 2" xfId="5"/>
-    <cellStyle name="標準_画面標準" xfId="6"/>
-    <cellStyle name="標準_画面標準定義" xfId="559"/>
-    <cellStyle name="未定義" xfId="556"/>
-    <cellStyle name="未定義 2" xfId="557"/>
-    <cellStyle name="良い 2" xfId="558"/>
-    <cellStyle name="良い 3" xfId="755"/>
-    <cellStyle name="良い 4" xfId="756"/>
-    <cellStyle name="良い 5" xfId="757"/>
+    <cellStyle name="標準 10" xfId="512" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="標準 11" xfId="513" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="標準 11 2" xfId="514" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="標準 11 2 2" xfId="515" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="標準 11 2 2 2" xfId="516" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="標準 11 2 3" xfId="517" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="標準 11 2 3 2" xfId="518" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="標準 11 2 4" xfId="519" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="標準 11 2 4 2" xfId="520" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="標準 11 2 5" xfId="521" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="標準 11 3" xfId="522" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="標準 11 3 2" xfId="523" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="標準 11 3 2 2" xfId="524" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="標準 11 3 3" xfId="525" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="標準 11 3 3 2" xfId="526" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="標準 11 3 4" xfId="527" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="標準 11 4" xfId="528" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="標準 11 4 2" xfId="529" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="標準 11 5" xfId="530" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="標準 11 5 2" xfId="531" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="標準 11 6" xfId="532" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="標準 11 6 2" xfId="533" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="標準 11 7" xfId="534" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="標準 2 2" xfId="535" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="標準 2 2 2" xfId="536" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="標準 2 2 3" xfId="748" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="標準 2 2 4" xfId="749" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="標準 2 3" xfId="537" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="標準 2 4" xfId="538" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="標準 2 4 2" xfId="539" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="標準 2 4 2 2" xfId="540" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="標準 2 4 3" xfId="541" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="標準 2 4 4" xfId="542" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="標準 2_フォーマット" xfId="543" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="標準 3 2" xfId="544" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="標準 3 2 2" xfId="545" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="標準 3 2 3" xfId="750" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="標準 3 2 4" xfId="751" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="標準 3 3" xfId="752" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="標準 4" xfId="1" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="標準 4 2" xfId="753" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="標準 5" xfId="546" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="標準 5 2" xfId="547" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="標準 5 3" xfId="548" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="標準 5 4" xfId="549" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="標準 6" xfId="550" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="標準 6 2" xfId="551" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="標準 6 3" xfId="552" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="標準 7" xfId="553" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="標準 8" xfId="554" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="標準 8 2" xfId="754" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="標準 9" xfId="555" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="標準_~6362950" xfId="2" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="標準_~6362950 2" xfId="5" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="標準_画面標準" xfId="6" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="559" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="未定義" xfId="556" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="未定義 2" xfId="557" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="良い 2" xfId="558" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="良い 3" xfId="755" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="良い 4" xfId="756" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="良い 5" xfId="757" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4748,6 +4735,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4770,7 +4760,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4854,52 +4850,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>122710</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6657975"/>
-          <a:ext cx="838200" cy="294161"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5217,22 +5167,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AI512"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="18.75" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="13.5" customHeight="1">
+    <row r="1" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -5269,7 +5217,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" ht="13.15" customHeight="1">
+    <row r="2" spans="1:35" ht="13.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -5306,7 +5254,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" ht="13.5" customHeight="1">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -5343,7 +5291,7 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:35" ht="13.5" customHeight="1">
+    <row r="4" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -5380,7 +5328,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" ht="13.5" customHeight="1">
+    <row r="5" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -5417,7 +5365,7 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:35" ht="13.5" customHeight="1">
+    <row r="6" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -5454,7 +5402,7 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:35" ht="13.5" customHeight="1">
+    <row r="7" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5491,7 +5439,7 @@
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="1:35" ht="13.5" customHeight="1">
+    <row r="8" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5528,7 +5476,7 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="1:35" ht="13.5" customHeight="1">
+    <row r="9" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5565,7 +5513,7 @@
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:35" ht="13.5" customHeight="1">
+    <row r="10" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5602,7 +5550,7 @@
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="1:35" ht="13.5" customHeight="1">
+    <row r="11" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5639,7 +5587,7 @@
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:35" ht="13.5" customHeight="1">
+    <row r="12" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -5676,7 +5624,7 @@
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="1:35" ht="13.5" customHeight="1">
+    <row r="13" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -5713,7 +5661,7 @@
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:35" ht="13.5" customHeight="1">
+    <row r="14" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -5750,7 +5698,7 @@
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" spans="1:35" ht="13.5" customHeight="1">
+    <row r="15" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -5787,7 +5735,7 @@
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
     </row>
-    <row r="16" spans="1:35" ht="13.5" customHeight="1">
+    <row r="16" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5824,7 +5772,7 @@
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
     </row>
-    <row r="17" spans="1:35" ht="13.5" customHeight="1">
+    <row r="17" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5861,7 +5809,7 @@
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
     </row>
-    <row r="18" spans="1:35" ht="13.5" customHeight="1">
+    <row r="18" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5898,7 +5846,7 @@
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
     </row>
-    <row r="19" spans="1:35" ht="13.5" customHeight="1">
+    <row r="19" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5935,7 +5883,7 @@
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
     </row>
-    <row r="20" spans="1:35" ht="13.5" customHeight="1">
+    <row r="20" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5972,7 +5920,7 @@
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
     </row>
-    <row r="21" spans="1:35" ht="13.5" customHeight="1">
+    <row r="21" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -6009,7 +5957,7 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="22" spans="1:35" ht="13.5" customHeight="1">
+    <row r="22" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -6046,7 +5994,7 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
     </row>
-    <row r="23" spans="1:35" ht="17.25" customHeight="1">
+    <row r="23" spans="1:35" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -6065,7 +6013,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -6085,7 +6033,7 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
     </row>
-    <row r="24" spans="1:35" ht="13.5" customHeight="1">
+    <row r="24" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -6122,7 +6070,7 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" spans="1:35" ht="18" customHeight="1">
+    <row r="25" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -6141,7 +6089,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -6161,7 +6109,7 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" spans="1:35" ht="13.5" customHeight="1">
+    <row r="26" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -6198,7 +6146,7 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" spans="1:35" ht="13.5" customHeight="1">
+    <row r="27" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -6235,7 +6183,7 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" spans="1:35" ht="13.5" customHeight="1">
+    <row r="28" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -6272,7 +6220,7 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -6309,7 +6257,7 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" spans="1:35" ht="13.5" customHeight="1">
+    <row r="30" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -6346,7 +6294,7 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
     </row>
-    <row r="31" spans="1:35" ht="18.75" customHeight="1">
+    <row r="31" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -6383,7 +6331,7 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" spans="1:35" ht="28.5">
+    <row r="32" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -6420,7 +6368,7 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
     </row>
-    <row r="33" spans="1:35" ht="24.75">
+    <row r="33" spans="1:35" ht="24.75" x14ac:dyDescent="0.45">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -6457,7 +6405,7 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" spans="1:35" ht="13.5" customHeight="1">
+    <row r="34" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -6494,7 +6442,7 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" spans="1:35" ht="13.5" customHeight="1">
+    <row r="35" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -6531,7 +6479,7 @@
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
     </row>
-    <row r="36" spans="1:35" ht="13.5" customHeight="1">
+    <row r="36" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -6568,16 +6516,12 @@
       <c r="AH36" s="1"/>
       <c r="AI36" s="1"/>
     </row>
-    <row r="37" spans="1:35" ht="13.5" customHeight="1">
+    <row r="37" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="18" t="s">
-        <v>1</v>
-      </c>
+      <c r="E37" s="18"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -6590,9 +6534,7 @@
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="R37" s="15"/>
-      <c r="S37" s="19" t="s">
-        <v>2</v>
-      </c>
+      <c r="S37" s="19"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
@@ -6610,11 +6552,9 @@
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
     </row>
-    <row r="38" spans="1:35" ht="13.5" customHeight="1">
+    <row r="38" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
-      <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -6649,651 +6589,648 @@
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
     </row>
-    <row r="39" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="40" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="41" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="42" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="43" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="44" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="45" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="46" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="47" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="48" spans="1:35" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="39" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="40" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="45" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="46" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="47" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="48" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="4"/>
-  <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="125" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="127"/>
-      <c r="Y1" s="20" t="s">
-        <v>7</v>
-      </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="133"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="72"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
       <c r="AM1" s="23"/>
       <c r="AN1" s="24"/>
     </row>
-    <row r="2" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P2" s="27"/>
-      <c r="Q2" s="134" t="s">
-        <v>10</v>
+      <c r="Q2" s="73" t="s">
+        <v>7</v>
       </c>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="136"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="75"/>
       <c r="Y2" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="142"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="81"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
       <c r="AM2" s="23"/>
       <c r="AN2" s="23"/>
     </row>
-    <row r="3" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:40" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="145"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="139"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="78"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
       <c r="AM3" s="23"/>
       <c r="AN3" s="23"/>
     </row>
-    <row r="5" spans="1:40" s="36" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="36" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA5" s="38"/>
       <c r="AB5" s="38"/>
@@ -7305,7 +7242,7 @@
       <c r="AH5" s="38"/>
       <c r="AI5" s="38"/>
     </row>
-    <row r="6" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="36" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="37"/>
       <c r="AA6" s="38"/>
       <c r="AB6" s="38"/>
@@ -7317,1094 +7254,1242 @@
       <c r="AH6" s="38"/>
       <c r="AI6" s="38"/>
     </row>
-    <row r="7" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="108" t="s">
+    <row r="7" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="94"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="H7" s="94"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="110" t="s">
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="110" t="s">
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="116" t="s">
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="91"/>
+    </row>
+    <row r="8" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="89"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="110" t="s">
+      <c r="K8" s="100"/>
+      <c r="L8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="110" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF7" s="114"/>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="111"/>
-    </row>
-    <row r="8" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="109"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="119" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="120"/>
-      <c r="L8" s="119" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="115"/>
-      <c r="AG8" s="115"/>
-      <c r="AH8" s="115"/>
-      <c r="AI8" s="113"/>
-    </row>
-    <row r="9" spans="1:40" s="41" customFormat="1" ht="12" thickTop="1">
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="95"/>
+      <c r="AI8" s="93"/>
+    </row>
+    <row r="9" spans="1:40" s="41" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="120" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="121"/>
+      <c r="D9" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="123"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="131" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="133"/>
+      <c r="AE9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="99" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
-    </row>
-    <row r="10" spans="1:40" s="41" customFormat="1">
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="104"/>
+    </row>
+    <row r="10" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="43"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="63"/>
-    </row>
-    <row r="11" spans="1:40" s="41" customFormat="1">
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="114"/>
+    </row>
+    <row r="11" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="43"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="63"/>
-    </row>
-    <row r="12" spans="1:40" s="41" customFormat="1">
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="114"/>
+    </row>
+    <row r="12" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="82"/>
-    </row>
-    <row r="13" spans="1:40" s="41" customFormat="1">
+      <c r="B12" s="134"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="143"/>
+    </row>
+    <row r="13" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="43"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="63"/>
-    </row>
-    <row r="14" spans="1:40" s="41" customFormat="1">
+      <c r="B13" s="110"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="114"/>
+    </row>
+    <row r="14" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="43"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
-    </row>
-    <row r="15" spans="1:40" s="41" customFormat="1">
+      <c r="B14" s="110"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="114"/>
+    </row>
+    <row r="15" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="43"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="63"/>
-    </row>
-    <row r="16" spans="1:40" s="41" customFormat="1">
+      <c r="B15" s="110"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="119"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="114"/>
+    </row>
+    <row r="16" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="43"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="63"/>
-    </row>
-    <row r="17" spans="1:35" s="41" customFormat="1">
+      <c r="B16" s="110"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="119"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="114"/>
+    </row>
+    <row r="17" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="43"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="63"/>
-    </row>
-    <row r="18" spans="1:35" s="41" customFormat="1">
+      <c r="B17" s="110"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="114"/>
+    </row>
+    <row r="18" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="43"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="63"/>
-    </row>
-    <row r="19" spans="1:35" s="41" customFormat="1">
+      <c r="B18" s="110"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="113"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="114"/>
+    </row>
+    <row r="19" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="43"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="63"/>
-    </row>
-    <row r="20" spans="1:35" s="41" customFormat="1">
+      <c r="B19" s="110"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="116"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="114"/>
+    </row>
+    <row r="20" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="43"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="63"/>
-    </row>
-    <row r="21" spans="1:35" s="41" customFormat="1">
+      <c r="B20" s="110"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="116"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="116"/>
+      <c r="AI20" s="114"/>
+    </row>
+    <row r="21" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="63"/>
-    </row>
-    <row r="22" spans="1:35" s="41" customFormat="1">
+      <c r="B21" s="110"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="116"/>
+      <c r="AG21" s="116"/>
+      <c r="AH21" s="116"/>
+      <c r="AI21" s="114"/>
+    </row>
+    <row r="22" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="63"/>
-    </row>
-    <row r="23" spans="1:35" s="41" customFormat="1">
+      <c r="B22" s="110"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="118"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="116"/>
+      <c r="AG22" s="116"/>
+      <c r="AH22" s="116"/>
+      <c r="AI22" s="114"/>
+    </row>
+    <row r="23" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="43"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="63"/>
-    </row>
-    <row r="24" spans="1:35" s="41" customFormat="1">
+      <c r="B23" s="110"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="119"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="116"/>
+      <c r="AG23" s="116"/>
+      <c r="AH23" s="116"/>
+      <c r="AI23" s="114"/>
+    </row>
+    <row r="24" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="43"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="63"/>
-    </row>
-    <row r="25" spans="1:35" s="41" customFormat="1">
+      <c r="B24" s="110"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="119"/>
+      <c r="AE24" s="113"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="114"/>
+    </row>
+    <row r="25" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="63"/>
-    </row>
-    <row r="26" spans="1:35" s="41" customFormat="1">
+      <c r="B25" s="110"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="113"/>
+      <c r="AF25" s="116"/>
+      <c r="AG25" s="116"/>
+      <c r="AH25" s="116"/>
+      <c r="AI25" s="114"/>
+    </row>
+    <row r="26" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="63"/>
-    </row>
-    <row r="27" spans="1:35" s="41" customFormat="1">
+      <c r="B26" s="110"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="119"/>
+      <c r="AE26" s="113"/>
+      <c r="AF26" s="116"/>
+      <c r="AG26" s="116"/>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="114"/>
+    </row>
+    <row r="27" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="63"/>
-    </row>
-    <row r="28" spans="1:35" s="41" customFormat="1">
+      <c r="B27" s="110"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="119"/>
+      <c r="AE27" s="113"/>
+      <c r="AF27" s="116"/>
+      <c r="AG27" s="116"/>
+      <c r="AH27" s="116"/>
+      <c r="AI27" s="114"/>
+    </row>
+    <row r="28" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="62"/>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="63"/>
-    </row>
-    <row r="29" spans="1:35" s="41" customFormat="1">
+      <c r="B28" s="110"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="119"/>
+      <c r="AE28" s="113"/>
+      <c r="AF28" s="116"/>
+      <c r="AG28" s="116"/>
+      <c r="AH28" s="116"/>
+      <c r="AI28" s="114"/>
+    </row>
+    <row r="29" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="61"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="63"/>
-    </row>
-    <row r="30" spans="1:35" s="41" customFormat="1">
+      <c r="B29" s="110"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="119"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="116"/>
+      <c r="AG29" s="116"/>
+      <c r="AH29" s="116"/>
+      <c r="AI29" s="114"/>
+    </row>
+    <row r="30" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="61"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="63"/>
-    </row>
-    <row r="31" spans="1:35" s="41" customFormat="1">
+      <c r="B30" s="110"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="118"/>
+      <c r="W30" s="118"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="119"/>
+      <c r="AE30" s="113"/>
+      <c r="AF30" s="116"/>
+      <c r="AG30" s="116"/>
+      <c r="AH30" s="116"/>
+      <c r="AI30" s="114"/>
+    </row>
+    <row r="31" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="61"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="63"/>
-    </row>
-    <row r="32" spans="1:35" s="41" customFormat="1">
+      <c r="B31" s="110"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="118"/>
+      <c r="AD31" s="119"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="116"/>
+      <c r="AG31" s="116"/>
+      <c r="AH31" s="116"/>
+      <c r="AI31" s="114"/>
+    </row>
+    <row r="32" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="61"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="63"/>
-    </row>
-    <row r="33" spans="1:35" s="41" customFormat="1">
+      <c r="B32" s="110"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="119"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="114"/>
+    </row>
+    <row r="33" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="63"/>
-    </row>
-    <row r="34" spans="1:35" s="41" customFormat="1">
+      <c r="B33" s="110"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="119"/>
+      <c r="AE33" s="113"/>
+      <c r="AF33" s="116"/>
+      <c r="AG33" s="116"/>
+      <c r="AH33" s="116"/>
+      <c r="AI33" s="114"/>
+    </row>
+    <row r="34" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="61"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="63"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="118"/>
+      <c r="W34" s="118"/>
+      <c r="X34" s="118"/>
+      <c r="Y34" s="118"/>
+      <c r="Z34" s="118"/>
+      <c r="AA34" s="118"/>
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="118"/>
+      <c r="AD34" s="119"/>
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="116"/>
+      <c r="AG34" s="116"/>
+      <c r="AH34" s="116"/>
+      <c r="AI34" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="Q2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:AD8"/>
-    <mergeCell ref="AE7:AI8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="AE33:AI33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="P34:AD34"/>
+    <mergeCell ref="AE34:AI34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="P33:AD33"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:AD31"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:AD29"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:AD27"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:AD25"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:AD23"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:AD21"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:AD19"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:AD17"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:AD15"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:AD13"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:AD11"/>
     <mergeCell ref="AE9:AI9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
@@ -8419,174 +8504,26 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:AD13"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:AD15"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:AD17"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:AD19"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:AD21"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:AD23"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:AD25"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:AD27"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:AD29"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:AD32"/>
-    <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:AD31"/>
-    <mergeCell ref="AE33:AI33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="P34:AD34"/>
-    <mergeCell ref="AE34:AI34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="P33:AD33"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:AD8"/>
+    <mergeCell ref="AE7:AI8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="Q2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -8598,12 +8535,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AL41"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.83203125" style="45"/>
     <col min="2" max="2" width="4.83203125" style="45" customWidth="1"/>
@@ -8612,86 +8549,86 @@
     <col min="18" max="16384" width="4.83203125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="1" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="122" t="str">
+      <c r="E1" s="61" t="str">
         <f>IF(変更履歴!E1&lt;&gt;"",変更履歴!E1,"")</f>
         <v>XXXプロジェクト</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
       <c r="O1" s="20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P1" s="21"/>
-      <c r="Q1" s="125" t="str">
+      <c r="Q1" s="64" t="str">
         <f>IF(変更履歴!Q1&lt;&gt;"",変更履歴!Q1,"")</f>
         <v>要件定義</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="127"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="66"/>
       <c r="Y1" s="20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="128" t="str">
+      <c r="AA1" s="67" t="str">
         <f>IF(変更履歴!AA1&lt;&gt;"",変更履歴!AA1,"")</f>
         <v/>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="140" t="str">
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="79" t="str">
         <f>IF(変更履歴!AF1&lt;&gt;"",変更履歴!AF1,"")</f>
         <v/>
       </c>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="142"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="81"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="24"/>
     </row>
-    <row r="2" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="2" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="122" t="str">
+      <c r="E2" s="61" t="str">
         <f>IF(変更履歴!E2&lt;&gt;"",変更履歴!E2,"")</f>
         <v/>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P2" s="27"/>
       <c r="Q2" s="149" t="str">
@@ -8706,48 +8643,48 @@
       <c r="W2" s="150"/>
       <c r="X2" s="151"/>
       <c r="Y2" s="20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="128" t="str">
+      <c r="AA2" s="67" t="str">
         <f>IF(変更履歴!AA2&lt;&gt;"",変更履歴!AA2,"")</f>
         <v/>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="140" t="str">
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="79" t="str">
         <f>IF(変更履歴!AF2&lt;&gt;"",変更履歴!AF2,"")</f>
         <v/>
       </c>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="142"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="81"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
     </row>
-    <row r="3" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
+    <row r="3" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="122" t="str">
+      <c r="E3" s="61" t="str">
         <f>IF(変更履歴!E3&lt;&gt;"",変更履歴!E3,"")</f>
         <v/>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="152"/>
@@ -8760,87 +8697,87 @@
       <c r="X3" s="154"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1"/>
-    <row r="5" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q5" s="47" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1"/>
-    <row r="7" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="48"/>
       <c r="O7" s="49"/>
       <c r="P7" s="49"/>
       <c r="Q7" s="49"/>
     </row>
-    <row r="8" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="48"/>
       <c r="C8" s="46" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="48"/>
       <c r="B9" s="50"/>
     </row>
-    <row r="10" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="48"/>
       <c r="B10" s="51"/>
       <c r="C10" s="46" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O10" s="49"/>
       <c r="P10" s="49"/>
     </row>
-    <row r="11" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48"/>
       <c r="B12" s="52"/>
       <c r="C12" s="46" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="48"/>
       <c r="B13" s="52"/>
       <c r="D13" s="46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
     </row>
-    <row r="14" spans="1:38" s="46" customFormat="1">
+    <row r="14" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="48"/>
       <c r="D14" s="45" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O14" s="49"/>
     </row>
-    <row r="15" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
     </row>
-    <row r="16" spans="1:38" s="46" customFormat="1">
+    <row r="16" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="53"/>
       <c r="B16" s="54"/>
       <c r="C16" s="45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D16" s="45"/>
       <c r="O16" s="49"/>
@@ -8853,12 +8790,12 @@
       <c r="W16" s="55"/>
       <c r="X16" s="55"/>
     </row>
-    <row r="17" spans="1:24" s="46" customFormat="1">
+    <row r="17" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="53"/>
       <c r="B17" s="52"/>
       <c r="C17" s="45"/>
       <c r="D17" s="45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E17" s="55"/>
       <c r="F17" s="55"/>
@@ -8880,12 +8817,12 @@
       <c r="W17" s="55"/>
       <c r="X17" s="55"/>
     </row>
-    <row r="18" spans="1:24" s="46" customFormat="1">
+    <row r="18" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="53"/>
       <c r="B18" s="56"/>
       <c r="C18" s="45"/>
       <c r="D18" s="45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
@@ -8907,7 +8844,7 @@
       <c r="W18" s="55"/>
       <c r="X18" s="55"/>
     </row>
-    <row r="19" spans="1:24" s="46" customFormat="1">
+    <row r="19" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="53"/>
       <c r="B19" s="56"/>
       <c r="C19" s="45"/>
@@ -8932,12 +8869,12 @@
       <c r="W19" s="45"/>
       <c r="X19" s="45"/>
     </row>
-    <row r="20" spans="1:24" s="55" customFormat="1">
+    <row r="20" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="53"/>
       <c r="C20" s="46"/>
       <c r="D20" s="49"/>
       <c r="E20" s="49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F20" s="46"/>
       <c r="G20" s="46"/>
@@ -8958,12 +8895,12 @@
       <c r="W20" s="45"/>
       <c r="X20" s="45"/>
     </row>
-    <row r="21" spans="1:24" s="55" customFormat="1">
+    <row r="21" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E21" s="49"/>
       <c r="G21" s="46"/>
@@ -8984,7 +8921,7 @@
       <c r="W21" s="45"/>
       <c r="X21" s="45"/>
     </row>
-    <row r="22" spans="1:24" s="55" customFormat="1">
+    <row r="22" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
       <c r="B22" s="46"/>
       <c r="H22" s="45"/>
@@ -9004,42 +8941,42 @@
       <c r="W22" s="45"/>
       <c r="X22" s="45"/>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A23" s="58"/>
       <c r="C23" s="59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N23" s="49"/>
       <c r="O23" s="49"/>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A24" s="58"/>
       <c r="C24" s="59"/>
       <c r="D24" s="46" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N24" s="49"/>
       <c r="O24" s="49"/>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A25" s="58"/>
       <c r="C25" s="59"/>
       <c r="D25" s="46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N25" s="49"/>
       <c r="O25" s="49"/>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A26" s="60"/>
       <c r="D26" s="46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F26" s="46"/>
       <c r="N26" s="49"/>
       <c r="O26" s="49"/>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A27" s="60"/>
       <c r="C27" s="46"/>
       <c r="D27" s="49"/>
@@ -9047,102 +8984,102 @@
       <c r="N27" s="49"/>
       <c r="O27" s="49"/>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A28" s="60"/>
       <c r="C28" s="46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="O28" s="49"/>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A29" s="60"/>
       <c r="D29" s="46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N29" s="49"/>
       <c r="O29" s="49"/>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A30" s="60"/>
       <c r="D30" s="55" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N30" s="49"/>
       <c r="O30" s="49"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A31" s="60"/>
       <c r="D31" s="55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N31" s="49"/>
       <c r="O31" s="49"/>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A32" s="60"/>
       <c r="D32" s="55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N32" s="49"/>
       <c r="O32" s="49"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A33" s="58"/>
       <c r="D33" s="45" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N33" s="49"/>
       <c r="O33" s="49"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A34" s="60"/>
       <c r="D34" s="45" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N34" s="49"/>
       <c r="O34" s="49"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A35" s="60"/>
       <c r="D35" s="45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N35" s="49"/>
       <c r="O35" s="49"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A36" s="60"/>
       <c r="D36" s="45" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A37" s="60"/>
+      <c r="D37" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A38" s="60"/>
+      <c r="D38" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A39" s="60"/>
+      <c r="D39" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="60"/>
-      <c r="D37" s="45" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D40" s="45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="60"/>
-      <c r="D38" s="45" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" s="60"/>
-      <c r="D39" s="45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="D40" s="45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="58"/>
       <c r="D41" s="45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O41" s="49"/>
       <c r="P41" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B58A3-7DB1-41FC-9148-DB89AD8C22DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD880FE-C0A8-4970-B637-938CB246477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="345" windowWidth="21555" windowHeight="11775" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -21,7 +21,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$44</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -268,9 +279,6 @@
     <t>7.11.暗号化・ハッシュ化</t>
   </si>
   <si>
-    <t>7.12.分散処理方式</t>
-  </si>
-  <si>
     <t>7.13.ログ</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -293,6 +301,13 @@
   </si>
   <si>
     <t>第1.0版</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>7.12.負荷分散</t>
+    <rPh sb="5" eb="9">
+      <t>フカブンサン</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3673,6 +3688,189 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3753,189 +3951,6 @@
     </xf>
     <xf numFmtId="177" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6013,7 +6028,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -6089,7 +6104,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -7089,45 +7104,45 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="21"/>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127"/>
       <c r="Y1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="72"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
+      <c r="AI1" s="133"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -7141,43 +7156,43 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="27"/>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="75"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="136"/>
       <c r="Y2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -7191,37 +7206,37 @@
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="139"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -7255,1073 +7270,1261 @@
       <c r="AI6" s="38"/>
     </row>
     <row r="7" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="90" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="90" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="96" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="90" t="s">
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90" t="s">
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="91"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="111"/>
     </row>
     <row r="8" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="99" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="99" t="s">
+      <c r="K8" s="120"/>
+      <c r="L8" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="93"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="115"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="115"/>
+      <c r="AI8" s="113"/>
     </row>
     <row r="9" spans="1:40" s="41" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122" t="s">
-        <v>53</v>
+      <c r="C9" s="95"/>
+      <c r="D9" s="96" t="s">
+        <v>52</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="125" t="s">
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="131" t="s">
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="133"/>
-      <c r="AE9" s="102" t="s">
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="104"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
     <row r="10" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="43"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="114"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="63"/>
     </row>
     <row r="11" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="43"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="118"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="114"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="63"/>
     </row>
     <row r="12" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="143"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="82"/>
     </row>
     <row r="13" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="43"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="114"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="63"/>
     </row>
     <row r="14" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="43"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="114"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63"/>
     </row>
     <row r="15" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="43"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="114"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="63"/>
     </row>
     <row r="16" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="43"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="114"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="63"/>
     </row>
     <row r="17" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="43"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="114"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="63"/>
     </row>
     <row r="18" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="43"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="114"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="63"/>
     </row>
     <row r="19" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="43"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="114"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="63"/>
     </row>
     <row r="20" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="43"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="114"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="63"/>
     </row>
     <row r="21" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-      <c r="AI21" s="114"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="63"/>
     </row>
     <row r="22" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="116"/>
-      <c r="AI22" s="114"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="63"/>
     </row>
     <row r="23" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="43"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="114"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="63"/>
     </row>
     <row r="24" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="43"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="114"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="63"/>
     </row>
     <row r="25" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="116"/>
-      <c r="AI25" s="114"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="63"/>
     </row>
     <row r="26" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="113"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="114"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="63"/>
     </row>
     <row r="27" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="113"/>
-      <c r="AF27" s="116"/>
-      <c r="AG27" s="116"/>
-      <c r="AH27" s="116"/>
-      <c r="AI27" s="114"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="63"/>
     </row>
     <row r="28" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="118"/>
-      <c r="AD28" s="119"/>
-      <c r="AE28" s="113"/>
-      <c r="AF28" s="116"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="116"/>
-      <c r="AI28" s="114"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="63"/>
     </row>
     <row r="29" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="118"/>
-      <c r="AB29" s="118"/>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="119"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="114"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="63"/>
     </row>
     <row r="30" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="118"/>
-      <c r="X30" s="118"/>
-      <c r="Y30" s="118"/>
-      <c r="Z30" s="118"/>
-      <c r="AA30" s="118"/>
-      <c r="AB30" s="118"/>
-      <c r="AC30" s="118"/>
-      <c r="AD30" s="119"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="116"/>
-      <c r="AI30" s="114"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="63"/>
     </row>
     <row r="31" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="118"/>
-      <c r="AB31" s="118"/>
-      <c r="AC31" s="118"/>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="116"/>
-      <c r="AG31" s="116"/>
-      <c r="AH31" s="116"/>
-      <c r="AI31" s="114"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="63"/>
     </row>
     <row r="32" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="118"/>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="114"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="63"/>
     </row>
     <row r="33" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="118"/>
-      <c r="AB33" s="118"/>
-      <c r="AC33" s="118"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="116"/>
-      <c r="AI33" s="114"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="63"/>
     </row>
     <row r="34" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="118"/>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="119"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="116"/>
-      <c r="AI34" s="114"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="62"/>
+      <c r="AI34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="Q2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:AD8"/>
+    <mergeCell ref="AE7:AI8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:AD13"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:AD15"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:AD17"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:AD19"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:AD21"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:AD23"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:AD25"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:AD27"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:AD29"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:AD31"/>
     <mergeCell ref="AE33:AI33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
@@ -8336,194 +8539,6 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="P33:AD33"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:AD32"/>
-    <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:AD31"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:AD29"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:AD27"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:AD25"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:AD23"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:AD21"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:AD19"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:AD17"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:AD15"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:AD13"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:AD8"/>
-    <mergeCell ref="AE7:AI8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="Q2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -8556,53 +8571,53 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="61" t="str">
+      <c r="E1" s="122" t="str">
         <f>IF(変更履歴!E1&lt;&gt;"",変更履歴!E1,"")</f>
         <v>XXXプロジェクト</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="21"/>
-      <c r="Q1" s="64" t="str">
+      <c r="Q1" s="125" t="str">
         <f>IF(変更履歴!Q1&lt;&gt;"",変更履歴!Q1,"")</f>
         <v>要件定義</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127"/>
       <c r="Y1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="67" t="str">
+      <c r="AA1" s="128" t="str">
         <f>IF(変更履歴!AA1&lt;&gt;"",変更履歴!AA1,"")</f>
         <v/>
       </c>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="79" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="140" t="str">
         <f>IF(変更履歴!AF1&lt;&gt;"",変更履歴!AF1,"")</f>
         <v/>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="142"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="24"/>
@@ -8614,19 +8629,19 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="61" t="str">
+      <c r="E2" s="122" t="str">
         <f>IF(変更履歴!E2&lt;&gt;"",変更履歴!E2,"")</f>
         <v/>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
@@ -8646,21 +8661,21 @@
         <v>8</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="67" t="str">
+      <c r="AA2" s="128" t="str">
         <f>IF(変更履歴!AA2&lt;&gt;"",変更履歴!AA2,"")</f>
         <v/>
       </c>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="79" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="140" t="str">
         <f>IF(変更履歴!AF2&lt;&gt;"",変更履歴!AF2,"")</f>
         <v/>
       </c>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -8672,19 +8687,19 @@
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="61" t="str">
+      <c r="E3" s="122" t="str">
         <f>IF(変更履歴!E3&lt;&gt;"",変更履歴!E3,"")</f>
         <v/>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="152"/>
@@ -8697,15 +8712,15 @@
       <c r="X3" s="154"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9073,13 +9088,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.15">
       <c r="D40" s="45" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A41" s="58"/>
       <c r="D41" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O41" s="49"/>
       <c r="P41" s="49"/>

--- a/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD880FE-C0A8-4970-B637-938CB246477F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEDBAA0-ADBF-4AFA-B92B-57B6EF710F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_Toc77519345" localSheetId="2">目次!#REF!</definedName>
     <definedName name="_Toc77519346" localSheetId="2">目次!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$135</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
   <si>
     <t>PJ名</t>
   </si>
@@ -309,6 +309,285 @@
       <t>フカブンサン</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2.1.アプリケーション全体図</t>
+  </si>
+  <si>
+    <t>2.2.ソフトウェア構成</t>
+  </si>
+  <si>
+    <t>2.3.アプリケーション・アーキテクチャ</t>
+  </si>
+  <si>
+    <t>2.4.ソフトウェアのバージョン</t>
+  </si>
+  <si>
+    <t>2.5.エラー処理概要</t>
+  </si>
+  <si>
+    <t>3.1.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>3.1.2.HTTPメソッドの使い分け</t>
+  </si>
+  <si>
+    <t>3.1.3.ブラウザキャッシュ制御</t>
+  </si>
+  <si>
+    <t>3.1.4.オートコンプリート</t>
+  </si>
+  <si>
+    <t>3.1.5.戻る遷移制御</t>
+  </si>
+  <si>
+    <t>3.1.6.二重サブミット防止</t>
+  </si>
+  <si>
+    <t>3.1.7.データの保持</t>
+  </si>
+  <si>
+    <t>3.1.8.開閉局</t>
+  </si>
+  <si>
+    <t>3.1.9.エラー処理</t>
+  </si>
+  <si>
+    <t>3.1.10.URL設計</t>
+  </si>
+  <si>
+    <t>3.1.11.コンテンツ更新</t>
+  </si>
+  <si>
+    <t>3.1.12.ウィルス対策</t>
+  </si>
+  <si>
+    <t>3.1.13.複数ウィンドウ/タブの同時操作時の挙動</t>
+  </si>
+  <si>
+    <t>3.2.1.非同期処理方式概要</t>
+  </si>
+  <si>
+    <t>3.2.2.非同期処理方式詳細</t>
+  </si>
+  <si>
+    <t>3.2.3.非同期処理のエラー時対応</t>
+  </si>
+  <si>
+    <t>4.1.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>4.1.2.処理制御</t>
+  </si>
+  <si>
+    <t>4.1.3.基本的な処理シーケンス</t>
+  </si>
+  <si>
+    <t>4.1.4.コミット間隔</t>
+  </si>
+  <si>
+    <t>4.1.5.0件データ処理</t>
+  </si>
+  <si>
+    <t>4.1.6.処理済みデータの設定</t>
+  </si>
+  <si>
+    <t>4.1.7.エラー処理</t>
+  </si>
+  <si>
+    <t>4.2.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>4.2.2.処理制御</t>
+  </si>
+  <si>
+    <t>4.2.3.コミット間隔</t>
+  </si>
+  <si>
+    <t>4.2.4.エラー処理</t>
+  </si>
+  <si>
+    <t>5.1.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>5.1.2.処理フロー</t>
+  </si>
+  <si>
+    <t>5.1.3.基本構造・責務配置</t>
+  </si>
+  <si>
+    <t>5.1.4.開閉局</t>
+  </si>
+  <si>
+    <t>5.1.5.入力値精査</t>
+  </si>
+  <si>
+    <t>5.1.6.エラー処理</t>
+  </si>
+  <si>
+    <t>5.1.7.リカバリ方法</t>
+  </si>
+  <si>
+    <t>6.1.1.メッセージ仕向け（HTTP/HTTPS）の機能概要</t>
+  </si>
+  <si>
+    <t>6.1.2.メッセージ仕向け（HTTP/HTTPS）の方法</t>
+  </si>
+  <si>
+    <t>6.1.3.メッセージ仕向け（HTTP/HTTPS）機能詳細</t>
+  </si>
+  <si>
+    <t>6.2.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>6.2.2.処理フロー</t>
+  </si>
+  <si>
+    <t>6.2.3.基本構造・責務配置</t>
+  </si>
+  <si>
+    <t>6.2.4.開閉局</t>
+  </si>
+  <si>
+    <t>6.2.5.エラー処理</t>
+  </si>
+  <si>
+    <t>6.2.6.リカバリ方法</t>
+  </si>
+  <si>
+    <t>6.3.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>6.3.2.メール送信方式</t>
+  </si>
+  <si>
+    <t>6.3.3.メールテンプレート</t>
+  </si>
+  <si>
+    <t>6.3.4.メールフォーマット</t>
+  </si>
+  <si>
+    <t>6.3.5.エラー処理</t>
+  </si>
+  <si>
+    <t>6.3.6.文字コード</t>
+  </si>
+  <si>
+    <t>6.3.7.送信履歴</t>
+  </si>
+  <si>
+    <t>6.3.8.メール送信のパターン</t>
+  </si>
+  <si>
+    <t>7.1.1.  入力値精査処理方式の選択</t>
+  </si>
+  <si>
+    <t>7.1.2.  入力値精査の種類と対象</t>
+  </si>
+  <si>
+    <t>7.1.2.  単項目精査、項目間精査およびFormで完結しない精査の実現方式</t>
+  </si>
+  <si>
+    <t>7.2.1.基本方針</t>
+  </si>
+  <si>
+    <t>7.2.2.システムで使用する文字コード</t>
+  </si>
+  <si>
+    <t>7.2.3.文字コード変換方式</t>
+  </si>
+  <si>
+    <t>7.3.1.コネクション</t>
+  </si>
+  <si>
+    <t>7.3.2.データベース接続</t>
+  </si>
+  <si>
+    <t>7.3.3.SQL文の生成</t>
+  </si>
+  <si>
+    <t>7.3.4.トランザクション制御</t>
+  </si>
+  <si>
+    <t>7.4.1.ファイルアクセス処理概要</t>
+  </si>
+  <si>
+    <t>7.4.2.データ入出力</t>
+  </si>
+  <si>
+    <t>7.4.3.ファイルクリーニング</t>
+  </si>
+  <si>
+    <t>7.4.4.クリーニングジョブ</t>
+  </si>
+  <si>
+    <t>7.5.1.認証</t>
+  </si>
+  <si>
+    <t>7.5.2.認可</t>
+  </si>
+  <si>
+    <t>7.5.3.認証・認可の管理運用</t>
+  </si>
+  <si>
+    <t>7.6.1.基本方針</t>
+  </si>
+  <si>
+    <t>7.6.2.メッセージのロード方式</t>
+  </si>
+  <si>
+    <t>7.7.1.基本方針</t>
+  </si>
+  <si>
+    <t>7.7.2.コードのロード方式</t>
+  </si>
+  <si>
+    <t>7.8.1.基本方針</t>
+  </si>
+  <si>
+    <t>7.8.2.値のリセット方法</t>
+  </si>
+  <si>
+    <t>7.8.3.採番処理の実装方針</t>
+  </si>
+  <si>
+    <t>7.9.1.基本概念</t>
+  </si>
+  <si>
+    <t>7.9.2.業務日付</t>
+  </si>
+  <si>
+    <t>7.9.3.システム日時</t>
+  </si>
+  <si>
+    <t>7.10.1.ファイル管理概要</t>
+  </si>
+  <si>
+    <t>7.10.2.ファイル管理詳細</t>
+  </si>
+  <si>
+    <t>7.11.1.暗号化</t>
+  </si>
+  <si>
+    <t>7.11.2.項目暗号化</t>
+  </si>
+  <si>
+    <t>7.13.1.ログ定義</t>
+  </si>
+  <si>
+    <t>7.13.2.各処理方式のログ</t>
+  </si>
+  <si>
+    <t>7.13.3.ログの種類ごとのフォーマット</t>
+  </si>
+  <si>
+    <t>7.13.4.ログファイルごとのフォーマット</t>
+  </si>
+  <si>
+    <t>7.13.5.エラー通知</t>
+  </si>
+  <si>
+    <t>7.13.6.シェルスクリプトのログ</t>
   </si>
 </sst>
 </file>
@@ -3688,33 +3967,174 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="1" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="2" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="3" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3724,6 +4144,48 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3768,189 +4230,6 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="23" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="24" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="25" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="6" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="4" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="1" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="2" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="3" xfId="559" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7104,45 +7383,45 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="122" t="s">
+      <c r="E1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
       <c r="O1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="21"/>
-      <c r="Q1" s="125" t="s">
+      <c r="Q1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="127"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="66"/>
       <c r="Y1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="128"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="131"/>
-      <c r="AG1" s="132"/>
-      <c r="AH1" s="132"/>
-      <c r="AI1" s="133"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="70"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="72"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -7156,43 +7435,43 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="27"/>
-      <c r="Q2" s="134" t="s">
+      <c r="Q2" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="136"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="75"/>
       <c r="Y2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="128"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="140"/>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="142"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="79"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="81"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -7206,37 +7485,37 @@
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="145"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="84"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="138"/>
-      <c r="S3" s="138"/>
-      <c r="T3" s="138"/>
-      <c r="U3" s="138"/>
-      <c r="V3" s="138"/>
-      <c r="W3" s="138"/>
-      <c r="X3" s="139"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="78"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -7270,1093 +7549,1241 @@
       <c r="AI6" s="38"/>
     </row>
     <row r="7" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="108" t="s">
+      <c r="A7" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="111"/>
-      <c r="D7" s="110" t="s">
+      <c r="C7" s="91"/>
+      <c r="D7" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="114"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="110" t="s">
+      <c r="E7" s="94"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="114"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="116" t="s">
+      <c r="H7" s="94"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="118"/>
-      <c r="P7" s="110" t="s">
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
-      <c r="W7" s="114"/>
-      <c r="X7" s="114"/>
-      <c r="Y7" s="114"/>
-      <c r="Z7" s="114"/>
-      <c r="AA7" s="114"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="114"/>
-      <c r="AD7" s="111"/>
-      <c r="AE7" s="110" t="s">
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="114"/>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="111"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="94"/>
+      <c r="AI7" s="91"/>
     </row>
     <row r="8" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="109"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="119" t="s">
+      <c r="A8" s="89"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="95"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="93"/>
+      <c r="J8" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="120"/>
-      <c r="L8" s="119" t="s">
+      <c r="K8" s="100"/>
+      <c r="L8" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-      <c r="Y8" s="115"/>
-      <c r="Z8" s="115"/>
-      <c r="AA8" s="115"/>
-      <c r="AB8" s="115"/>
-      <c r="AC8" s="115"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="115"/>
-      <c r="AG8" s="115"/>
-      <c r="AH8" s="115"/>
-      <c r="AI8" s="113"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="95"/>
+      <c r="R8" s="95"/>
+      <c r="S8" s="95"/>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="95"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="95"/>
+      <c r="AA8" s="95"/>
+      <c r="AB8" s="95"/>
+      <c r="AC8" s="95"/>
+      <c r="AD8" s="93"/>
+      <c r="AE8" s="92"/>
+      <c r="AF8" s="95"/>
+      <c r="AG8" s="95"/>
+      <c r="AH8" s="95"/>
+      <c r="AI8" s="93"/>
     </row>
     <row r="9" spans="1:40" s="41" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="96" t="s">
+      <c r="C9" s="121"/>
+      <c r="D9" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="97"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="99" t="s">
+      <c r="E9" s="123"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="125" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="105" t="s">
+      <c r="H9" s="126"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="128"/>
+      <c r="M9" s="130"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="129"/>
+      <c r="P9" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="106"/>
-      <c r="R9" s="106"/>
-      <c r="S9" s="106"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="106"/>
-      <c r="Y9" s="106"/>
-      <c r="Z9" s="106"/>
-      <c r="AA9" s="106"/>
-      <c r="AB9" s="106"/>
-      <c r="AC9" s="106"/>
-      <c r="AD9" s="107"/>
-      <c r="AE9" s="91" t="s">
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+      <c r="AB9" s="132"/>
+      <c r="AC9" s="132"/>
+      <c r="AD9" s="133"/>
+      <c r="AE9" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="AF9" s="92"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
+      <c r="AF9" s="103"/>
+      <c r="AG9" s="103"/>
+      <c r="AH9" s="103"/>
+      <c r="AI9" s="104"/>
     </row>
     <row r="10" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="43"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="63"/>
-      <c r="L10" s="90"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="63"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="118"/>
+      <c r="R10" s="118"/>
+      <c r="S10" s="118"/>
+      <c r="T10" s="118"/>
+      <c r="U10" s="118"/>
+      <c r="V10" s="118"/>
+      <c r="W10" s="118"/>
+      <c r="X10" s="118"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="118"/>
+      <c r="AA10" s="118"/>
+      <c r="AB10" s="118"/>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="116"/>
+      <c r="AG10" s="116"/>
+      <c r="AH10" s="116"/>
+      <c r="AI10" s="114"/>
     </row>
     <row r="11" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="43"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="63"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="71"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="63"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="114"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="118"/>
+      <c r="R11" s="118"/>
+      <c r="S11" s="118"/>
+      <c r="T11" s="118"/>
+      <c r="U11" s="118"/>
+      <c r="V11" s="118"/>
+      <c r="W11" s="118"/>
+      <c r="X11" s="118"/>
+      <c r="Y11" s="118"/>
+      <c r="Z11" s="118"/>
+      <c r="AA11" s="118"/>
+      <c r="AB11" s="118"/>
+      <c r="AC11" s="118"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="116"/>
+      <c r="AG11" s="116"/>
+      <c r="AH11" s="116"/>
+      <c r="AI11" s="114"/>
     </row>
     <row r="12" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="83"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
-      <c r="U12" s="86"/>
-      <c r="V12" s="86"/>
-      <c r="W12" s="86"/>
-      <c r="X12" s="86"/>
-      <c r="Y12" s="86"/>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="86"/>
-      <c r="AB12" s="86"/>
-      <c r="AC12" s="86"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="81"/>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="82"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="138"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="145"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="146"/>
+      <c r="Q12" s="147"/>
+      <c r="R12" s="147"/>
+      <c r="S12" s="147"/>
+      <c r="T12" s="147"/>
+      <c r="U12" s="147"/>
+      <c r="V12" s="147"/>
+      <c r="W12" s="147"/>
+      <c r="X12" s="147"/>
+      <c r="Y12" s="147"/>
+      <c r="Z12" s="147"/>
+      <c r="AA12" s="147"/>
+      <c r="AB12" s="147"/>
+      <c r="AC12" s="147"/>
+      <c r="AD12" s="148"/>
+      <c r="AE12" s="142"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="145"/>
+      <c r="AH12" s="145"/>
+      <c r="AI12" s="143"/>
     </row>
     <row r="13" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="43"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="71"/>
-      <c r="V13" s="71"/>
-      <c r="W13" s="71"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="71"/>
-      <c r="Z13" s="71"/>
-      <c r="AA13" s="71"/>
-      <c r="AB13" s="71"/>
-      <c r="AC13" s="71"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="61"/>
-      <c r="AF13" s="62"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="62"/>
-      <c r="AI13" s="63"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="118"/>
+      <c r="S13" s="118"/>
+      <c r="T13" s="118"/>
+      <c r="U13" s="118"/>
+      <c r="V13" s="118"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="118"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="118"/>
+      <c r="AA13" s="118"/>
+      <c r="AB13" s="118"/>
+      <c r="AC13" s="118"/>
+      <c r="AD13" s="119"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="116"/>
+      <c r="AG13" s="116"/>
+      <c r="AH13" s="116"/>
+      <c r="AI13" s="114"/>
     </row>
     <row r="14" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="43"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="63"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="71"/>
-      <c r="V14" s="71"/>
-      <c r="W14" s="71"/>
-      <c r="X14" s="71"/>
-      <c r="Y14" s="71"/>
-      <c r="Z14" s="71"/>
-      <c r="AA14" s="71"/>
-      <c r="AB14" s="71"/>
-      <c r="AC14" s="71"/>
-      <c r="AD14" s="72"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="62"/>
-      <c r="AG14" s="62"/>
-      <c r="AH14" s="62"/>
-      <c r="AI14" s="63"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="113"/>
+      <c r="M14" s="116"/>
+      <c r="N14" s="116"/>
+      <c r="O14" s="114"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="118"/>
+      <c r="R14" s="118"/>
+      <c r="S14" s="118"/>
+      <c r="T14" s="118"/>
+      <c r="U14" s="118"/>
+      <c r="V14" s="118"/>
+      <c r="W14" s="118"/>
+      <c r="X14" s="118"/>
+      <c r="Y14" s="118"/>
+      <c r="Z14" s="118"/>
+      <c r="AA14" s="118"/>
+      <c r="AB14" s="118"/>
+      <c r="AC14" s="118"/>
+      <c r="AD14" s="119"/>
+      <c r="AE14" s="113"/>
+      <c r="AF14" s="116"/>
+      <c r="AG14" s="116"/>
+      <c r="AH14" s="116"/>
+      <c r="AI14" s="114"/>
     </row>
     <row r="15" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="43"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="71"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="71"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="71"/>
-      <c r="Z15" s="71"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="71"/>
-      <c r="AC15" s="71"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="61"/>
-      <c r="AF15" s="62"/>
-      <c r="AG15" s="62"/>
-      <c r="AH15" s="62"/>
-      <c r="AI15" s="63"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="116"/>
+      <c r="N15" s="116"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="118"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="118"/>
+      <c r="T15" s="118"/>
+      <c r="U15" s="118"/>
+      <c r="V15" s="118"/>
+      <c r="W15" s="118"/>
+      <c r="X15" s="118"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="118"/>
+      <c r="AA15" s="118"/>
+      <c r="AB15" s="118"/>
+      <c r="AC15" s="118"/>
+      <c r="AD15" s="119"/>
+      <c r="AE15" s="113"/>
+      <c r="AF15" s="116"/>
+      <c r="AG15" s="116"/>
+      <c r="AH15" s="116"/>
+      <c r="AI15" s="114"/>
     </row>
     <row r="16" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="43"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="63"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="61"/>
-      <c r="AF16" s="62"/>
-      <c r="AG16" s="62"/>
-      <c r="AH16" s="62"/>
-      <c r="AI16" s="63"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="112"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="113"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="114"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="118"/>
+      <c r="R16" s="118"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="118"/>
+      <c r="U16" s="118"/>
+      <c r="V16" s="118"/>
+      <c r="W16" s="118"/>
+      <c r="X16" s="118"/>
+      <c r="Y16" s="118"/>
+      <c r="Z16" s="118"/>
+      <c r="AA16" s="118"/>
+      <c r="AB16" s="118"/>
+      <c r="AC16" s="118"/>
+      <c r="AD16" s="119"/>
+      <c r="AE16" s="113"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="114"/>
     </row>
     <row r="17" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="43"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="63"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="71"/>
-      <c r="AC17" s="71"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="61"/>
-      <c r="AF17" s="62"/>
-      <c r="AG17" s="62"/>
-      <c r="AH17" s="62"/>
-      <c r="AI17" s="63"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="112"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="114"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="118"/>
+      <c r="AD17" s="119"/>
+      <c r="AE17" s="113"/>
+      <c r="AF17" s="116"/>
+      <c r="AG17" s="116"/>
+      <c r="AH17" s="116"/>
+      <c r="AI17" s="114"/>
     </row>
     <row r="18" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="43"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="63"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="63"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="116"/>
+      <c r="N18" s="116"/>
+      <c r="O18" s="114"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118"/>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118"/>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118"/>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="113"/>
+      <c r="AF18" s="116"/>
+      <c r="AG18" s="116"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="114"/>
     </row>
     <row r="19" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="43"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="63"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="71"/>
-      <c r="AC19" s="71"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="61"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="63"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="118"/>
+      <c r="R19" s="118"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="118"/>
+      <c r="U19" s="118"/>
+      <c r="V19" s="118"/>
+      <c r="W19" s="118"/>
+      <c r="X19" s="118"/>
+      <c r="Y19" s="118"/>
+      <c r="Z19" s="118"/>
+      <c r="AA19" s="118"/>
+      <c r="AB19" s="118"/>
+      <c r="AC19" s="118"/>
+      <c r="AD19" s="119"/>
+      <c r="AE19" s="113"/>
+      <c r="AF19" s="116"/>
+      <c r="AG19" s="116"/>
+      <c r="AH19" s="116"/>
+      <c r="AI19" s="114"/>
     </row>
     <row r="20" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="43"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="63"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="61"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="63"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="113"/>
+      <c r="M20" s="116"/>
+      <c r="N20" s="116"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="118"/>
+      <c r="R20" s="118"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="118"/>
+      <c r="U20" s="118"/>
+      <c r="V20" s="118"/>
+      <c r="W20" s="118"/>
+      <c r="X20" s="118"/>
+      <c r="Y20" s="118"/>
+      <c r="Z20" s="118"/>
+      <c r="AA20" s="118"/>
+      <c r="AB20" s="118"/>
+      <c r="AC20" s="118"/>
+      <c r="AD20" s="119"/>
+      <c r="AE20" s="113"/>
+      <c r="AF20" s="116"/>
+      <c r="AG20" s="116"/>
+      <c r="AH20" s="116"/>
+      <c r="AI20" s="114"/>
     </row>
     <row r="21" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="63"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="72"/>
-      <c r="AE21" s="61"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="63"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="118"/>
+      <c r="U21" s="118"/>
+      <c r="V21" s="118"/>
+      <c r="W21" s="118"/>
+      <c r="X21" s="118"/>
+      <c r="Y21" s="118"/>
+      <c r="Z21" s="118"/>
+      <c r="AA21" s="118"/>
+      <c r="AB21" s="118"/>
+      <c r="AC21" s="118"/>
+      <c r="AD21" s="119"/>
+      <c r="AE21" s="113"/>
+      <c r="AF21" s="116"/>
+      <c r="AG21" s="116"/>
+      <c r="AH21" s="116"/>
+      <c r="AI21" s="114"/>
     </row>
     <row r="22" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="71"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="61"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="63"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="116"/>
+      <c r="N22" s="116"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="118"/>
+      <c r="R22" s="118"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="118"/>
+      <c r="U22" s="118"/>
+      <c r="V22" s="118"/>
+      <c r="W22" s="118"/>
+      <c r="X22" s="118"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="118"/>
+      <c r="AA22" s="118"/>
+      <c r="AB22" s="118"/>
+      <c r="AC22" s="118"/>
+      <c r="AD22" s="119"/>
+      <c r="AE22" s="113"/>
+      <c r="AF22" s="116"/>
+      <c r="AG22" s="116"/>
+      <c r="AH22" s="116"/>
+      <c r="AI22" s="114"/>
     </row>
     <row r="23" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="43"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="71"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="61"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="63"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="113"/>
+      <c r="M23" s="116"/>
+      <c r="N23" s="116"/>
+      <c r="O23" s="114"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="118"/>
+      <c r="U23" s="118"/>
+      <c r="V23" s="118"/>
+      <c r="W23" s="118"/>
+      <c r="X23" s="118"/>
+      <c r="Y23" s="118"/>
+      <c r="Z23" s="118"/>
+      <c r="AA23" s="118"/>
+      <c r="AB23" s="118"/>
+      <c r="AC23" s="118"/>
+      <c r="AD23" s="119"/>
+      <c r="AE23" s="113"/>
+      <c r="AF23" s="116"/>
+      <c r="AG23" s="116"/>
+      <c r="AH23" s="116"/>
+      <c r="AI23" s="114"/>
     </row>
     <row r="24" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="43"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="71"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="61"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="63"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="113"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="118"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="118"/>
+      <c r="W24" s="118"/>
+      <c r="X24" s="118"/>
+      <c r="Y24" s="118"/>
+      <c r="Z24" s="118"/>
+      <c r="AA24" s="118"/>
+      <c r="AB24" s="118"/>
+      <c r="AC24" s="118"/>
+      <c r="AD24" s="119"/>
+      <c r="AE24" s="113"/>
+      <c r="AF24" s="116"/>
+      <c r="AG24" s="116"/>
+      <c r="AH24" s="116"/>
+      <c r="AI24" s="114"/>
     </row>
     <row r="25" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="63"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="71"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="61"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="63"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="114"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="113"/>
+      <c r="AF25" s="116"/>
+      <c r="AG25" s="116"/>
+      <c r="AH25" s="116"/>
+      <c r="AI25" s="114"/>
     </row>
     <row r="26" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="65"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="63"/>
-      <c r="P26" s="70"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="71"/>
-      <c r="AD26" s="72"/>
-      <c r="AE26" s="61"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="63"/>
+      <c r="B26" s="110"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="108"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="111"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="114"/>
+      <c r="P26" s="117"/>
+      <c r="Q26" s="118"/>
+      <c r="R26" s="118"/>
+      <c r="S26" s="118"/>
+      <c r="T26" s="118"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="118"/>
+      <c r="W26" s="118"/>
+      <c r="X26" s="118"/>
+      <c r="Y26" s="118"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="118"/>
+      <c r="AB26" s="118"/>
+      <c r="AC26" s="118"/>
+      <c r="AD26" s="119"/>
+      <c r="AE26" s="113"/>
+      <c r="AF26" s="116"/>
+      <c r="AG26" s="116"/>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="114"/>
     </row>
     <row r="27" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="70"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="71"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="61"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="63"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="108"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="113"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="114"/>
+      <c r="P27" s="117"/>
+      <c r="Q27" s="118"/>
+      <c r="R27" s="118"/>
+      <c r="S27" s="118"/>
+      <c r="T27" s="118"/>
+      <c r="U27" s="118"/>
+      <c r="V27" s="118"/>
+      <c r="W27" s="118"/>
+      <c r="X27" s="118"/>
+      <c r="Y27" s="118"/>
+      <c r="Z27" s="118"/>
+      <c r="AA27" s="118"/>
+      <c r="AB27" s="118"/>
+      <c r="AC27" s="118"/>
+      <c r="AD27" s="119"/>
+      <c r="AE27" s="113"/>
+      <c r="AF27" s="116"/>
+      <c r="AG27" s="116"/>
+      <c r="AH27" s="116"/>
+      <c r="AI27" s="114"/>
     </row>
     <row r="28" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="70"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="71"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="61"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="62"/>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="63"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="108"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="112"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="113"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="116"/>
+      <c r="O28" s="114"/>
+      <c r="P28" s="117"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
+      <c r="V28" s="118"/>
+      <c r="W28" s="118"/>
+      <c r="X28" s="118"/>
+      <c r="Y28" s="118"/>
+      <c r="Z28" s="118"/>
+      <c r="AA28" s="118"/>
+      <c r="AB28" s="118"/>
+      <c r="AC28" s="118"/>
+      <c r="AD28" s="119"/>
+      <c r="AE28" s="113"/>
+      <c r="AF28" s="116"/>
+      <c r="AG28" s="116"/>
+      <c r="AH28" s="116"/>
+      <c r="AI28" s="114"/>
     </row>
     <row r="29" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="63"/>
-      <c r="P29" s="70"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="71"/>
-      <c r="AC29" s="71"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="61"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="63"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="112"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="113"/>
+      <c r="M29" s="116"/>
+      <c r="N29" s="116"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="117"/>
+      <c r="Q29" s="118"/>
+      <c r="R29" s="118"/>
+      <c r="S29" s="118"/>
+      <c r="T29" s="118"/>
+      <c r="U29" s="118"/>
+      <c r="V29" s="118"/>
+      <c r="W29" s="118"/>
+      <c r="X29" s="118"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="118"/>
+      <c r="AB29" s="118"/>
+      <c r="AC29" s="118"/>
+      <c r="AD29" s="119"/>
+      <c r="AE29" s="113"/>
+      <c r="AF29" s="116"/>
+      <c r="AG29" s="116"/>
+      <c r="AH29" s="116"/>
+      <c r="AI29" s="114"/>
     </row>
     <row r="30" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="63"/>
-      <c r="P30" s="70"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="61"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="63"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="109"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="112"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="113"/>
+      <c r="M30" s="116"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="114"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="118"/>
+      <c r="R30" s="118"/>
+      <c r="S30" s="118"/>
+      <c r="T30" s="118"/>
+      <c r="U30" s="118"/>
+      <c r="V30" s="118"/>
+      <c r="W30" s="118"/>
+      <c r="X30" s="118"/>
+      <c r="Y30" s="118"/>
+      <c r="Z30" s="118"/>
+      <c r="AA30" s="118"/>
+      <c r="AB30" s="118"/>
+      <c r="AC30" s="118"/>
+      <c r="AD30" s="119"/>
+      <c r="AE30" s="113"/>
+      <c r="AF30" s="116"/>
+      <c r="AG30" s="116"/>
+      <c r="AH30" s="116"/>
+      <c r="AI30" s="114"/>
     </row>
     <row r="31" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="AD31" s="72"/>
-      <c r="AE31" s="61"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="63"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="108"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="112"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="113"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="117"/>
+      <c r="Q31" s="118"/>
+      <c r="R31" s="118"/>
+      <c r="S31" s="118"/>
+      <c r="T31" s="118"/>
+      <c r="U31" s="118"/>
+      <c r="V31" s="118"/>
+      <c r="W31" s="118"/>
+      <c r="X31" s="118"/>
+      <c r="Y31" s="118"/>
+      <c r="Z31" s="118"/>
+      <c r="AA31" s="118"/>
+      <c r="AB31" s="118"/>
+      <c r="AC31" s="118"/>
+      <c r="AD31" s="119"/>
+      <c r="AE31" s="113"/>
+      <c r="AF31" s="116"/>
+      <c r="AG31" s="116"/>
+      <c r="AH31" s="116"/>
+      <c r="AI31" s="114"/>
     </row>
     <row r="32" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
-      <c r="W32" s="71"/>
-      <c r="X32" s="71"/>
-      <c r="Y32" s="71"/>
-      <c r="Z32" s="71"/>
-      <c r="AA32" s="71"/>
-      <c r="AB32" s="71"/>
-      <c r="AC32" s="71"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="61"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="63"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="114"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="118"/>
+      <c r="S32" s="118"/>
+      <c r="T32" s="118"/>
+      <c r="U32" s="118"/>
+      <c r="V32" s="118"/>
+      <c r="W32" s="118"/>
+      <c r="X32" s="118"/>
+      <c r="Y32" s="118"/>
+      <c r="Z32" s="118"/>
+      <c r="AA32" s="118"/>
+      <c r="AB32" s="118"/>
+      <c r="AC32" s="118"/>
+      <c r="AD32" s="119"/>
+      <c r="AE32" s="113"/>
+      <c r="AF32" s="116"/>
+      <c r="AG32" s="116"/>
+      <c r="AH32" s="116"/>
+      <c r="AI32" s="114"/>
     </row>
     <row r="33" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="63"/>
-      <c r="P33" s="70"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="63"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="113"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="114"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="118"/>
+      <c r="R33" s="118"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
+      <c r="W33" s="118"/>
+      <c r="X33" s="118"/>
+      <c r="Y33" s="118"/>
+      <c r="Z33" s="118"/>
+      <c r="AA33" s="118"/>
+      <c r="AB33" s="118"/>
+      <c r="AC33" s="118"/>
+      <c r="AD33" s="119"/>
+      <c r="AE33" s="113"/>
+      <c r="AF33" s="116"/>
+      <c r="AG33" s="116"/>
+      <c r="AH33" s="116"/>
+      <c r="AI33" s="114"/>
     </row>
     <row r="34" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="65"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="63"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="AD34" s="72"/>
-      <c r="AE34" s="61"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="63"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="113"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="114"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="118"/>
+      <c r="R34" s="118"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="118"/>
+      <c r="W34" s="118"/>
+      <c r="X34" s="118"/>
+      <c r="Y34" s="118"/>
+      <c r="Z34" s="118"/>
+      <c r="AA34" s="118"/>
+      <c r="AB34" s="118"/>
+      <c r="AC34" s="118"/>
+      <c r="AD34" s="119"/>
+      <c r="AE34" s="113"/>
+      <c r="AF34" s="116"/>
+      <c r="AG34" s="116"/>
+      <c r="AH34" s="116"/>
+      <c r="AI34" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="202">
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="Q2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:AD8"/>
-    <mergeCell ref="AE7:AI8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="AE33:AI33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="P34:AD34"/>
+    <mergeCell ref="AE34:AI34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="P33:AD33"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:AD31"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:AD29"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:AD27"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:AD25"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:AD23"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:AD21"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:AD19"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:AD17"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:AD15"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:AD13"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:AD11"/>
     <mergeCell ref="AE9:AI9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
@@ -8371,174 +8798,26 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="L9:O9"/>
     <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:AD13"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:AD15"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:AD17"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:AD19"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:AD21"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:AD23"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:AD25"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:AD27"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:AD29"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:AD32"/>
-    <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:AD31"/>
-    <mergeCell ref="AE33:AI33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="P34:AD34"/>
-    <mergeCell ref="AE34:AI34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="P33:AD33"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:AD8"/>
+    <mergeCell ref="AE7:AI8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="Q2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -8551,7 +8830,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL134"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -8571,53 +8850,53 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="122" t="str">
+      <c r="E1" s="61" t="str">
         <f>IF(変更履歴!E1&lt;&gt;"",変更履歴!E1,"")</f>
         <v>XXXプロジェクト</v>
       </c>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="123"/>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
-      <c r="M1" s="123"/>
-      <c r="N1" s="124"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="63"/>
       <c r="O1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="21"/>
-      <c r="Q1" s="125" t="str">
+      <c r="Q1" s="64" t="str">
         <f>IF(変更履歴!Q1&lt;&gt;"",変更履歴!Q1,"")</f>
         <v>要件定義</v>
       </c>
-      <c r="R1" s="126"/>
-      <c r="S1" s="126"/>
-      <c r="T1" s="126"/>
-      <c r="U1" s="126"/>
-      <c r="V1" s="126"/>
-      <c r="W1" s="126"/>
-      <c r="X1" s="127"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="66"/>
       <c r="Y1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="128" t="str">
+      <c r="AA1" s="67" t="str">
         <f>IF(変更履歴!AA1&lt;&gt;"",変更履歴!AA1,"")</f>
         <v/>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="130"/>
-      <c r="AF1" s="140" t="str">
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="79" t="str">
         <f>IF(変更履歴!AF1&lt;&gt;"",変更履歴!AF1,"")</f>
         <v/>
       </c>
-      <c r="AG1" s="141"/>
-      <c r="AH1" s="141"/>
-      <c r="AI1" s="142"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="81"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="24"/>
@@ -8629,19 +8908,19 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="122" t="str">
+      <c r="E2" s="61" t="str">
         <f>IF(変更履歴!E2&lt;&gt;"",変更履歴!E2,"")</f>
         <v/>
       </c>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="124"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="63"/>
       <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
@@ -8661,21 +8940,21 @@
         <v>8</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="128" t="str">
+      <c r="AA2" s="67" t="str">
         <f>IF(変更履歴!AA2&lt;&gt;"",変更履歴!AA2,"")</f>
         <v/>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="130"/>
-      <c r="AF2" s="140" t="str">
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="79" t="str">
         <f>IF(変更履歴!AF2&lt;&gt;"",変更履歴!AF2,"")</f>
         <v/>
       </c>
-      <c r="AG2" s="141"/>
-      <c r="AH2" s="141"/>
-      <c r="AI2" s="142"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
+      <c r="AI2" s="81"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -8687,19 +8966,19 @@
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="122" t="str">
+      <c r="E3" s="61" t="str">
         <f>IF(変更履歴!E3&lt;&gt;"",変更履歴!E3,"")</f>
         <v/>
       </c>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="124"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="63"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="152"/>
@@ -8712,15 +8991,15 @@
       <c r="X3" s="154"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="128"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="129"/>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="130"/>
-      <c r="AF3" s="146"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="85"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+      <c r="AI3" s="87"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -8759,345 +9038,1456 @@
     </row>
     <row r="11" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="D11" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="46" t="s">
-        <v>27</v>
-      </c>
+      <c r="B12" s="51"/>
+      <c r="D12" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
     </row>
     <row r="13" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="48"/>
-      <c r="B13" s="52"/>
+      <c r="B13" s="51"/>
       <c r="D13" s="46" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
     </row>
-    <row r="14" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="48"/>
-      <c r="D14" s="45" t="s">
-        <v>29</v>
+      <c r="B14" s="51"/>
+      <c r="D14" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
     </row>
     <row r="15" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
+      <c r="D15" s="46" t="s">
+        <v>60</v>
+      </c>
       <c r="O15" s="49"/>
       <c r="P15" s="49"/>
     </row>
-    <row r="16" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="45" t="s">
+    <row r="16" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="48"/>
+    </row>
+    <row r="17" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="48"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="48"/>
+      <c r="B18" s="52"/>
+      <c r="D18" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+    </row>
+    <row r="19" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="48"/>
+      <c r="B19" s="52"/>
+      <c r="E19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+    </row>
+    <row r="20" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="48"/>
+      <c r="B20" s="52"/>
+      <c r="E20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+    </row>
+    <row r="21" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="48"/>
+      <c r="B21" s="52"/>
+      <c r="E21" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+    </row>
+    <row r="22" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="48"/>
+      <c r="B22" s="52"/>
+      <c r="E22" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+    </row>
+    <row r="23" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="48"/>
+      <c r="B23" s="52"/>
+      <c r="E23" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+    </row>
+    <row r="24" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="48"/>
+      <c r="B24" s="52"/>
+      <c r="E24" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+    </row>
+    <row r="25" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="E25" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+    </row>
+    <row r="26" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="48"/>
+      <c r="B26" s="52"/>
+      <c r="E26" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+    </row>
+    <row r="27" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="48"/>
+      <c r="B27" s="52"/>
+      <c r="E27" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+    </row>
+    <row r="28" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="48"/>
+      <c r="B28" s="52"/>
+      <c r="E28" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+    </row>
+    <row r="29" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="48"/>
+      <c r="B29" s="52"/>
+      <c r="E29" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+    </row>
+    <row r="30" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="48"/>
+      <c r="B30" s="52"/>
+      <c r="E30" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+    </row>
+    <row r="31" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="48"/>
+      <c r="B31" s="52"/>
+      <c r="E31" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31" s="49"/>
+      <c r="P31" s="49"/>
+    </row>
+    <row r="32" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="48"/>
+      <c r="D32" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" s="49"/>
+    </row>
+    <row r="33" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="48"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="O33" s="49"/>
+    </row>
+    <row r="34" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="48"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="O34" s="49"/>
+    </row>
+    <row r="35" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" s="49"/>
+    </row>
+    <row r="36" spans="1:24" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="48"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="49"/>
+    </row>
+    <row r="37" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-    </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45" t="s">
+      <c r="D37" s="45"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="49"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+    </row>
+    <row r="38" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="53"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-    </row>
-    <row r="18" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45" t="s">
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+    </row>
+    <row r="39" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="53"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+    </row>
+    <row r="40" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="53"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+    </row>
+    <row r="41" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="53"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="55"/>
+    </row>
+    <row r="42" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="53"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+    </row>
+    <row r="43" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="53"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55"/>
+    </row>
+    <row r="44" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="53"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+    </row>
+    <row r="45" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="53"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="55"/>
+    </row>
+    <row r="46" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="53"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-    </row>
-    <row r="19" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-    </row>
-    <row r="20" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49" t="s">
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+    </row>
+    <row r="47" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="53"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+    </row>
+    <row r="48" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="53"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+    </row>
+    <row r="49" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="53"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+    </row>
+    <row r="50" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="53"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="55"/>
+      <c r="R50" s="55"/>
+      <c r="S50" s="55"/>
+      <c r="T50" s="55"/>
+      <c r="U50" s="55"/>
+      <c r="V50" s="55"/>
+      <c r="W50" s="55"/>
+      <c r="X50" s="55"/>
+    </row>
+    <row r="51" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="53"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="55"/>
+      <c r="R51" s="55"/>
+      <c r="S51" s="55"/>
+      <c r="T51" s="55"/>
+      <c r="U51" s="55"/>
+      <c r="V51" s="55"/>
+      <c r="W51" s="55"/>
+      <c r="X51" s="55"/>
+    </row>
+    <row r="52" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="53"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-    </row>
-    <row r="21" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46" t="s">
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+    </row>
+    <row r="53" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="57"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-    </row>
-    <row r="22" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="46"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="58"/>
-      <c r="C23" s="59" t="s">
+      <c r="E53" s="49"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+      <c r="X53" s="45"/>
+    </row>
+    <row r="54" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="57"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" s="46"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+    </row>
+    <row r="55" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="57"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="46"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+    </row>
+    <row r="56" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="57"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="46"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="45"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="45"/>
+      <c r="W56" s="45"/>
+      <c r="X56" s="45"/>
+    </row>
+    <row r="57" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="57"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G57" s="46"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="45"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45"/>
+      <c r="W57" s="45"/>
+      <c r="X57" s="45"/>
+    </row>
+    <row r="58" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="57"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="46"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="45"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="45"/>
+      <c r="X58" s="45"/>
+    </row>
+    <row r="59" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="57"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" s="46"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="45"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+    </row>
+    <row r="60" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="57"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" s="46"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="45"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="45"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+      <c r="P60" s="45"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="45"/>
+      <c r="U60" s="45"/>
+      <c r="V60" s="45"/>
+      <c r="W60" s="45"/>
+      <c r="X60" s="45"/>
+    </row>
+    <row r="61" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="57"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="49"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="45"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+      <c r="P61" s="45"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="45"/>
+      <c r="U61" s="45"/>
+      <c r="V61" s="45"/>
+      <c r="W61" s="45"/>
+      <c r="X61" s="45"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A62" s="58"/>
+      <c r="C62" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="46" t="s">
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="46" t="s">
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A64" s="58"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="58"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="58"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="58"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="60"/>
-      <c r="D26" s="46" t="s">
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="58"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="58"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="58"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="58"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="58"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="60"/>
+      <c r="D74" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="60"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="60"/>
-      <c r="C28" s="46" t="s">
+      <c r="F74" s="46"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="60"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="46"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="60"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F76" s="46"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="60"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F77" s="46"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="60"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" s="46"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="60"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="46"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="60"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F80" s="46"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="60"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81" s="46"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A82" s="60"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="46"/>
+      <c r="N82" s="49"/>
+      <c r="O82" s="49"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83" s="60"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="49"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A84" s="60"/>
+      <c r="C84" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="49"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="60"/>
-      <c r="D29" s="46" t="s">
+      <c r="O84" s="49"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A85" s="60"/>
+      <c r="D85" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="60"/>
-      <c r="D30" s="55" t="s">
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" s="60"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" s="60"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A88" s="60"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A89" s="60"/>
+      <c r="D89" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="60"/>
-      <c r="D31" s="55" t="s">
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A90" s="60"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A91" s="60"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A92" s="60"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A93" s="60"/>
+      <c r="D93" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="60"/>
-      <c r="D32" s="55" t="s">
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A94" s="60"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A95" s="60"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A96" s="60"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A97" s="60"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A98" s="60"/>
+      <c r="D98" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="58"/>
-      <c r="D33" s="45" t="s">
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A99" s="60"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A100" s="60"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A101" s="60"/>
+      <c r="D101" s="55"/>
+      <c r="E101" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="N101" s="49"/>
+      <c r="O101" s="49"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A102" s="60"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="N102" s="49"/>
+      <c r="O102" s="49"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A103" s="58"/>
+      <c r="D103" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="60"/>
-      <c r="D34" s="45" t="s">
+      <c r="N103" s="49"/>
+      <c r="O103" s="49"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A104" s="58"/>
+      <c r="E104" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="N104" s="49"/>
+      <c r="O104" s="49"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A105" s="58"/>
+      <c r="E105" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="N105" s="49"/>
+      <c r="O105" s="49"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A106" s="58"/>
+      <c r="E106" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="N106" s="49"/>
+      <c r="O106" s="49"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A107" s="60"/>
+      <c r="D107" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="60"/>
-      <c r="D35" s="45" t="s">
+      <c r="N107" s="49"/>
+      <c r="O107" s="49"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A108" s="60"/>
+      <c r="E108" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="N108" s="49"/>
+      <c r="O108" s="49"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A109" s="60"/>
+      <c r="E109" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="N109" s="49"/>
+      <c r="O109" s="49"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A110" s="60"/>
+      <c r="D110" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="60"/>
-      <c r="D36" s="45" t="s">
+      <c r="N110" s="49"/>
+      <c r="O110" s="49"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A111" s="60"/>
+      <c r="E111" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="N111" s="49"/>
+      <c r="O111" s="49"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A112" s="60"/>
+      <c r="E112" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="N112" s="49"/>
+      <c r="O112" s="49"/>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A113" s="60"/>
+      <c r="D113" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="60"/>
-      <c r="D37" s="45" t="s">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A114" s="60"/>
+      <c r="E114" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A115" s="60"/>
+      <c r="E115" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A116" s="60"/>
+      <c r="E116" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A117" s="60"/>
+      <c r="D117" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="60"/>
-      <c r="D38" s="45" t="s">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A118" s="60"/>
+      <c r="E118" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A119" s="60"/>
+      <c r="E119" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A120" s="60"/>
+      <c r="E120" s="45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A121" s="60"/>
+      <c r="D121" s="45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="60"/>
-      <c r="D39" s="45" t="s">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A122" s="60"/>
+      <c r="E122" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A123" s="60"/>
+      <c r="E123" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A124" s="60"/>
+      <c r="D124" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D40" s="45" t="s">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A125" s="60"/>
+      <c r="E125" s="45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A126" s="60"/>
+      <c r="E126" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D127" s="45" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41" s="58"/>
-      <c r="D41" s="45" t="s">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A128" s="58"/>
+      <c r="D128" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
+      <c r="O128" s="49"/>
+      <c r="P128" s="49"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E129" s="45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E130" s="45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E131" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E132" s="45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E133" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E134" s="45" t="s">
+        <v>148</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9119,5 +10509,10 @@
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddFooter>&amp;LCopyright(c) 2016 TIS Inc.</oddFooter>
   </headerFooter>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="36" max="34" man="1"/>
+    <brk id="83" max="34" man="1"/>
+    <brk id="106" max="34" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEDBAA0-ADBF-4AFA-B92B-57B6EF710F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE691F8B-75B4-4B16-903D-330768DE78FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_Toc77519345" localSheetId="2">目次!#REF!</definedName>
     <definedName name="_Toc77519346" localSheetId="2">目次!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$135</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$134</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
   <si>
     <t>PJ名</t>
   </si>
@@ -338,33 +338,6 @@
     <t>3.1.4.オートコンプリート</t>
   </si>
   <si>
-    <t>3.1.5.戻る遷移制御</t>
-  </si>
-  <si>
-    <t>3.1.6.二重サブミット防止</t>
-  </si>
-  <si>
-    <t>3.1.7.データの保持</t>
-  </si>
-  <si>
-    <t>3.1.8.開閉局</t>
-  </si>
-  <si>
-    <t>3.1.9.エラー処理</t>
-  </si>
-  <si>
-    <t>3.1.10.URL設計</t>
-  </si>
-  <si>
-    <t>3.1.11.コンテンツ更新</t>
-  </si>
-  <si>
-    <t>3.1.12.ウィルス対策</t>
-  </si>
-  <si>
-    <t>3.1.13.複数ウィンドウ/タブの同時操作時の挙動</t>
-  </si>
-  <si>
     <t>3.2.1.非同期処理方式概要</t>
   </si>
   <si>
@@ -588,6 +561,30 @@
   </si>
   <si>
     <t>7.13.6.シェルスクリプトのログ</t>
+  </si>
+  <si>
+    <t>3.1.5.二重サブミット防止</t>
+  </si>
+  <si>
+    <t>3.1.6.データの保持</t>
+  </si>
+  <si>
+    <t>3.1.7.開閉局</t>
+  </si>
+  <si>
+    <t>3.1.8.エラー処理</t>
+  </si>
+  <si>
+    <t>3.1.9.URL設計</t>
+  </si>
+  <si>
+    <t>3.1.10.コンテンツ更新</t>
+  </si>
+  <si>
+    <t>3.1.11.ウィルス対策</t>
+  </si>
+  <si>
+    <t>3.1.12.複数ウィンドウ/タブの同時操作時の挙動</t>
   </si>
 </sst>
 </file>
@@ -3967,6 +3964,189 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4047,189 +4227,6 @@
     </xf>
     <xf numFmtId="177" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7383,45 +7380,45 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="21"/>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127"/>
       <c r="Y1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="72"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
+      <c r="AI1" s="133"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -7435,43 +7432,43 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="27"/>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="75"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="136"/>
       <c r="Y2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -7485,37 +7482,37 @@
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="139"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -7549,1073 +7546,1261 @@
       <c r="AI6" s="38"/>
     </row>
     <row r="7" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="90" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="90" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="96" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="90" t="s">
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90" t="s">
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="91"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="111"/>
     </row>
     <row r="8" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="99" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="99" t="s">
+      <c r="K8" s="120"/>
+      <c r="L8" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="93"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="115"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="115"/>
+      <c r="AI8" s="113"/>
     </row>
     <row r="9" spans="1:40" s="41" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122" t="s">
+      <c r="C9" s="95"/>
+      <c r="D9" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="125" t="s">
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="131" t="s">
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="133"/>
-      <c r="AE9" s="102" t="s">
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="104"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
     <row r="10" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="43"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="114"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="63"/>
     </row>
     <row r="11" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="43"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="118"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="114"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="63"/>
     </row>
     <row r="12" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="143"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="82"/>
     </row>
     <row r="13" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="43"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="114"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="63"/>
     </row>
     <row r="14" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="43"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="114"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63"/>
     </row>
     <row r="15" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="43"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="114"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="63"/>
     </row>
     <row r="16" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="43"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="114"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="63"/>
     </row>
     <row r="17" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="43"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="114"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="63"/>
     </row>
     <row r="18" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="43"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="114"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="63"/>
     </row>
     <row r="19" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="43"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="114"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="63"/>
     </row>
     <row r="20" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="43"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="114"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="63"/>
     </row>
     <row r="21" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-      <c r="AI21" s="114"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="63"/>
     </row>
     <row r="22" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="116"/>
-      <c r="AI22" s="114"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="63"/>
     </row>
     <row r="23" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="43"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="114"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="63"/>
     </row>
     <row r="24" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="43"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="114"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="63"/>
     </row>
     <row r="25" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="116"/>
-      <c r="AI25" s="114"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="63"/>
     </row>
     <row r="26" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="113"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="114"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="63"/>
     </row>
     <row r="27" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="113"/>
-      <c r="AF27" s="116"/>
-      <c r="AG27" s="116"/>
-      <c r="AH27" s="116"/>
-      <c r="AI27" s="114"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="63"/>
     </row>
     <row r="28" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="118"/>
-      <c r="AD28" s="119"/>
-      <c r="AE28" s="113"/>
-      <c r="AF28" s="116"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="116"/>
-      <c r="AI28" s="114"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="63"/>
     </row>
     <row r="29" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="118"/>
-      <c r="AB29" s="118"/>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="119"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="114"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="63"/>
     </row>
     <row r="30" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="118"/>
-      <c r="X30" s="118"/>
-      <c r="Y30" s="118"/>
-      <c r="Z30" s="118"/>
-      <c r="AA30" s="118"/>
-      <c r="AB30" s="118"/>
-      <c r="AC30" s="118"/>
-      <c r="AD30" s="119"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="116"/>
-      <c r="AI30" s="114"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="63"/>
     </row>
     <row r="31" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="118"/>
-      <c r="AB31" s="118"/>
-      <c r="AC31" s="118"/>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="116"/>
-      <c r="AG31" s="116"/>
-      <c r="AH31" s="116"/>
-      <c r="AI31" s="114"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="63"/>
     </row>
     <row r="32" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="118"/>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="114"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="63"/>
     </row>
     <row r="33" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="118"/>
-      <c r="AB33" s="118"/>
-      <c r="AC33" s="118"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="116"/>
-      <c r="AI33" s="114"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="63"/>
     </row>
     <row r="34" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="118"/>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="119"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="116"/>
-      <c r="AI34" s="114"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="62"/>
+      <c r="AI34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="Q2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:AD8"/>
+    <mergeCell ref="AE7:AI8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:AD13"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:AD15"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:AD17"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:AD19"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:AD21"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:AD23"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:AD25"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:AD27"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:AD29"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:AD31"/>
     <mergeCell ref="AE33:AI33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
@@ -8630,194 +8815,6 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="P33:AD33"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:AD32"/>
-    <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:AD31"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:AD29"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:AD27"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:AD25"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:AD23"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:AD21"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:AD19"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:AD17"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:AD15"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:AD13"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:AD8"/>
-    <mergeCell ref="AE7:AI8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="Q2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -8830,7 +8827,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL134"/>
+  <dimension ref="A1:AL133"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -8850,53 +8847,53 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="61" t="str">
+      <c r="E1" s="122" t="str">
         <f>IF(変更履歴!E1&lt;&gt;"",変更履歴!E1,"")</f>
         <v>XXXプロジェクト</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="21"/>
-      <c r="Q1" s="64" t="str">
+      <c r="Q1" s="125" t="str">
         <f>IF(変更履歴!Q1&lt;&gt;"",変更履歴!Q1,"")</f>
         <v>要件定義</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127"/>
       <c r="Y1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="67" t="str">
+      <c r="AA1" s="128" t="str">
         <f>IF(変更履歴!AA1&lt;&gt;"",変更履歴!AA1,"")</f>
         <v/>
       </c>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="79" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="140" t="str">
         <f>IF(変更履歴!AF1&lt;&gt;"",変更履歴!AF1,"")</f>
         <v/>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="142"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="24"/>
@@ -8908,19 +8905,19 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="61" t="str">
+      <c r="E2" s="122" t="str">
         <f>IF(変更履歴!E2&lt;&gt;"",変更履歴!E2,"")</f>
         <v/>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
@@ -8940,21 +8937,21 @@
         <v>8</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="67" t="str">
+      <c r="AA2" s="128" t="str">
         <f>IF(変更履歴!AA2&lt;&gt;"",変更履歴!AA2,"")</f>
         <v/>
       </c>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="79" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="140" t="str">
         <f>IF(変更履歴!AF2&lt;&gt;"",変更履歴!AF2,"")</f>
         <v/>
       </c>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -8966,19 +8963,19 @@
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="61" t="str">
+      <c r="E3" s="122" t="str">
         <f>IF(変更履歴!E3&lt;&gt;"",変更履歴!E3,"")</f>
         <v/>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="152"/>
@@ -8991,15 +8988,15 @@
       <c r="X3" s="154"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -9140,7 +9137,7 @@
       <c r="A23" s="48"/>
       <c r="B23" s="52"/>
       <c r="E23" s="46" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="O23" s="49"/>
       <c r="P23" s="49"/>
@@ -9149,7 +9146,7 @@
       <c r="A24" s="48"/>
       <c r="B24" s="52"/>
       <c r="E24" s="46" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="O24" s="49"/>
       <c r="P24" s="49"/>
@@ -9158,7 +9155,7 @@
       <c r="A25" s="48"/>
       <c r="B25" s="52"/>
       <c r="E25" s="46" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="O25" s="49"/>
       <c r="P25" s="49"/>
@@ -9167,7 +9164,7 @@
       <c r="A26" s="48"/>
       <c r="B26" s="52"/>
       <c r="E26" s="46" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="O26" s="49"/>
       <c r="P26" s="49"/>
@@ -9176,7 +9173,7 @@
       <c r="A27" s="48"/>
       <c r="B27" s="52"/>
       <c r="E27" s="46" t="s">
-        <v>69</v>
+        <v>144</v>
       </c>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
@@ -9185,7 +9182,7 @@
       <c r="A28" s="48"/>
       <c r="B28" s="52"/>
       <c r="E28" s="46" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
@@ -9194,7 +9191,7 @@
       <c r="A29" s="48"/>
       <c r="B29" s="52"/>
       <c r="E29" s="46" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
@@ -9203,24 +9200,23 @@
       <c r="A30" s="48"/>
       <c r="B30" s="52"/>
       <c r="E30" s="46" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="O30" s="49"/>
       <c r="P30" s="49"/>
     </row>
-    <row r="31" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="48"/>
-      <c r="B31" s="52"/>
-      <c r="E31" s="46" t="s">
-        <v>73</v>
+      <c r="D31" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
     </row>
     <row r="32" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="48"/>
-      <c r="D32" s="45" t="s">
-        <v>29</v>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46" t="s">
+        <v>65</v>
       </c>
       <c r="O32" s="49"/>
     </row>
@@ -9228,7 +9224,7 @@
       <c r="A33" s="48"/>
       <c r="D33" s="45"/>
       <c r="E33" s="46" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O33" s="49"/>
     </row>
@@ -9236,32 +9232,51 @@
       <c r="A34" s="48"/>
       <c r="D34" s="45"/>
       <c r="E34" s="46" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O34" s="49"/>
     </row>
-    <row r="35" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:24" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="48"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46" t="s">
-        <v>76</v>
-      </c>
       <c r="O35" s="49"/>
-    </row>
-    <row r="36" spans="1:24" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="48"/>
+      <c r="P35" s="49"/>
+    </row>
+    <row r="36" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="45"/>
       <c r="O36" s="49"/>
       <c r="P36" s="49"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
     </row>
     <row r="37" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="53"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="45"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="49"/>
       <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
+      <c r="P37" s="55"/>
       <c r="R37" s="55"/>
       <c r="S37" s="55"/>
       <c r="T37" s="55"/>
@@ -9274,10 +9289,10 @@
       <c r="A38" s="53"/>
       <c r="B38" s="52"/>
       <c r="C38" s="45"/>
-      <c r="D38" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="55"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="55" t="s">
+        <v>68</v>
+      </c>
       <c r="F38" s="55"/>
       <c r="G38" s="55"/>
       <c r="H38" s="55"/>
@@ -9303,7 +9318,7 @@
       <c r="C39" s="45"/>
       <c r="D39" s="45"/>
       <c r="E39" s="55" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F39" s="55"/>
       <c r="G39" s="55"/>
@@ -9330,7 +9345,7 @@
       <c r="C40" s="45"/>
       <c r="D40" s="45"/>
       <c r="E40" s="55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F40" s="55"/>
       <c r="G40" s="55"/>
@@ -9357,7 +9372,7 @@
       <c r="C41" s="45"/>
       <c r="D41" s="45"/>
       <c r="E41" s="55" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F41" s="55"/>
       <c r="G41" s="55"/>
@@ -9384,7 +9399,7 @@
       <c r="C42" s="45"/>
       <c r="D42" s="45"/>
       <c r="E42" s="55" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F42" s="55"/>
       <c r="G42" s="55"/>
@@ -9411,7 +9426,7 @@
       <c r="C43" s="45"/>
       <c r="D43" s="45"/>
       <c r="E43" s="55" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F43" s="55"/>
       <c r="G43" s="55"/>
@@ -9438,7 +9453,7 @@
       <c r="C44" s="45"/>
       <c r="D44" s="45"/>
       <c r="E44" s="55" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
@@ -9461,12 +9476,12 @@
     </row>
     <row r="45" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A45" s="53"/>
-      <c r="B45" s="52"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="55" t="s">
-        <v>83</v>
-      </c>
+      <c r="D45" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="55"/>
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
@@ -9490,10 +9505,10 @@
       <c r="A46" s="53"/>
       <c r="B46" s="56"/>
       <c r="C46" s="45"/>
-      <c r="D46" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="55"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="55" t="s">
+        <v>75</v>
+      </c>
       <c r="F46" s="55"/>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
@@ -9519,7 +9534,7 @@
       <c r="C47" s="45"/>
       <c r="D47" s="45"/>
       <c r="E47" s="55" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F47" s="55"/>
       <c r="G47" s="55"/>
@@ -9546,7 +9561,7 @@
       <c r="C48" s="45"/>
       <c r="D48" s="45"/>
       <c r="E48" s="55" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F48" s="55"/>
       <c r="G48" s="55"/>
@@ -9573,7 +9588,7 @@
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
       <c r="E49" s="55" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F49" s="55"/>
       <c r="G49" s="55"/>
@@ -9599,9 +9614,7 @@
       <c r="B50" s="56"/>
       <c r="C50" s="45"/>
       <c r="D50" s="45"/>
-      <c r="E50" s="55" t="s">
-        <v>87</v>
-      </c>
+      <c r="E50" s="55"/>
       <c r="F50" s="55"/>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
@@ -9621,39 +9634,40 @@
       <c r="W50" s="55"/>
       <c r="X50" s="55"/>
     </row>
-    <row r="51" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="53"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="45"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="55"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="55"/>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="49"/>
+      <c r="E51" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
       <c r="N51" s="49"/>
       <c r="O51" s="49"/>
-      <c r="P51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="55"/>
-      <c r="V51" s="55"/>
-      <c r="W51" s="55"/>
-      <c r="X51" s="55"/>
+      <c r="P51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
     </row>
     <row r="52" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="53"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="46"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="46"/>
+      <c r="D52" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="49"/>
       <c r="G52" s="46"/>
       <c r="H52" s="45"/>
       <c r="I52" s="45"/>
@@ -9676,10 +9690,10 @@
       <c r="A53" s="57"/>
       <c r="B53" s="46"/>
       <c r="C53" s="46"/>
-      <c r="D53" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="49"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46" t="s">
+        <v>79</v>
+      </c>
       <c r="G53" s="46"/>
       <c r="H53" s="45"/>
       <c r="I53" s="45"/>
@@ -9704,7 +9718,7 @@
       <c r="C54" s="46"/>
       <c r="D54" s="46"/>
       <c r="E54" s="46" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G54" s="46"/>
       <c r="H54" s="45"/>
@@ -9730,7 +9744,7 @@
       <c r="C55" s="46"/>
       <c r="D55" s="46"/>
       <c r="E55" s="46" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G55" s="46"/>
       <c r="H55" s="45"/>
@@ -9756,7 +9770,7 @@
       <c r="C56" s="46"/>
       <c r="D56" s="46"/>
       <c r="E56" s="46" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G56" s="46"/>
       <c r="H56" s="45"/>
@@ -9782,7 +9796,7 @@
       <c r="C57" s="46"/>
       <c r="D57" s="46"/>
       <c r="E57" s="46" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G57" s="46"/>
       <c r="H57" s="45"/>
@@ -9808,7 +9822,7 @@
       <c r="C58" s="46"/>
       <c r="D58" s="46"/>
       <c r="E58" s="46" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G58" s="46"/>
       <c r="H58" s="45"/>
@@ -9834,7 +9848,7 @@
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
       <c r="E59" s="46" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G59" s="46"/>
       <c r="H59" s="45"/>
@@ -9859,9 +9873,7 @@
       <c r="B60" s="46"/>
       <c r="C60" s="46"/>
       <c r="D60" s="46"/>
-      <c r="E60" s="46" t="s">
-        <v>94</v>
-      </c>
+      <c r="E60" s="49"/>
       <c r="G60" s="46"/>
       <c r="H60" s="45"/>
       <c r="I60" s="45"/>
@@ -9880,34 +9892,19 @@
       <c r="W60" s="45"/>
       <c r="X60" s="45"/>
     </row>
-    <row r="61" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
-      <c r="B61" s="46"/>
-      <c r="C61" s="46"/>
-      <c r="D61" s="46"/>
-      <c r="E61" s="49"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A61" s="58"/>
+      <c r="C61" s="59" t="s">
+        <v>35</v>
+      </c>
       <c r="N61" s="49"/>
       <c r="O61" s="49"/>
-      <c r="P61" s="45"/>
-      <c r="R61" s="45"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="45"/>
-      <c r="U61" s="45"/>
-      <c r="V61" s="45"/>
-      <c r="W61" s="45"/>
-      <c r="X61" s="45"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A62" s="58"/>
-      <c r="C62" s="59" t="s">
-        <v>35</v>
+      <c r="C62" s="59"/>
+      <c r="D62" s="46" t="s">
+        <v>36</v>
       </c>
       <c r="N62" s="49"/>
       <c r="O62" s="49"/>
@@ -9915,8 +9912,9 @@
     <row r="63" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A63" s="58"/>
       <c r="C63" s="59"/>
-      <c r="D63" s="46" t="s">
-        <v>36</v>
+      <c r="D63" s="46"/>
+      <c r="E63" s="45" t="s">
+        <v>86</v>
       </c>
       <c r="N63" s="49"/>
       <c r="O63" s="49"/>
@@ -9926,7 +9924,7 @@
       <c r="C64" s="59"/>
       <c r="D64" s="46"/>
       <c r="E64" s="45" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="N64" s="49"/>
       <c r="O64" s="49"/>
@@ -9936,7 +9934,7 @@
       <c r="C65" s="59"/>
       <c r="D65" s="46"/>
       <c r="E65" s="45" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N65" s="49"/>
       <c r="O65" s="49"/>
@@ -9944,9 +9942,8 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="58"/>
       <c r="C66" s="59"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="45" t="s">
-        <v>97</v>
+      <c r="D66" s="46" t="s">
+        <v>37</v>
       </c>
       <c r="N66" s="49"/>
       <c r="O66" s="49"/>
@@ -9954,8 +9951,9 @@
     <row r="67" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A67" s="58"/>
       <c r="C67" s="59"/>
-      <c r="D67" s="46" t="s">
-        <v>37</v>
+      <c r="D67" s="46"/>
+      <c r="E67" s="45" t="s">
+        <v>89</v>
       </c>
       <c r="N67" s="49"/>
       <c r="O67" s="49"/>
@@ -9965,7 +9963,7 @@
       <c r="C68" s="59"/>
       <c r="D68" s="46"/>
       <c r="E68" s="45" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="N68" s="49"/>
       <c r="O68" s="49"/>
@@ -9975,7 +9973,7 @@
       <c r="C69" s="59"/>
       <c r="D69" s="46"/>
       <c r="E69" s="45" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="N69" s="49"/>
       <c r="O69" s="49"/>
@@ -9985,7 +9983,7 @@
       <c r="C70" s="59"/>
       <c r="D70" s="46"/>
       <c r="E70" s="45" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="N70" s="49"/>
       <c r="O70" s="49"/>
@@ -9995,7 +9993,7 @@
       <c r="C71" s="59"/>
       <c r="D71" s="46"/>
       <c r="E71" s="45" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="N71" s="49"/>
       <c r="O71" s="49"/>
@@ -10005,25 +10003,25 @@
       <c r="C72" s="59"/>
       <c r="D72" s="46"/>
       <c r="E72" s="45" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="N72" s="49"/>
       <c r="O72" s="49"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A73" s="58"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="45" t="s">
-        <v>103</v>
-      </c>
+      <c r="A73" s="60"/>
+      <c r="D73" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" s="46"/>
       <c r="N73" s="49"/>
       <c r="O73" s="49"/>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74" s="60"/>
-      <c r="D74" s="46" t="s">
-        <v>38</v>
+      <c r="D74" s="46"/>
+      <c r="E74" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="F74" s="46"/>
       <c r="N74" s="49"/>
@@ -10033,7 +10031,7 @@
       <c r="A75" s="60"/>
       <c r="D75" s="46"/>
       <c r="E75" s="45" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F75" s="46"/>
       <c r="N75" s="49"/>
@@ -10043,7 +10041,7 @@
       <c r="A76" s="60"/>
       <c r="D76" s="46"/>
       <c r="E76" s="45" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F76" s="46"/>
       <c r="N76" s="49"/>
@@ -10053,7 +10051,7 @@
       <c r="A77" s="60"/>
       <c r="D77" s="46"/>
       <c r="E77" s="45" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F77" s="46"/>
       <c r="N77" s="49"/>
@@ -10063,7 +10061,7 @@
       <c r="A78" s="60"/>
       <c r="D78" s="46"/>
       <c r="E78" s="45" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F78" s="46"/>
       <c r="N78" s="49"/>
@@ -10073,7 +10071,7 @@
       <c r="A79" s="60"/>
       <c r="D79" s="46"/>
       <c r="E79" s="45" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F79" s="46"/>
       <c r="N79" s="49"/>
@@ -10083,7 +10081,7 @@
       <c r="A80" s="60"/>
       <c r="D80" s="46"/>
       <c r="E80" s="45" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F80" s="46"/>
       <c r="N80" s="49"/>
@@ -10093,7 +10091,7 @@
       <c r="A81" s="60"/>
       <c r="D81" s="46"/>
       <c r="E81" s="45" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F81" s="46"/>
       <c r="N81" s="49"/>
@@ -10101,33 +10099,32 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="60"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="F82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="49"/>
+      <c r="E82" s="49"/>
       <c r="N82" s="49"/>
       <c r="O82" s="49"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="60"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="49"/>
-      <c r="E83" s="49"/>
-      <c r="N83" s="49"/>
+      <c r="C83" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="O83" s="49"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="60"/>
-      <c r="C84" s="46" t="s">
-        <v>39</v>
-      </c>
+      <c r="D84" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N84" s="49"/>
       <c r="O84" s="49"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85" s="60"/>
-      <c r="D85" s="46" t="s">
-        <v>40</v>
+      <c r="D85" s="46"/>
+      <c r="E85" s="45" t="s">
+        <v>103</v>
       </c>
       <c r="N85" s="49"/>
       <c r="O85" s="49"/>
@@ -10136,7 +10133,7 @@
       <c r="A86" s="60"/>
       <c r="D86" s="46"/>
       <c r="E86" s="45" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="N86" s="49"/>
       <c r="O86" s="49"/>
@@ -10145,24 +10142,24 @@
       <c r="A87" s="60"/>
       <c r="D87" s="46"/>
       <c r="E87" s="45" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="N87" s="49"/>
       <c r="O87" s="49"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="60"/>
-      <c r="D88" s="46"/>
-      <c r="E88" s="45" t="s">
-        <v>114</v>
+      <c r="D88" s="55" t="s">
+        <v>41</v>
       </c>
       <c r="N88" s="49"/>
       <c r="O88" s="49"/>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89" s="60"/>
-      <c r="D89" s="55" t="s">
-        <v>41</v>
+      <c r="D89" s="55"/>
+      <c r="E89" s="45" t="s">
+        <v>106</v>
       </c>
       <c r="N89" s="49"/>
       <c r="O89" s="49"/>
@@ -10171,7 +10168,7 @@
       <c r="A90" s="60"/>
       <c r="D90" s="55"/>
       <c r="E90" s="45" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="N90" s="49"/>
       <c r="O90" s="49"/>
@@ -10180,24 +10177,24 @@
       <c r="A91" s="60"/>
       <c r="D91" s="55"/>
       <c r="E91" s="45" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="N91" s="49"/>
       <c r="O91" s="49"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="60"/>
-      <c r="D92" s="55"/>
-      <c r="E92" s="45" t="s">
-        <v>117</v>
+      <c r="D92" s="55" t="s">
+        <v>42</v>
       </c>
       <c r="N92" s="49"/>
       <c r="O92" s="49"/>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93" s="60"/>
-      <c r="D93" s="55" t="s">
-        <v>42</v>
+      <c r="D93" s="55"/>
+      <c r="E93" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="N93" s="49"/>
       <c r="O93" s="49"/>
@@ -10206,7 +10203,7 @@
       <c r="A94" s="60"/>
       <c r="D94" s="55"/>
       <c r="E94" s="45" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="N94" s="49"/>
       <c r="O94" s="49"/>
@@ -10215,7 +10212,7 @@
       <c r="A95" s="60"/>
       <c r="D95" s="55"/>
       <c r="E95" s="45" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="N95" s="49"/>
       <c r="O95" s="49"/>
@@ -10224,24 +10221,24 @@
       <c r="A96" s="60"/>
       <c r="D96" s="55"/>
       <c r="E96" s="45" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="N96" s="49"/>
       <c r="O96" s="49"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="60"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="45" t="s">
-        <v>121</v>
+      <c r="D97" s="55" t="s">
+        <v>43</v>
       </c>
       <c r="N97" s="49"/>
       <c r="O97" s="49"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98" s="60"/>
-      <c r="D98" s="55" t="s">
-        <v>43</v>
+      <c r="D98" s="55"/>
+      <c r="E98" s="45" t="s">
+        <v>113</v>
       </c>
       <c r="N98" s="49"/>
       <c r="O98" s="49"/>
@@ -10250,7 +10247,7 @@
       <c r="A99" s="60"/>
       <c r="D99" s="55"/>
       <c r="E99" s="45" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N99" s="49"/>
       <c r="O99" s="49"/>
@@ -10259,7 +10256,7 @@
       <c r="A100" s="60"/>
       <c r="D100" s="55"/>
       <c r="E100" s="45" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="N100" s="49"/>
       <c r="O100" s="49"/>
@@ -10268,24 +10265,23 @@
       <c r="A101" s="60"/>
       <c r="D101" s="55"/>
       <c r="E101" s="45" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N101" s="49"/>
       <c r="O101" s="49"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A102" s="60"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="45" t="s">
-        <v>125</v>
+      <c r="A102" s="58"/>
+      <c r="D102" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="N102" s="49"/>
       <c r="O102" s="49"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103" s="58"/>
-      <c r="D103" s="45" t="s">
-        <v>44</v>
+      <c r="E103" s="45" t="s">
+        <v>117</v>
       </c>
       <c r="N103" s="49"/>
       <c r="O103" s="49"/>
@@ -10293,7 +10289,7 @@
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104" s="58"/>
       <c r="E104" s="45" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N104" s="49"/>
       <c r="O104" s="49"/>
@@ -10301,23 +10297,23 @@
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105" s="58"/>
       <c r="E105" s="45" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A106" s="58"/>
-      <c r="E106" s="45" t="s">
-        <v>128</v>
+      <c r="A106" s="60"/>
+      <c r="D106" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="N106" s="49"/>
       <c r="O106" s="49"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107" s="60"/>
-      <c r="D107" s="45" t="s">
-        <v>45</v>
+      <c r="E107" s="45" t="s">
+        <v>120</v>
       </c>
       <c r="N107" s="49"/>
       <c r="O107" s="49"/>
@@ -10325,23 +10321,23 @@
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="60"/>
       <c r="E108" s="45" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="N108" s="49"/>
       <c r="O108" s="49"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="60"/>
-      <c r="E109" s="45" t="s">
-        <v>130</v>
+      <c r="D109" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="N109" s="49"/>
       <c r="O109" s="49"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110" s="60"/>
-      <c r="D110" s="45" t="s">
-        <v>46</v>
+      <c r="E110" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="N110" s="49"/>
       <c r="O110" s="49"/>
@@ -10349,144 +10345,136 @@
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="60"/>
       <c r="E111" s="45" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="N111" s="49"/>
       <c r="O111" s="49"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="60"/>
-      <c r="E112" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="N112" s="49"/>
-      <c r="O112" s="49"/>
+      <c r="D112" s="45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A113" s="60"/>
-      <c r="D113" s="45" t="s">
-        <v>47</v>
+      <c r="E113" s="45" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A114" s="60"/>
       <c r="E114" s="45" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="60"/>
       <c r="E115" s="45" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A116" s="60"/>
-      <c r="E116" s="45" t="s">
-        <v>135</v>
+      <c r="D116" s="45" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A117" s="60"/>
-      <c r="D117" s="45" t="s">
-        <v>48</v>
+      <c r="E117" s="45" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A118" s="60"/>
       <c r="E118" s="45" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="60"/>
       <c r="E119" s="45" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A120" s="60"/>
-      <c r="E120" s="45" t="s">
-        <v>138</v>
+      <c r="D120" s="45" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A121" s="60"/>
-      <c r="D121" s="45" t="s">
-        <v>49</v>
+      <c r="E121" s="45" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A122" s="60"/>
       <c r="E122" s="45" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A123" s="60"/>
-      <c r="E123" s="45" t="s">
-        <v>140</v>
+      <c r="D123" s="45" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A124" s="60"/>
-      <c r="D124" s="45" t="s">
-        <v>50</v>
+      <c r="E124" s="45" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A125" s="60"/>
       <c r="E125" s="45" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A126" s="60"/>
-      <c r="E126" s="45" t="s">
-        <v>142</v>
+      <c r="D126" s="45" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A127" s="58"/>
       <c r="D127" s="45" t="s">
-        <v>55</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="O127" s="49"/>
+      <c r="P127" s="49"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A128" s="58"/>
-      <c r="D128" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="O128" s="49"/>
-      <c r="P128" s="49"/>
+      <c r="E128" s="45" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="129" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E129" s="45" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="130" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E130" s="45" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="131" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E131" s="45" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E132" s="45" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="133" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E133" s="45" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E134" s="45" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -10510,9 +10498,9 @@
     <oddFooter>&amp;LCopyright(c) 2016 TIS Inc.</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="36" max="34" man="1"/>
-    <brk id="83" max="34" man="1"/>
-    <brk id="106" max="34" man="1"/>
+    <brk id="35" max="34" man="1"/>
+    <brk id="82" max="34" man="1"/>
+    <brk id="105" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE691F8B-75B4-4B16-903D-330768DE78FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2756DE6B-18B7-4112-ADE0-36B6D20A0998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <definedName name="_Toc77519345" localSheetId="2">目次!#REF!</definedName>
     <definedName name="_Toc77519346" localSheetId="2">目次!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$134</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$133</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="147">
   <si>
     <t>PJ名</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>2.4.ソフトウェアのバージョン</t>
-  </si>
-  <si>
-    <t>2.5.エラー処理概要</t>
   </si>
   <si>
     <t>3.1.1.処理方式概要</t>
@@ -8827,7 +8824,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL133"/>
+  <dimension ref="A1:AL132"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -9071,28 +9068,28 @@
     </row>
     <row r="15" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
-      <c r="B15" s="51"/>
-      <c r="D15" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
     </row>
     <row r="16" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="48"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="46" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="17" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="48"/>
       <c r="B17" s="52"/>
-      <c r="C17" s="46" t="s">
-        <v>27</v>
-      </c>
+      <c r="D17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="48"/>
       <c r="B18" s="52"/>
-      <c r="D18" s="46" t="s">
-        <v>28</v>
+      <c r="E18" s="46" t="s">
+        <v>60</v>
       </c>
       <c r="O18" s="49"/>
       <c r="P18" s="49"/>
@@ -9128,7 +9125,7 @@
       <c r="A22" s="48"/>
       <c r="B22" s="52"/>
       <c r="E22" s="46" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="O22" s="49"/>
       <c r="P22" s="49"/>
@@ -9196,19 +9193,18 @@
       <c r="O29" s="49"/>
       <c r="P29" s="49"/>
     </row>
-    <row r="30" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="48"/>
-      <c r="B30" s="52"/>
-      <c r="E30" s="46" t="s">
-        <v>147</v>
+      <c r="D30" s="45" t="s">
+        <v>29</v>
       </c>
       <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="48"/>
-      <c r="D31" s="45" t="s">
-        <v>29</v>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46" t="s">
+        <v>64</v>
       </c>
       <c r="O31" s="49"/>
     </row>
@@ -9228,28 +9224,47 @@
       </c>
       <c r="O33" s="49"/>
     </row>
-    <row r="34" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:24" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="48"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46" t="s">
-        <v>67</v>
-      </c>
       <c r="O34" s="49"/>
-    </row>
-    <row r="35" spans="1:24" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="48"/>
+      <c r="P34" s="49"/>
+    </row>
+    <row r="35" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="53"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="45"/>
       <c r="O35" s="49"/>
       <c r="P35" s="49"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
     </row>
     <row r="36" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="53"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="45"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="49"/>
       <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
+      <c r="P36" s="55"/>
       <c r="R36" s="55"/>
       <c r="S36" s="55"/>
       <c r="T36" s="55"/>
@@ -9262,10 +9277,10 @@
       <c r="A37" s="53"/>
       <c r="B37" s="52"/>
       <c r="C37" s="45"/>
-      <c r="D37" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="55"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="55" t="s">
+        <v>67</v>
+      </c>
       <c r="F37" s="55"/>
       <c r="G37" s="55"/>
       <c r="H37" s="55"/>
@@ -9449,12 +9464,12 @@
     </row>
     <row r="44" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="53"/>
-      <c r="B44" s="52"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="45"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="55" t="s">
-        <v>74</v>
-      </c>
+      <c r="D44" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="55"/>
       <c r="F44" s="55"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
@@ -9478,10 +9493,10 @@
       <c r="A45" s="53"/>
       <c r="B45" s="56"/>
       <c r="C45" s="45"/>
-      <c r="D45" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="55"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="55" t="s">
+        <v>74</v>
+      </c>
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
@@ -9587,9 +9602,7 @@
       <c r="B49" s="56"/>
       <c r="C49" s="45"/>
       <c r="D49" s="45"/>
-      <c r="E49" s="55" t="s">
-        <v>78</v>
-      </c>
+      <c r="E49" s="55"/>
       <c r="F49" s="55"/>
       <c r="G49" s="55"/>
       <c r="H49" s="55"/>
@@ -9609,39 +9622,40 @@
       <c r="W49" s="55"/>
       <c r="X49" s="55"/>
     </row>
-    <row r="50" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A50" s="53"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="45"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
       <c r="N50" s="49"/>
       <c r="O50" s="49"/>
-      <c r="P50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="55"/>
-      <c r="V50" s="55"/>
-      <c r="W50" s="55"/>
-      <c r="X50" s="55"/>
+      <c r="P50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
     </row>
     <row r="51" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="53"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="46"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F51" s="46"/>
+      <c r="D51" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="49"/>
       <c r="G51" s="46"/>
       <c r="H51" s="45"/>
       <c r="I51" s="45"/>
@@ -9664,10 +9678,10 @@
       <c r="A52" s="57"/>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
-      <c r="D52" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="49"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46" t="s">
+        <v>78</v>
+      </c>
       <c r="G52" s="46"/>
       <c r="H52" s="45"/>
       <c r="I52" s="45"/>
@@ -9847,9 +9861,7 @@
       <c r="B59" s="46"/>
       <c r="C59" s="46"/>
       <c r="D59" s="46"/>
-      <c r="E59" s="46" t="s">
-        <v>85</v>
-      </c>
+      <c r="E59" s="49"/>
       <c r="G59" s="46"/>
       <c r="H59" s="45"/>
       <c r="I59" s="45"/>
@@ -9868,34 +9880,19 @@
       <c r="W59" s="45"/>
       <c r="X59" s="45"/>
     </row>
-    <row r="60" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
-      <c r="B60" s="46"/>
-      <c r="C60" s="46"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="49"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="45"/>
-      <c r="I60" s="45"/>
-      <c r="J60" s="45"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="45"/>
-      <c r="M60" s="45"/>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A60" s="58"/>
+      <c r="C60" s="59" t="s">
+        <v>35</v>
+      </c>
       <c r="N60" s="49"/>
       <c r="O60" s="49"/>
-      <c r="P60" s="45"/>
-      <c r="R60" s="45"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="45"/>
-      <c r="U60" s="45"/>
-      <c r="V60" s="45"/>
-      <c r="W60" s="45"/>
-      <c r="X60" s="45"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A61" s="58"/>
-      <c r="C61" s="59" t="s">
-        <v>35</v>
+      <c r="C61" s="59"/>
+      <c r="D61" s="46" t="s">
+        <v>36</v>
       </c>
       <c r="N61" s="49"/>
       <c r="O61" s="49"/>
@@ -9903,8 +9900,9 @@
     <row r="62" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A62" s="58"/>
       <c r="C62" s="59"/>
-      <c r="D62" s="46" t="s">
-        <v>36</v>
+      <c r="D62" s="46"/>
+      <c r="E62" s="45" t="s">
+        <v>85</v>
       </c>
       <c r="N62" s="49"/>
       <c r="O62" s="49"/>
@@ -9932,9 +9930,8 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="58"/>
       <c r="C65" s="59"/>
-      <c r="D65" s="46"/>
-      <c r="E65" s="45" t="s">
-        <v>88</v>
+      <c r="D65" s="46" t="s">
+        <v>37</v>
       </c>
       <c r="N65" s="49"/>
       <c r="O65" s="49"/>
@@ -9942,8 +9939,9 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="58"/>
       <c r="C66" s="59"/>
-      <c r="D66" s="46" t="s">
-        <v>37</v>
+      <c r="D66" s="46"/>
+      <c r="E66" s="45" t="s">
+        <v>88</v>
       </c>
       <c r="N66" s="49"/>
       <c r="O66" s="49"/>
@@ -9999,19 +9997,19 @@
       <c r="O71" s="49"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A72" s="58"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="46"/>
-      <c r="E72" s="45" t="s">
-        <v>94</v>
-      </c>
+      <c r="A72" s="60"/>
+      <c r="D72" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" s="46"/>
       <c r="N72" s="49"/>
       <c r="O72" s="49"/>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A73" s="60"/>
-      <c r="D73" s="46" t="s">
-        <v>38</v>
+      <c r="D73" s="46"/>
+      <c r="E73" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="F73" s="46"/>
       <c r="N73" s="49"/>
@@ -10089,33 +10087,32 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81" s="60"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="F81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
       <c r="N81" s="49"/>
       <c r="O81" s="49"/>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82" s="60"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="49"/>
-      <c r="E82" s="49"/>
-      <c r="N82" s="49"/>
+      <c r="C82" s="46" t="s">
+        <v>39</v>
+      </c>
       <c r="O82" s="49"/>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83" s="60"/>
-      <c r="C83" s="46" t="s">
-        <v>39</v>
-      </c>
+      <c r="D83" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="N83" s="49"/>
       <c r="O83" s="49"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84" s="60"/>
-      <c r="D84" s="46" t="s">
-        <v>40</v>
+      <c r="D84" s="46"/>
+      <c r="E84" s="45" t="s">
+        <v>102</v>
       </c>
       <c r="N84" s="49"/>
       <c r="O84" s="49"/>
@@ -10140,17 +10137,17 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87" s="60"/>
-      <c r="D87" s="46"/>
-      <c r="E87" s="45" t="s">
-        <v>105</v>
+      <c r="D87" s="55" t="s">
+        <v>41</v>
       </c>
       <c r="N87" s="49"/>
       <c r="O87" s="49"/>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88" s="60"/>
-      <c r="D88" s="55" t="s">
-        <v>41</v>
+      <c r="D88" s="55"/>
+      <c r="E88" s="45" t="s">
+        <v>105</v>
       </c>
       <c r="N88" s="49"/>
       <c r="O88" s="49"/>
@@ -10175,17 +10172,17 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91" s="60"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="45" t="s">
-        <v>108</v>
+      <c r="D91" s="55" t="s">
+        <v>42</v>
       </c>
       <c r="N91" s="49"/>
       <c r="O91" s="49"/>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92" s="60"/>
-      <c r="D92" s="55" t="s">
-        <v>42</v>
+      <c r="D92" s="55"/>
+      <c r="E92" s="45" t="s">
+        <v>108</v>
       </c>
       <c r="N92" s="49"/>
       <c r="O92" s="49"/>
@@ -10219,17 +10216,17 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96" s="60"/>
-      <c r="D96" s="55"/>
-      <c r="E96" s="45" t="s">
-        <v>112</v>
+      <c r="D96" s="55" t="s">
+        <v>43</v>
       </c>
       <c r="N96" s="49"/>
       <c r="O96" s="49"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97" s="60"/>
-      <c r="D97" s="55" t="s">
-        <v>43</v>
+      <c r="D97" s="55"/>
+      <c r="E97" s="45" t="s">
+        <v>112</v>
       </c>
       <c r="N97" s="49"/>
       <c r="O97" s="49"/>
@@ -10262,18 +10259,17 @@
       <c r="O100" s="49"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A101" s="60"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="45" t="s">
-        <v>116</v>
+      <c r="A101" s="58"/>
+      <c r="D101" s="45" t="s">
+        <v>44</v>
       </c>
       <c r="N101" s="49"/>
       <c r="O101" s="49"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102" s="58"/>
-      <c r="D102" s="45" t="s">
-        <v>44</v>
+      <c r="E102" s="45" t="s">
+        <v>116</v>
       </c>
       <c r="N102" s="49"/>
       <c r="O102" s="49"/>
@@ -10295,17 +10291,17 @@
       <c r="O104" s="49"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A105" s="58"/>
-      <c r="E105" s="45" t="s">
-        <v>119</v>
+      <c r="A105" s="60"/>
+      <c r="D105" s="45" t="s">
+        <v>45</v>
       </c>
       <c r="N105" s="49"/>
       <c r="O105" s="49"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106" s="60"/>
-      <c r="D106" s="45" t="s">
-        <v>45</v>
+      <c r="E106" s="45" t="s">
+        <v>119</v>
       </c>
       <c r="N106" s="49"/>
       <c r="O106" s="49"/>
@@ -10320,16 +10316,16 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108" s="60"/>
-      <c r="E108" s="45" t="s">
-        <v>121</v>
+      <c r="D108" s="45" t="s">
+        <v>46</v>
       </c>
       <c r="N108" s="49"/>
       <c r="O108" s="49"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109" s="60"/>
-      <c r="D109" s="45" t="s">
-        <v>46</v>
+      <c r="E109" s="45" t="s">
+        <v>121</v>
       </c>
       <c r="N109" s="49"/>
       <c r="O109" s="49"/>
@@ -10344,16 +10340,14 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111" s="60"/>
-      <c r="E111" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="N111" s="49"/>
-      <c r="O111" s="49"/>
+      <c r="D111" s="45" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112" s="60"/>
-      <c r="D112" s="45" t="s">
-        <v>47</v>
+      <c r="E112" s="45" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.15">
@@ -10370,14 +10364,14 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A115" s="60"/>
-      <c r="E115" s="45" t="s">
-        <v>126</v>
+      <c r="D115" s="45" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A116" s="60"/>
-      <c r="D116" s="45" t="s">
-        <v>48</v>
+      <c r="E116" s="45" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.15">
@@ -10394,14 +10388,14 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A119" s="60"/>
-      <c r="E119" s="45" t="s">
-        <v>129</v>
+      <c r="D119" s="45" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A120" s="60"/>
-      <c r="D120" s="45" t="s">
-        <v>49</v>
+      <c r="E120" s="45" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.15">
@@ -10412,14 +10406,14 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A122" s="60"/>
-      <c r="E122" s="45" t="s">
-        <v>131</v>
+      <c r="D122" s="45" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A123" s="60"/>
-      <c r="D123" s="45" t="s">
-        <v>50</v>
+      <c r="E123" s="45" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.15">
@@ -10429,23 +10423,22 @@
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A125" s="60"/>
-      <c r="E125" s="45" t="s">
+      <c r="D125" s="45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A126" s="58"/>
+      <c r="D126" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="O126" s="49"/>
+      <c r="P126" s="49"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E127" s="45" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D126" s="45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A127" s="58"/>
-      <c r="D127" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="O127" s="49"/>
-      <c r="P127" s="49"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.15">
       <c r="E128" s="45" t="s">
@@ -10470,11 +10463,6 @@
     <row r="132" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E132" s="45" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E133" s="45" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -10498,9 +10486,9 @@
     <oddFooter>&amp;LCopyright(c) 2016 TIS Inc.</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="35" max="34" man="1"/>
-    <brk id="82" max="34" man="1"/>
-    <brk id="105" max="34" man="1"/>
+    <brk id="34" max="34" man="1"/>
+    <brk id="81" max="34" man="1"/>
+    <brk id="104" max="34" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
+++ b/nablarch_sample/アプリケーション方式設計書_0表紙.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B58A3-7DB1-41FC-9148-DB89AD8C22DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2756DE6B-18B7-4112-ADE0-36B6D20A0998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="345" windowWidth="21555" windowHeight="11775" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="683" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="19" r:id="rId1"/>
@@ -18,15 +18,26 @@
     <definedName name="_Toc77519345" localSheetId="2">目次!#REF!</definedName>
     <definedName name="_Toc77519346" localSheetId="2">目次!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$38</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$133</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="147">
   <si>
     <t>PJ名</t>
   </si>
@@ -266,9 +277,6 @@
   </si>
   <si>
     <t>7.11.暗号化・ハッシュ化</t>
-  </si>
-  <si>
-    <t>7.12.分散処理方式</t>
   </si>
   <si>
     <t>7.13.ログ</t>
@@ -294,6 +302,286 @@
   <si>
     <t>第1.0版</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>7.12.負荷分散</t>
+    <rPh sb="5" eb="9">
+      <t>フカブンサン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2.1.アプリケーション全体図</t>
+  </si>
+  <si>
+    <t>2.2.ソフトウェア構成</t>
+  </si>
+  <si>
+    <t>2.3.アプリケーション・アーキテクチャ</t>
+  </si>
+  <si>
+    <t>2.4.ソフトウェアのバージョン</t>
+  </si>
+  <si>
+    <t>3.1.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>3.1.2.HTTPメソッドの使い分け</t>
+  </si>
+  <si>
+    <t>3.1.3.ブラウザキャッシュ制御</t>
+  </si>
+  <si>
+    <t>3.1.4.オートコンプリート</t>
+  </si>
+  <si>
+    <t>3.2.1.非同期処理方式概要</t>
+  </si>
+  <si>
+    <t>3.2.2.非同期処理方式詳細</t>
+  </si>
+  <si>
+    <t>3.2.3.非同期処理のエラー時対応</t>
+  </si>
+  <si>
+    <t>4.1.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>4.1.2.処理制御</t>
+  </si>
+  <si>
+    <t>4.1.3.基本的な処理シーケンス</t>
+  </si>
+  <si>
+    <t>4.1.4.コミット間隔</t>
+  </si>
+  <si>
+    <t>4.1.5.0件データ処理</t>
+  </si>
+  <si>
+    <t>4.1.6.処理済みデータの設定</t>
+  </si>
+  <si>
+    <t>4.1.7.エラー処理</t>
+  </si>
+  <si>
+    <t>4.2.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>4.2.2.処理制御</t>
+  </si>
+  <si>
+    <t>4.2.3.コミット間隔</t>
+  </si>
+  <si>
+    <t>4.2.4.エラー処理</t>
+  </si>
+  <si>
+    <t>5.1.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>5.1.2.処理フロー</t>
+  </si>
+  <si>
+    <t>5.1.3.基本構造・責務配置</t>
+  </si>
+  <si>
+    <t>5.1.4.開閉局</t>
+  </si>
+  <si>
+    <t>5.1.5.入力値精査</t>
+  </si>
+  <si>
+    <t>5.1.6.エラー処理</t>
+  </si>
+  <si>
+    <t>5.1.7.リカバリ方法</t>
+  </si>
+  <si>
+    <t>6.1.1.メッセージ仕向け（HTTP/HTTPS）の機能概要</t>
+  </si>
+  <si>
+    <t>6.1.2.メッセージ仕向け（HTTP/HTTPS）の方法</t>
+  </si>
+  <si>
+    <t>6.1.3.メッセージ仕向け（HTTP/HTTPS）機能詳細</t>
+  </si>
+  <si>
+    <t>6.2.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>6.2.2.処理フロー</t>
+  </si>
+  <si>
+    <t>6.2.3.基本構造・責務配置</t>
+  </si>
+  <si>
+    <t>6.2.4.開閉局</t>
+  </si>
+  <si>
+    <t>6.2.5.エラー処理</t>
+  </si>
+  <si>
+    <t>6.2.6.リカバリ方法</t>
+  </si>
+  <si>
+    <t>6.3.1.処理方式概要</t>
+  </si>
+  <si>
+    <t>6.3.2.メール送信方式</t>
+  </si>
+  <si>
+    <t>6.3.3.メールテンプレート</t>
+  </si>
+  <si>
+    <t>6.3.4.メールフォーマット</t>
+  </si>
+  <si>
+    <t>6.3.5.エラー処理</t>
+  </si>
+  <si>
+    <t>6.3.6.文字コード</t>
+  </si>
+  <si>
+    <t>6.3.7.送信履歴</t>
+  </si>
+  <si>
+    <t>6.3.8.メール送信のパターン</t>
+  </si>
+  <si>
+    <t>7.1.1.  入力値精査処理方式の選択</t>
+  </si>
+  <si>
+    <t>7.1.2.  入力値精査の種類と対象</t>
+  </si>
+  <si>
+    <t>7.1.2.  単項目精査、項目間精査およびFormで完結しない精査の実現方式</t>
+  </si>
+  <si>
+    <t>7.2.1.基本方針</t>
+  </si>
+  <si>
+    <t>7.2.2.システムで使用する文字コード</t>
+  </si>
+  <si>
+    <t>7.2.3.文字コード変換方式</t>
+  </si>
+  <si>
+    <t>7.3.1.コネクション</t>
+  </si>
+  <si>
+    <t>7.3.2.データベース接続</t>
+  </si>
+  <si>
+    <t>7.3.3.SQL文の生成</t>
+  </si>
+  <si>
+    <t>7.3.4.トランザクション制御</t>
+  </si>
+  <si>
+    <t>7.4.1.ファイルアクセス処理概要</t>
+  </si>
+  <si>
+    <t>7.4.2.データ入出力</t>
+  </si>
+  <si>
+    <t>7.4.3.ファイルクリーニング</t>
+  </si>
+  <si>
+    <t>7.4.4.クリーニングジョブ</t>
+  </si>
+  <si>
+    <t>7.5.1.認証</t>
+  </si>
+  <si>
+    <t>7.5.2.認可</t>
+  </si>
+  <si>
+    <t>7.5.3.認証・認可の管理運用</t>
+  </si>
+  <si>
+    <t>7.6.1.基本方針</t>
+  </si>
+  <si>
+    <t>7.6.2.メッセージのロード方式</t>
+  </si>
+  <si>
+    <t>7.7.1.基本方針</t>
+  </si>
+  <si>
+    <t>7.7.2.コードのロード方式</t>
+  </si>
+  <si>
+    <t>7.8.1.基本方針</t>
+  </si>
+  <si>
+    <t>7.8.2.値のリセット方法</t>
+  </si>
+  <si>
+    <t>7.8.3.採番処理の実装方針</t>
+  </si>
+  <si>
+    <t>7.9.1.基本概念</t>
+  </si>
+  <si>
+    <t>7.9.2.業務日付</t>
+  </si>
+  <si>
+    <t>7.9.3.システム日時</t>
+  </si>
+  <si>
+    <t>7.10.1.ファイル管理概要</t>
+  </si>
+  <si>
+    <t>7.10.2.ファイル管理詳細</t>
+  </si>
+  <si>
+    <t>7.11.1.暗号化</t>
+  </si>
+  <si>
+    <t>7.11.2.項目暗号化</t>
+  </si>
+  <si>
+    <t>7.13.1.ログ定義</t>
+  </si>
+  <si>
+    <t>7.13.2.各処理方式のログ</t>
+  </si>
+  <si>
+    <t>7.13.3.ログの種類ごとのフォーマット</t>
+  </si>
+  <si>
+    <t>7.13.4.ログファイルごとのフォーマット</t>
+  </si>
+  <si>
+    <t>7.13.5.エラー通知</t>
+  </si>
+  <si>
+    <t>7.13.6.シェルスクリプトのログ</t>
+  </si>
+  <si>
+    <t>3.1.5.二重サブミット防止</t>
+  </si>
+  <si>
+    <t>3.1.6.データの保持</t>
+  </si>
+  <si>
+    <t>3.1.7.開閉局</t>
+  </si>
+  <si>
+    <t>3.1.8.エラー処理</t>
+  </si>
+  <si>
+    <t>3.1.9.URL設計</t>
+  </si>
+  <si>
+    <t>3.1.10.コンテンツ更新</t>
+  </si>
+  <si>
+    <t>3.1.11.ウィルス対策</t>
+  </si>
+  <si>
+    <t>3.1.12.複数ウィンドウ/タブの同時操作時の挙動</t>
   </si>
 </sst>
 </file>
@@ -3673,6 +3961,189 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3753,189 +4224,6 @@
     </xf>
     <xf numFmtId="177" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="44" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="44" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="48" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="51" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="23" xfId="559" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -6013,7 +6301,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
@@ -6089,7 +6377,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -7089,45 +7377,45 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="21"/>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="125" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127"/>
       <c r="Y1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="72"/>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="131"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
+      <c r="AI1" s="133"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="23"/>
@@ -7141,43 +7429,43 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="27"/>
-      <c r="Q2" s="73" t="s">
+      <c r="Q2" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="75"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="136"/>
       <c r="Y2" s="20" t="s">
         <v>8</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="79"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -7191,37 +7479,37 @@
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="84"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="145"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="77"/>
-      <c r="S3" s="77"/>
-      <c r="T3" s="77"/>
-      <c r="U3" s="77"/>
-      <c r="V3" s="77"/>
-      <c r="W3" s="77"/>
-      <c r="X3" s="78"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="139"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -7255,1073 +7543,1261 @@
       <c r="AI6" s="38"/>
     </row>
     <row r="7" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="90" t="s">
+      <c r="C7" s="111"/>
+      <c r="D7" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="90" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="94"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="96" t="s">
+      <c r="H7" s="114"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="90" t="s">
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="118"/>
+      <c r="P7" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90" t="s">
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="111"/>
+      <c r="AE7" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="94"/>
-      <c r="AI7" s="91"/>
+      <c r="AF7" s="114"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="111"/>
     </row>
     <row r="8" spans="1:40" s="41" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="89"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="95"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="99" t="s">
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="119" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="99" t="s">
+      <c r="K8" s="120"/>
+      <c r="L8" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="101"/>
-      <c r="P8" s="92"/>
-      <c r="Q8" s="95"/>
-      <c r="R8" s="95"/>
-      <c r="S8" s="95"/>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="95"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="95"/>
-      <c r="AA8" s="95"/>
-      <c r="AB8" s="95"/>
-      <c r="AC8" s="95"/>
-      <c r="AD8" s="93"/>
-      <c r="AE8" s="92"/>
-      <c r="AF8" s="95"/>
-      <c r="AG8" s="95"/>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="93"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
+      <c r="U8" s="115"/>
+      <c r="V8" s="115"/>
+      <c r="W8" s="115"/>
+      <c r="X8" s="115"/>
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="115"/>
+      <c r="AA8" s="115"/>
+      <c r="AB8" s="115"/>
+      <c r="AC8" s="115"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="115"/>
+      <c r="AG8" s="115"/>
+      <c r="AH8" s="115"/>
+      <c r="AI8" s="113"/>
     </row>
     <row r="9" spans="1:40" s="41" customFormat="1" ht="12" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42">
         <v>1</v>
       </c>
-      <c r="B9" s="120" t="s">
+      <c r="B9" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="121"/>
-      <c r="D9" s="122" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="123"/>
-      <c r="F9" s="124"/>
-      <c r="G9" s="125" t="s">
+      <c r="C9" s="95"/>
+      <c r="D9" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="97"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="128"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="128"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
-      <c r="O9" s="129"/>
-      <c r="P9" s="131" t="s">
+      <c r="H9" s="100"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-      <c r="AB9" s="132"/>
-      <c r="AC9" s="132"/>
-      <c r="AD9" s="133"/>
-      <c r="AE9" s="102" t="s">
+      <c r="Q9" s="106"/>
+      <c r="R9" s="106"/>
+      <c r="S9" s="106"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="106"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="106"/>
+      <c r="AA9" s="106"/>
+      <c r="AB9" s="106"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="107"/>
+      <c r="AE9" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="AF9" s="103"/>
-      <c r="AG9" s="103"/>
-      <c r="AH9" s="103"/>
-      <c r="AI9" s="104"/>
+      <c r="AF9" s="92"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
     <row r="10" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="43"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="116"/>
-      <c r="N10" s="116"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="117"/>
-      <c r="Q10" s="118"/>
-      <c r="R10" s="118"/>
-      <c r="S10" s="118"/>
-      <c r="T10" s="118"/>
-      <c r="U10" s="118"/>
-      <c r="V10" s="118"/>
-      <c r="W10" s="118"/>
-      <c r="X10" s="118"/>
-      <c r="Y10" s="118"/>
-      <c r="Z10" s="118"/>
-      <c r="AA10" s="118"/>
-      <c r="AB10" s="118"/>
-      <c r="AC10" s="118"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="113"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="116"/>
-      <c r="AH10" s="116"/>
-      <c r="AI10" s="114"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="72"/>
+      <c r="AE10" s="61"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="63"/>
     </row>
     <row r="11" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="43"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="117"/>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="118"/>
-      <c r="T11" s="118"/>
-      <c r="U11" s="118"/>
-      <c r="V11" s="118"/>
-      <c r="W11" s="118"/>
-      <c r="X11" s="118"/>
-      <c r="Y11" s="118"/>
-      <c r="Z11" s="118"/>
-      <c r="AA11" s="118"/>
-      <c r="AB11" s="118"/>
-      <c r="AC11" s="118"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="116"/>
-      <c r="AH11" s="116"/>
-      <c r="AI11" s="114"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="62"/>
+      <c r="AG11" s="62"/>
+      <c r="AH11" s="62"/>
+      <c r="AI11" s="63"/>
     </row>
     <row r="12" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="44"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="135"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="142"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="143"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="85"/>
+      <c r="Q12" s="86"/>
+      <c r="R12" s="86"/>
+      <c r="S12" s="86"/>
+      <c r="T12" s="86"/>
+      <c r="U12" s="86"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+      <c r="X12" s="86"/>
+      <c r="Y12" s="86"/>
+      <c r="Z12" s="86"/>
+      <c r="AA12" s="86"/>
+      <c r="AB12" s="86"/>
+      <c r="AC12" s="86"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="81"/>
+      <c r="AF12" s="84"/>
+      <c r="AG12" s="84"/>
+      <c r="AH12" s="84"/>
+      <c r="AI12" s="82"/>
     </row>
     <row r="13" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="43"/>
-      <c r="B13" s="110"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="117"/>
-      <c r="Q13" s="118"/>
-      <c r="R13" s="118"/>
-      <c r="S13" s="118"/>
-      <c r="T13" s="118"/>
-      <c r="U13" s="118"/>
-      <c r="V13" s="118"/>
-      <c r="W13" s="118"/>
-      <c r="X13" s="118"/>
-      <c r="Y13" s="118"/>
-      <c r="Z13" s="118"/>
-      <c r="AA13" s="118"/>
-      <c r="AB13" s="118"/>
-      <c r="AC13" s="118"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="113"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="116"/>
-      <c r="AH13" s="116"/>
-      <c r="AI13" s="114"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="71"/>
+      <c r="T13" s="71"/>
+      <c r="U13" s="71"/>
+      <c r="V13" s="71"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="71"/>
+      <c r="Y13" s="71"/>
+      <c r="Z13" s="71"/>
+      <c r="AA13" s="71"/>
+      <c r="AB13" s="71"/>
+      <c r="AC13" s="71"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="63"/>
     </row>
     <row r="14" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="43"/>
-      <c r="B14" s="110"/>
-      <c r="C14" s="112"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="116"/>
-      <c r="N14" s="116"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="118"/>
-      <c r="R14" s="118"/>
-      <c r="S14" s="118"/>
-      <c r="T14" s="118"/>
-      <c r="U14" s="118"/>
-      <c r="V14" s="118"/>
-      <c r="W14" s="118"/>
-      <c r="X14" s="118"/>
-      <c r="Y14" s="118"/>
-      <c r="Z14" s="118"/>
-      <c r="AA14" s="118"/>
-      <c r="AB14" s="118"/>
-      <c r="AC14" s="118"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="113"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="116"/>
-      <c r="AH14" s="116"/>
-      <c r="AI14" s="114"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="63"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="63"/>
     </row>
     <row r="15" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="43"/>
-      <c r="B15" s="110"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="116"/>
-      <c r="N15" s="116"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="118"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="118"/>
-      <c r="T15" s="118"/>
-      <c r="U15" s="118"/>
-      <c r="V15" s="118"/>
-      <c r="W15" s="118"/>
-      <c r="X15" s="118"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="118"/>
-      <c r="AA15" s="118"/>
-      <c r="AB15" s="118"/>
-      <c r="AC15" s="118"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="113"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="116"/>
-      <c r="AH15" s="116"/>
-      <c r="AI15" s="114"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="72"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="62"/>
+      <c r="AG15" s="62"/>
+      <c r="AH15" s="62"/>
+      <c r="AI15" s="63"/>
     </row>
     <row r="16" spans="1:40" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="43"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="112"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="118"/>
-      <c r="R16" s="118"/>
-      <c r="S16" s="118"/>
-      <c r="T16" s="118"/>
-      <c r="U16" s="118"/>
-      <c r="V16" s="118"/>
-      <c r="W16" s="118"/>
-      <c r="X16" s="118"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="113"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="114"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="62"/>
+      <c r="AG16" s="62"/>
+      <c r="AH16" s="62"/>
+      <c r="AI16" s="63"/>
     </row>
     <row r="17" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="43"/>
-      <c r="B17" s="110"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="116"/>
-      <c r="N17" s="116"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="117"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
-      <c r="T17" s="118"/>
-      <c r="U17" s="118"/>
-      <c r="V17" s="118"/>
-      <c r="W17" s="118"/>
-      <c r="X17" s="118"/>
-      <c r="Y17" s="118"/>
-      <c r="Z17" s="118"/>
-      <c r="AA17" s="118"/>
-      <c r="AB17" s="118"/>
-      <c r="AC17" s="118"/>
-      <c r="AD17" s="119"/>
-      <c r="AE17" s="113"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="116"/>
-      <c r="AH17" s="116"/>
-      <c r="AI17" s="114"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="71"/>
+      <c r="AC17" s="71"/>
+      <c r="AD17" s="72"/>
+      <c r="AE17" s="61"/>
+      <c r="AF17" s="62"/>
+      <c r="AG17" s="62"/>
+      <c r="AH17" s="62"/>
+      <c r="AI17" s="63"/>
     </row>
     <row r="18" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="43"/>
-      <c r="B18" s="110"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="116"/>
-      <c r="N18" s="116"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="117"/>
-      <c r="Q18" s="118"/>
-      <c r="R18" s="118"/>
-      <c r="S18" s="118"/>
-      <c r="T18" s="118"/>
-      <c r="U18" s="118"/>
-      <c r="V18" s="118"/>
-      <c r="W18" s="118"/>
-      <c r="X18" s="118"/>
-      <c r="Y18" s="118"/>
-      <c r="Z18" s="118"/>
-      <c r="AA18" s="118"/>
-      <c r="AB18" s="118"/>
-      <c r="AC18" s="118"/>
-      <c r="AD18" s="119"/>
-      <c r="AE18" s="113"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="116"/>
-      <c r="AH18" s="116"/>
-      <c r="AI18" s="114"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="63"/>
     </row>
     <row r="19" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="43"/>
-      <c r="B19" s="110"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="116"/>
-      <c r="N19" s="116"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="117"/>
-      <c r="Q19" s="118"/>
-      <c r="R19" s="118"/>
-      <c r="S19" s="118"/>
-      <c r="T19" s="118"/>
-      <c r="U19" s="118"/>
-      <c r="V19" s="118"/>
-      <c r="W19" s="118"/>
-      <c r="X19" s="118"/>
-      <c r="Y19" s="118"/>
-      <c r="Z19" s="118"/>
-      <c r="AA19" s="118"/>
-      <c r="AB19" s="118"/>
-      <c r="AC19" s="118"/>
-      <c r="AD19" s="119"/>
-      <c r="AE19" s="113"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="116"/>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="114"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="72"/>
+      <c r="AE19" s="61"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="63"/>
     </row>
     <row r="20" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="43"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="112"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="116"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="117"/>
-      <c r="Q20" s="118"/>
-      <c r="R20" s="118"/>
-      <c r="S20" s="118"/>
-      <c r="T20" s="118"/>
-      <c r="U20" s="118"/>
-      <c r="V20" s="118"/>
-      <c r="W20" s="118"/>
-      <c r="X20" s="118"/>
-      <c r="Y20" s="118"/>
-      <c r="Z20" s="118"/>
-      <c r="AA20" s="118"/>
-      <c r="AB20" s="118"/>
-      <c r="AC20" s="118"/>
-      <c r="AD20" s="119"/>
-      <c r="AE20" s="113"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="116"/>
-      <c r="AH20" s="116"/>
-      <c r="AI20" s="114"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="61"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="63"/>
     </row>
     <row r="21" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="43"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="112"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="117"/>
-      <c r="Q21" s="118"/>
-      <c r="R21" s="118"/>
-      <c r="S21" s="118"/>
-      <c r="T21" s="118"/>
-      <c r="U21" s="118"/>
-      <c r="V21" s="118"/>
-      <c r="W21" s="118"/>
-      <c r="X21" s="118"/>
-      <c r="Y21" s="118"/>
-      <c r="Z21" s="118"/>
-      <c r="AA21" s="118"/>
-      <c r="AB21" s="118"/>
-      <c r="AC21" s="118"/>
-      <c r="AD21" s="119"/>
-      <c r="AE21" s="113"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="116"/>
-      <c r="AH21" s="116"/>
-      <c r="AI21" s="114"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="61"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="63"/>
     </row>
     <row r="22" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="43"/>
-      <c r="B22" s="110"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="111"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="117"/>
-      <c r="Q22" s="118"/>
-      <c r="R22" s="118"/>
-      <c r="S22" s="118"/>
-      <c r="T22" s="118"/>
-      <c r="U22" s="118"/>
-      <c r="V22" s="118"/>
-      <c r="W22" s="118"/>
-      <c r="X22" s="118"/>
-      <c r="Y22" s="118"/>
-      <c r="Z22" s="118"/>
-      <c r="AA22" s="118"/>
-      <c r="AB22" s="118"/>
-      <c r="AC22" s="118"/>
-      <c r="AD22" s="119"/>
-      <c r="AE22" s="113"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="116"/>
-      <c r="AH22" s="116"/>
-      <c r="AI22" s="114"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="71"/>
+      <c r="U22" s="71"/>
+      <c r="V22" s="71"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="71"/>
+      <c r="Y22" s="71"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
+      <c r="AC22" s="71"/>
+      <c r="AD22" s="72"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="63"/>
     </row>
     <row r="23" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="43"/>
-      <c r="B23" s="110"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="117"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="118"/>
-      <c r="T23" s="118"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="118"/>
-      <c r="W23" s="118"/>
-      <c r="X23" s="118"/>
-      <c r="Y23" s="118"/>
-      <c r="Z23" s="118"/>
-      <c r="AA23" s="118"/>
-      <c r="AB23" s="118"/>
-      <c r="AC23" s="118"/>
-      <c r="AD23" s="119"/>
-      <c r="AE23" s="113"/>
-      <c r="AF23" s="116"/>
-      <c r="AG23" s="116"/>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="114"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="71"/>
+      <c r="T23" s="71"/>
+      <c r="U23" s="71"/>
+      <c r="V23" s="71"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="71"/>
+      <c r="Y23" s="71"/>
+      <c r="Z23" s="71"/>
+      <c r="AA23" s="71"/>
+      <c r="AB23" s="71"/>
+      <c r="AC23" s="71"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="61"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="63"/>
     </row>
     <row r="24" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="43"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="117"/>
-      <c r="Q24" s="118"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="118"/>
-      <c r="T24" s="118"/>
-      <c r="U24" s="118"/>
-      <c r="V24" s="118"/>
-      <c r="W24" s="118"/>
-      <c r="X24" s="118"/>
-      <c r="Y24" s="118"/>
-      <c r="Z24" s="118"/>
-      <c r="AA24" s="118"/>
-      <c r="AB24" s="118"/>
-      <c r="AC24" s="118"/>
-      <c r="AD24" s="119"/>
-      <c r="AE24" s="113"/>
-      <c r="AF24" s="116"/>
-      <c r="AG24" s="116"/>
-      <c r="AH24" s="116"/>
-      <c r="AI24" s="114"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="71"/>
+      <c r="AC24" s="71"/>
+      <c r="AD24" s="72"/>
+      <c r="AE24" s="61"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="63"/>
     </row>
     <row r="25" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A25" s="43"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="110"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="117"/>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="119"/>
-      <c r="AE25" s="113"/>
-      <c r="AF25" s="116"/>
-      <c r="AG25" s="116"/>
-      <c r="AH25" s="116"/>
-      <c r="AI25" s="114"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="72"/>
+      <c r="AE25" s="61"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="63"/>
     </row>
     <row r="26" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A26" s="43"/>
-      <c r="B26" s="110"/>
-      <c r="C26" s="112"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="111"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="117"/>
-      <c r="Q26" s="118"/>
-      <c r="R26" s="118"/>
-      <c r="S26" s="118"/>
-      <c r="T26" s="118"/>
-      <c r="U26" s="118"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="118"/>
-      <c r="X26" s="118"/>
-      <c r="Y26" s="118"/>
-      <c r="Z26" s="118"/>
-      <c r="AA26" s="118"/>
-      <c r="AB26" s="118"/>
-      <c r="AC26" s="118"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="113"/>
-      <c r="AF26" s="116"/>
-      <c r="AG26" s="116"/>
-      <c r="AH26" s="116"/>
-      <c r="AI26" s="114"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="70"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="71"/>
+      <c r="AC26" s="71"/>
+      <c r="AD26" s="72"/>
+      <c r="AE26" s="61"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="63"/>
     </row>
     <row r="27" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A27" s="43"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="112"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="108"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="111"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="113"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="118"/>
-      <c r="R27" s="118"/>
-      <c r="S27" s="118"/>
-      <c r="T27" s="118"/>
-      <c r="U27" s="118"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="118"/>
-      <c r="X27" s="118"/>
-      <c r="Y27" s="118"/>
-      <c r="Z27" s="118"/>
-      <c r="AA27" s="118"/>
-      <c r="AB27" s="118"/>
-      <c r="AC27" s="118"/>
-      <c r="AD27" s="119"/>
-      <c r="AE27" s="113"/>
-      <c r="AF27" s="116"/>
-      <c r="AG27" s="116"/>
-      <c r="AH27" s="116"/>
-      <c r="AI27" s="114"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="70"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="72"/>
+      <c r="AE27" s="61"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="63"/>
     </row>
     <row r="28" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A28" s="43"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="112"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="108"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="110"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="112"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="118"/>
-      <c r="R28" s="118"/>
-      <c r="S28" s="118"/>
-      <c r="T28" s="118"/>
-      <c r="U28" s="118"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="118"/>
-      <c r="X28" s="118"/>
-      <c r="Y28" s="118"/>
-      <c r="Z28" s="118"/>
-      <c r="AA28" s="118"/>
-      <c r="AB28" s="118"/>
-      <c r="AC28" s="118"/>
-      <c r="AD28" s="119"/>
-      <c r="AE28" s="113"/>
-      <c r="AF28" s="116"/>
-      <c r="AG28" s="116"/>
-      <c r="AH28" s="116"/>
-      <c r="AI28" s="114"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="71"/>
+      <c r="AC28" s="71"/>
+      <c r="AD28" s="72"/>
+      <c r="AE28" s="61"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="63"/>
     </row>
     <row r="29" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="43"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="112"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="113"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="117"/>
-      <c r="Q29" s="118"/>
-      <c r="R29" s="118"/>
-      <c r="S29" s="118"/>
-      <c r="T29" s="118"/>
-      <c r="U29" s="118"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="118"/>
-      <c r="X29" s="118"/>
-      <c r="Y29" s="118"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="118"/>
-      <c r="AB29" s="118"/>
-      <c r="AC29" s="118"/>
-      <c r="AD29" s="119"/>
-      <c r="AE29" s="113"/>
-      <c r="AF29" s="116"/>
-      <c r="AG29" s="116"/>
-      <c r="AH29" s="116"/>
-      <c r="AI29" s="114"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="71"/>
+      <c r="AC29" s="71"/>
+      <c r="AD29" s="72"/>
+      <c r="AE29" s="61"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="63"/>
     </row>
     <row r="30" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="43"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="112"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="110"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="113"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="117"/>
-      <c r="Q30" s="118"/>
-      <c r="R30" s="118"/>
-      <c r="S30" s="118"/>
-      <c r="T30" s="118"/>
-      <c r="U30" s="118"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="118"/>
-      <c r="X30" s="118"/>
-      <c r="Y30" s="118"/>
-      <c r="Z30" s="118"/>
-      <c r="AA30" s="118"/>
-      <c r="AB30" s="118"/>
-      <c r="AC30" s="118"/>
-      <c r="AD30" s="119"/>
-      <c r="AE30" s="113"/>
-      <c r="AF30" s="116"/>
-      <c r="AG30" s="116"/>
-      <c r="AH30" s="116"/>
-      <c r="AI30" s="114"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="70"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="72"/>
+      <c r="AE30" s="61"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="63"/>
     </row>
     <row r="31" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="43"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="112"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="111"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="113"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="117"/>
-      <c r="Q31" s="118"/>
-      <c r="R31" s="118"/>
-      <c r="S31" s="118"/>
-      <c r="T31" s="118"/>
-      <c r="U31" s="118"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="118"/>
-      <c r="X31" s="118"/>
-      <c r="Y31" s="118"/>
-      <c r="Z31" s="118"/>
-      <c r="AA31" s="118"/>
-      <c r="AB31" s="118"/>
-      <c r="AC31" s="118"/>
-      <c r="AD31" s="119"/>
-      <c r="AE31" s="113"/>
-      <c r="AF31" s="116"/>
-      <c r="AG31" s="116"/>
-      <c r="AH31" s="116"/>
-      <c r="AI31" s="114"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="72"/>
+      <c r="AE31" s="61"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="63"/>
     </row>
     <row r="32" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A32" s="43"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="112"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="117"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
-      <c r="T32" s="118"/>
-      <c r="U32" s="118"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="118"/>
-      <c r="X32" s="118"/>
-      <c r="Y32" s="118"/>
-      <c r="Z32" s="118"/>
-      <c r="AA32" s="118"/>
-      <c r="AB32" s="118"/>
-      <c r="AC32" s="118"/>
-      <c r="AD32" s="119"/>
-      <c r="AE32" s="113"/>
-      <c r="AF32" s="116"/>
-      <c r="AG32" s="116"/>
-      <c r="AH32" s="116"/>
-      <c r="AI32" s="114"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="72"/>
+      <c r="AE32" s="61"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="63"/>
     </row>
     <row r="33" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A33" s="43"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="113"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="117"/>
-      <c r="Q33" s="118"/>
-      <c r="R33" s="118"/>
-      <c r="S33" s="118"/>
-      <c r="T33" s="118"/>
-      <c r="U33" s="118"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="118"/>
-      <c r="X33" s="118"/>
-      <c r="Y33" s="118"/>
-      <c r="Z33" s="118"/>
-      <c r="AA33" s="118"/>
-      <c r="AB33" s="118"/>
-      <c r="AC33" s="118"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="113"/>
-      <c r="AF33" s="116"/>
-      <c r="AG33" s="116"/>
-      <c r="AH33" s="116"/>
-      <c r="AI33" s="114"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="70"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="72"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="63"/>
     </row>
     <row r="34" spans="1:35" s="41" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A34" s="43"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="110"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="113"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="117"/>
-      <c r="Q34" s="118"/>
-      <c r="R34" s="118"/>
-      <c r="S34" s="118"/>
-      <c r="T34" s="118"/>
-      <c r="U34" s="118"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="118"/>
-      <c r="X34" s="118"/>
-      <c r="Y34" s="118"/>
-      <c r="Z34" s="118"/>
-      <c r="AA34" s="118"/>
-      <c r="AB34" s="118"/>
-      <c r="AC34" s="118"/>
-      <c r="AD34" s="119"/>
-      <c r="AE34" s="113"/>
-      <c r="AF34" s="116"/>
-      <c r="AG34" s="116"/>
-      <c r="AH34" s="116"/>
-      <c r="AI34" s="114"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="72"/>
+      <c r="AE34" s="61"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="62"/>
+      <c r="AI34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="202">
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="AA1:AE1"/>
+    <mergeCell ref="AF1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="Q2:X3"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AE3"/>
+    <mergeCell ref="AF3:AI3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:F8"/>
+    <mergeCell ref="G7:I8"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:AD8"/>
+    <mergeCell ref="AE7:AI8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="AE9:AI9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE11:AI11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="P12:AD12"/>
+    <mergeCell ref="AE12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE13:AI13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="P14:AD14"/>
+    <mergeCell ref="AE14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="P13:AD13"/>
+    <mergeCell ref="AE15:AI15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="P16:AD16"/>
+    <mergeCell ref="AE16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="P15:AD15"/>
+    <mergeCell ref="AE17:AI17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:AD18"/>
+    <mergeCell ref="AE18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="P17:AD17"/>
+    <mergeCell ref="AE19:AI19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:AD20"/>
+    <mergeCell ref="AE20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="P19:AD19"/>
+    <mergeCell ref="AE21:AI21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:AD22"/>
+    <mergeCell ref="AE22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="P21:AD21"/>
+    <mergeCell ref="AE23:AI23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="P24:AD24"/>
+    <mergeCell ref="AE24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="P23:AD23"/>
+    <mergeCell ref="AE25:AI25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="P26:AD26"/>
+    <mergeCell ref="AE26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="P25:AD25"/>
+    <mergeCell ref="AE27:AI27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="P28:AD28"/>
+    <mergeCell ref="AE28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="P27:AD27"/>
+    <mergeCell ref="AE29:AI29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="P30:AD30"/>
+    <mergeCell ref="AE30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="P29:AD29"/>
+    <mergeCell ref="AE31:AI31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="P32:AD32"/>
+    <mergeCell ref="AE32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="P31:AD31"/>
     <mergeCell ref="AE33:AI33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="D34:F34"/>
@@ -8336,194 +8812,6 @@
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:O33"/>
     <mergeCell ref="P33:AD33"/>
-    <mergeCell ref="AE31:AI31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="P32:AD32"/>
-    <mergeCell ref="AE32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="P31:AD31"/>
-    <mergeCell ref="AE29:AI29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="P30:AD30"/>
-    <mergeCell ref="AE30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="P29:AD29"/>
-    <mergeCell ref="AE27:AI27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="P28:AD28"/>
-    <mergeCell ref="AE28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:AD27"/>
-    <mergeCell ref="AE25:AI25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:AD26"/>
-    <mergeCell ref="AE26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:AD25"/>
-    <mergeCell ref="AE23:AI23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:AD24"/>
-    <mergeCell ref="AE24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:AD23"/>
-    <mergeCell ref="AE21:AI21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:AD22"/>
-    <mergeCell ref="AE22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:AD21"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:AD20"/>
-    <mergeCell ref="AE20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="P19:AD19"/>
-    <mergeCell ref="AE17:AI17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:AD18"/>
-    <mergeCell ref="AE18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="P17:AD17"/>
-    <mergeCell ref="AE15:AI15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="P16:AD16"/>
-    <mergeCell ref="AE16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="P15:AD15"/>
-    <mergeCell ref="AE13:AI13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="P14:AD14"/>
-    <mergeCell ref="AE14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="P13:AD13"/>
-    <mergeCell ref="AE11:AI11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="P12:AD12"/>
-    <mergeCell ref="AE12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE9:AI9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:F8"/>
-    <mergeCell ref="G7:I8"/>
-    <mergeCell ref="J7:O7"/>
-    <mergeCell ref="P7:AD8"/>
-    <mergeCell ref="AE7:AI8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="Q1:X1"/>
-    <mergeCell ref="AA1:AE1"/>
-    <mergeCell ref="AF1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="Q2:X3"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AE3"/>
-    <mergeCell ref="AF3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -8536,7 +8824,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AL41"/>
+  <dimension ref="A1:AL132"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
@@ -8556,53 +8844,53 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="61" t="str">
+      <c r="E1" s="122" t="str">
         <f>IF(変更履歴!E1&lt;&gt;"",変更履歴!E1,"")</f>
         <v>XXXプロジェクト</v>
       </c>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="63"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
       <c r="O1" s="20" t="s">
         <v>2</v>
       </c>
       <c r="P1" s="21"/>
-      <c r="Q1" s="64" t="str">
+      <c r="Q1" s="125" t="str">
         <f>IF(変更履歴!Q1&lt;&gt;"",変更履歴!Q1,"")</f>
         <v>要件定義</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="66"/>
+      <c r="R1" s="126"/>
+      <c r="S1" s="126"/>
+      <c r="T1" s="126"/>
+      <c r="U1" s="126"/>
+      <c r="V1" s="126"/>
+      <c r="W1" s="126"/>
+      <c r="X1" s="127"/>
       <c r="Y1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="67" t="str">
+      <c r="AA1" s="128" t="str">
         <f>IF(変更履歴!AA1&lt;&gt;"",変更履歴!AA1,"")</f>
         <v/>
       </c>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="79" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="140" t="str">
         <f>IF(変更履歴!AF1&lt;&gt;"",変更履歴!AF1,"")</f>
         <v/>
       </c>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
-      <c r="AI1" s="81"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="142"/>
       <c r="AJ1" s="23"/>
       <c r="AK1" s="23"/>
       <c r="AL1" s="24"/>
@@ -8614,19 +8902,19 @@
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
-      <c r="E2" s="61" t="str">
+      <c r="E2" s="122" t="str">
         <f>IF(変更履歴!E2&lt;&gt;"",変更履歴!E2,"")</f>
         <v/>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="63"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="124"/>
       <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
@@ -8646,21 +8934,21 @@
         <v>8</v>
       </c>
       <c r="Z2" s="22"/>
-      <c r="AA2" s="67" t="str">
+      <c r="AA2" s="128" t="str">
         <f>IF(変更履歴!AA2&lt;&gt;"",変更履歴!AA2,"")</f>
         <v/>
       </c>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="79" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="140" t="str">
         <f>IF(変更履歴!AF2&lt;&gt;"",変更履歴!AF2,"")</f>
         <v/>
       </c>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
-      <c r="AI2" s="81"/>
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="141"/>
+      <c r="AI2" s="142"/>
       <c r="AJ2" s="23"/>
       <c r="AK2" s="23"/>
       <c r="AL2" s="23"/>
@@ -8672,19 +8960,19 @@
       <c r="B3" s="30"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="61" t="str">
+      <c r="E3" s="122" t="str">
         <f>IF(変更履歴!E3&lt;&gt;"",変更履歴!E3,"")</f>
         <v/>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="63"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
+      <c r="H3" s="123"/>
+      <c r="I3" s="123"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="124"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34"/>
       <c r="Q3" s="152"/>
@@ -8697,15 +8985,15 @@
       <c r="X3" s="154"/>
       <c r="Y3" s="33"/>
       <c r="Z3" s="35"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="85"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
-      <c r="AI3" s="87"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="129"/>
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="130"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="148"/>
       <c r="AJ3" s="23"/>
       <c r="AK3" s="23"/>
       <c r="AL3" s="23"/>
@@ -8744,345 +9032,1438 @@
     </row>
     <row r="11" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
+      <c r="D11" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
     </row>
     <row r="12" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="48"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="46" t="s">
-        <v>27</v>
-      </c>
+      <c r="B12" s="51"/>
+      <c r="D12" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
     </row>
     <row r="13" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="48"/>
-      <c r="B13" s="52"/>
+      <c r="B13" s="51"/>
       <c r="D13" s="46" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="O13" s="49"/>
       <c r="P13" s="49"/>
     </row>
-    <row r="14" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="48"/>
-      <c r="D14" s="45" t="s">
-        <v>29</v>
+      <c r="B14" s="51"/>
+      <c r="D14" s="46" t="s">
+        <v>59</v>
       </c>
       <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
     </row>
     <row r="15" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="48"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-    </row>
-    <row r="16" spans="1:38" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="45" t="s">
+    </row>
+    <row r="16" spans="1:38" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="48"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="48"/>
+      <c r="B17" s="52"/>
+      <c r="D17" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+    </row>
+    <row r="18" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="48"/>
+      <c r="B18" s="52"/>
+      <c r="E18" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+    </row>
+    <row r="19" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="48"/>
+      <c r="B19" s="52"/>
+      <c r="E19" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+    </row>
+    <row r="20" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="48"/>
+      <c r="B20" s="52"/>
+      <c r="E20" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+    </row>
+    <row r="21" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="48"/>
+      <c r="B21" s="52"/>
+      <c r="E21" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+    </row>
+    <row r="22" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="48"/>
+      <c r="B22" s="52"/>
+      <c r="E22" s="46" t="s">
+        <v>139</v>
+      </c>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+    </row>
+    <row r="23" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="48"/>
+      <c r="B23" s="52"/>
+      <c r="E23" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+    </row>
+    <row r="24" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="48"/>
+      <c r="B24" s="52"/>
+      <c r="E24" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+    </row>
+    <row r="25" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="E25" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+    </row>
+    <row r="26" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="48"/>
+      <c r="B26" s="52"/>
+      <c r="E26" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+    </row>
+    <row r="27" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="48"/>
+      <c r="B27" s="52"/>
+      <c r="E27" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+    </row>
+    <row r="28" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="48"/>
+      <c r="B28" s="52"/>
+      <c r="E28" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+    </row>
+    <row r="29" spans="1:16" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="48"/>
+      <c r="B29" s="52"/>
+      <c r="E29" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+    </row>
+    <row r="30" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="48"/>
+      <c r="D30" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" s="49"/>
+    </row>
+    <row r="31" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="48"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31" s="49"/>
+    </row>
+    <row r="32" spans="1:16" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="48"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="O32" s="49"/>
+    </row>
+    <row r="33" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="48"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="O33" s="49"/>
+    </row>
+    <row r="34" spans="1:24" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="48"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="49"/>
+    </row>
+    <row r="35" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="53"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="55"/>
-      <c r="X16" s="55"/>
-    </row>
-    <row r="17" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="53"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45" t="s">
+      <c r="D35" s="45"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="49"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
+      <c r="V35" s="55"/>
+      <c r="W35" s="55"/>
+      <c r="X35" s="55"/>
+    </row>
+    <row r="36" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="53"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="55"/>
-    </row>
-    <row r="18" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45" t="s">
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
+      <c r="V36" s="55"/>
+      <c r="W36" s="55"/>
+      <c r="X36" s="55"/>
+    </row>
+    <row r="37" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="53"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
+      <c r="V37" s="55"/>
+      <c r="W37" s="55"/>
+      <c r="X37" s="55"/>
+    </row>
+    <row r="38" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="53"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="49"/>
+      <c r="O38" s="49"/>
+      <c r="P38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+    </row>
+    <row r="39" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="53"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+    </row>
+    <row r="40" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="53"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="49"/>
+      <c r="P40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="55"/>
+    </row>
+    <row r="41" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="53"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="49"/>
+      <c r="P41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="55"/>
+    </row>
+    <row r="42" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="53"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="49"/>
+      <c r="P42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
+      <c r="V42" s="55"/>
+      <c r="W42" s="55"/>
+      <c r="X42" s="55"/>
+    </row>
+    <row r="43" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="53"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="49"/>
+      <c r="P43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="55"/>
+      <c r="W43" s="55"/>
+      <c r="X43" s="55"/>
+    </row>
+    <row r="44" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="53"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-    </row>
-    <row r="19" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="45"/>
-      <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-    </row>
-    <row r="20" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="53"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49" t="s">
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="49"/>
+      <c r="P44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="55"/>
+      <c r="W44" s="55"/>
+      <c r="X44" s="55"/>
+    </row>
+    <row r="45" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="53"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="49"/>
+      <c r="P45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
+      <c r="V45" s="55"/>
+      <c r="W45" s="55"/>
+      <c r="X45" s="55"/>
+    </row>
+    <row r="46" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="53"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+    </row>
+    <row r="47" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="53"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="49"/>
+      <c r="P47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+    </row>
+    <row r="48" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="53"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="49"/>
+      <c r="P48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
+      <c r="V48" s="55"/>
+      <c r="W48" s="55"/>
+      <c r="X48" s="55"/>
+    </row>
+    <row r="49" spans="1:24" s="46" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="53"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="49"/>
+      <c r="P49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="55"/>
+      <c r="W49" s="55"/>
+      <c r="X49" s="55"/>
+    </row>
+    <row r="50" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="53"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-    </row>
-    <row r="21" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46" t="s">
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="45"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="49"/>
+      <c r="P50" s="45"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="T50" s="45"/>
+      <c r="U50" s="45"/>
+      <c r="V50" s="45"/>
+      <c r="W50" s="45"/>
+      <c r="X50" s="45"/>
+    </row>
+    <row r="51" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="57"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-    </row>
-    <row r="22" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="46"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A23" s="58"/>
-      <c r="C23" s="59" t="s">
+      <c r="E51" s="49"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="45"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="49"/>
+      <c r="P51" s="45"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="T51" s="45"/>
+      <c r="U51" s="45"/>
+      <c r="V51" s="45"/>
+      <c r="W51" s="45"/>
+      <c r="X51" s="45"/>
+    </row>
+    <row r="52" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="57"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="46"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="45"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="49"/>
+      <c r="P52" s="45"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="T52" s="45"/>
+      <c r="U52" s="45"/>
+      <c r="V52" s="45"/>
+      <c r="W52" s="45"/>
+      <c r="X52" s="45"/>
+    </row>
+    <row r="53" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="57"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="46"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="45"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="49"/>
+      <c r="P53" s="45"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="45"/>
+      <c r="T53" s="45"/>
+      <c r="U53" s="45"/>
+      <c r="V53" s="45"/>
+      <c r="W53" s="45"/>
+      <c r="X53" s="45"/>
+    </row>
+    <row r="54" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="57"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="46"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="45"/>
+      <c r="J54" s="45"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="45"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="49"/>
+      <c r="P54" s="45"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="45"/>
+      <c r="U54" s="45"/>
+      <c r="V54" s="45"/>
+      <c r="W54" s="45"/>
+      <c r="X54" s="45"/>
+    </row>
+    <row r="55" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="57"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="G55" s="46"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="45"/>
+      <c r="J55" s="45"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="45"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="49"/>
+      <c r="P55" s="45"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="45"/>
+      <c r="U55" s="45"/>
+      <c r="V55" s="45"/>
+      <c r="W55" s="45"/>
+      <c r="X55" s="45"/>
+    </row>
+    <row r="56" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="57"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G56" s="46"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45"/>
+      <c r="J56" s="45"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="45"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="49"/>
+      <c r="P56" s="45"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="45"/>
+      <c r="U56" s="45"/>
+      <c r="V56" s="45"/>
+      <c r="W56" s="45"/>
+      <c r="X56" s="45"/>
+    </row>
+    <row r="57" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="57"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="G57" s="46"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="45"/>
+      <c r="J57" s="45"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="45"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="49"/>
+      <c r="P57" s="45"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="45"/>
+      <c r="U57" s="45"/>
+      <c r="V57" s="45"/>
+      <c r="W57" s="45"/>
+      <c r="X57" s="45"/>
+    </row>
+    <row r="58" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="57"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" s="46"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="45"/>
+      <c r="J58" s="45"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="45"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="49"/>
+      <c r="P58" s="45"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="45"/>
+      <c r="U58" s="45"/>
+      <c r="V58" s="45"/>
+      <c r="W58" s="45"/>
+      <c r="X58" s="45"/>
+    </row>
+    <row r="59" spans="1:24" s="55" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="57"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="49"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="45"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="49"/>
+      <c r="P59" s="45"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="45"/>
+      <c r="U59" s="45"/>
+      <c r="V59" s="45"/>
+      <c r="W59" s="45"/>
+      <c r="X59" s="45"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A60" s="58"/>
+      <c r="C60" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="46" t="s">
+      <c r="N60" s="49"/>
+      <c r="O60" s="49"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A61" s="58"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A25" s="58"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="46" t="s">
+      <c r="N61" s="49"/>
+      <c r="O61" s="49"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A62" s="58"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="N62" s="49"/>
+      <c r="O62" s="49"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A63" s="58"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A64" s="58"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="N64" s="49"/>
+      <c r="O64" s="49"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A65" s="58"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="N25" s="49"/>
-      <c r="O25" s="49"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A26" s="60"/>
-      <c r="D26" s="46" t="s">
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A66" s="58"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="N66" s="49"/>
+      <c r="O66" s="49"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A67" s="58"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="N67" s="49"/>
+      <c r="O67" s="49"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A68" s="58"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="N68" s="49"/>
+      <c r="O68" s="49"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="N69" s="49"/>
+      <c r="O69" s="49"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A70" s="58"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A71" s="58"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="N71" s="49"/>
+      <c r="O71" s="49"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A72" s="60"/>
+      <c r="D72" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A27" s="60"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A28" s="60"/>
-      <c r="C28" s="46" t="s">
+      <c r="F72" s="46"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A73" s="60"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="F73" s="46"/>
+      <c r="N73" s="49"/>
+      <c r="O73" s="49"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A74" s="60"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F74" s="46"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A75" s="60"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="46"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="49"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A76" s="60"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="46"/>
+      <c r="N76" s="49"/>
+      <c r="O76" s="49"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A77" s="60"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="F77" s="46"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="49"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A78" s="60"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" s="46"/>
+      <c r="N78" s="49"/>
+      <c r="O78" s="49"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A79" s="60"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F79" s="46"/>
+      <c r="N79" s="49"/>
+      <c r="O79" s="49"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A80" s="60"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="46"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A81" s="60"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
+      <c r="N81" s="49"/>
+      <c r="O81" s="49"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A82" s="60"/>
+      <c r="C82" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="49"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A29" s="60"/>
-      <c r="D29" s="46" t="s">
+      <c r="O82" s="49"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A83" s="60"/>
+      <c r="D83" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="N29" s="49"/>
-      <c r="O29" s="49"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A30" s="60"/>
-      <c r="D30" s="55" t="s">
+      <c r="N83" s="49"/>
+      <c r="O83" s="49"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A84" s="60"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A85" s="60"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A86" s="60"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A87" s="60"/>
+      <c r="D87" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="N30" s="49"/>
-      <c r="O30" s="49"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A31" s="60"/>
-      <c r="D31" s="55" t="s">
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A88" s="60"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A89" s="60"/>
+      <c r="D89" s="55"/>
+      <c r="E89" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A90" s="60"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A91" s="60"/>
+      <c r="D91" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="N31" s="49"/>
-      <c r="O31" s="49"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A32" s="60"/>
-      <c r="D32" s="55" t="s">
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A92" s="60"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A93" s="60"/>
+      <c r="D93" s="55"/>
+      <c r="E93" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A94" s="60"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A95" s="60"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A96" s="60"/>
+      <c r="D96" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="N32" s="49"/>
-      <c r="O32" s="49"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A33" s="58"/>
-      <c r="D33" s="45" t="s">
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A97" s="60"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A98" s="60"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="N98" s="49"/>
+      <c r="O98" s="49"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A99" s="60"/>
+      <c r="D99" s="55"/>
+      <c r="E99" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="N99" s="49"/>
+      <c r="O99" s="49"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A100" s="60"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="N100" s="49"/>
+      <c r="O100" s="49"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A101" s="58"/>
+      <c r="D101" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="N33" s="49"/>
-      <c r="O33" s="49"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A34" s="60"/>
-      <c r="D34" s="45" t="s">
+      <c r="N101" s="49"/>
+      <c r="O101" s="49"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A102" s="58"/>
+      <c r="E102" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="N102" s="49"/>
+      <c r="O102" s="49"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A103" s="58"/>
+      <c r="E103" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="N103" s="49"/>
+      <c r="O103" s="49"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A104" s="58"/>
+      <c r="E104" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="N104" s="49"/>
+      <c r="O104" s="49"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A105" s="60"/>
+      <c r="D105" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="N34" s="49"/>
-      <c r="O34" s="49"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A35" s="60"/>
-      <c r="D35" s="45" t="s">
+      <c r="N105" s="49"/>
+      <c r="O105" s="49"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A106" s="60"/>
+      <c r="E106" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="N106" s="49"/>
+      <c r="O106" s="49"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A107" s="60"/>
+      <c r="E107" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="N107" s="49"/>
+      <c r="O107" s="49"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A108" s="60"/>
+      <c r="D108" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="N35" s="49"/>
-      <c r="O35" s="49"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A36" s="60"/>
-      <c r="D36" s="45" t="s">
+      <c r="N108" s="49"/>
+      <c r="O108" s="49"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A109" s="60"/>
+      <c r="E109" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="N109" s="49"/>
+      <c r="O109" s="49"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A110" s="60"/>
+      <c r="E110" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="N110" s="49"/>
+      <c r="O110" s="49"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A111" s="60"/>
+      <c r="D111" s="45" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A37" s="60"/>
-      <c r="D37" s="45" t="s">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A112" s="60"/>
+      <c r="E112" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A113" s="60"/>
+      <c r="E113" s="45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A114" s="60"/>
+      <c r="E114" s="45" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A115" s="60"/>
+      <c r="D115" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A38" s="60"/>
-      <c r="D38" s="45" t="s">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A116" s="60"/>
+      <c r="E116" s="45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A117" s="60"/>
+      <c r="E117" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A118" s="60"/>
+      <c r="E118" s="45" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A119" s="60"/>
+      <c r="D119" s="45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A39" s="60"/>
-      <c r="D39" s="45" t="s">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A120" s="60"/>
+      <c r="E120" s="45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A121" s="60"/>
+      <c r="E121" s="45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A122" s="60"/>
+      <c r="D122" s="45" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D40" s="45" t="s">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A123" s="60"/>
+      <c r="E123" s="45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A124" s="60"/>
+      <c r="E124" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="D125" s="45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A126" s="58"/>
+      <c r="D126" s="45" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A41" s="58"/>
-      <c r="D41" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="O41" s="49"/>
-      <c r="P41" s="49"/>
+      <c r="O126" s="49"/>
+      <c r="P126" s="49"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E127" s="45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="E128" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E129" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E130" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E131" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="E132" s="45" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9104,5 +10485,10 @@
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
     <oddFooter>&amp;LCopyright(c) 2016 TIS Inc.</oddFooter>
   </headerFooter>
+  <rowBreaks count="3" manualBreakCount="3">
+    <brk id="34" max="34" man="1"/>
+    <brk id="81" max="34" man="1"/>
+    <brk id="104" max="34" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>